--- a/OXY.xlsx
+++ b/OXY.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3846997-9BB5-4017-8BB8-E319A5E3FF90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73BFA503-6377-485B-8FDD-F2A71D6F67F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6960" yWindow="1245" windowWidth="20745" windowHeight="14085" activeTab="1" xr2:uid="{08012682-0F50-4229-84EC-14421E66CA3F}"/>
+    <workbookView xWindow="4680" yWindow="300" windowWidth="21120" windowHeight="14670" activeTab="1" xr2:uid="{08012682-0F50-4229-84EC-14421E66CA3F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -169,8 +169,22 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -181,9 +195,8 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -206,15 +219,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -622,7 +636,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="2">
-        <v>40</v>
+        <v>41.5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -642,7 +656,7 @@
       </c>
       <c r="D4" s="2">
         <f>D2*D3</f>
-        <v>37540</v>
+        <v>38947.75</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -673,7 +687,7 @@
       </c>
       <c r="D7" s="2">
         <f>D4+D6-D5</f>
-        <v>60386</v>
+        <v>61793.75</v>
       </c>
     </row>
   </sheetData>
@@ -689,16 +703,16 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q23" sqref="Q23"/>
+      <selection pane="bottomRight" activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24" style="2" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="24" style="3" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B1" s="4">
         <v>2022</v>
       </c>
@@ -751,1105 +765,1105 @@
         <v>2034</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:14" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="5">
         <v>36634</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="5">
         <v>28257</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="5">
         <v>26725</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="5">
         <f>D2*1.03</f>
         <v>27526.75</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="5">
         <f t="shared" ref="F2:I2" si="6">E2*1.03</f>
         <v>28352.552500000002</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="5">
         <f t="shared" si="6"/>
         <v>29203.129075000001</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="5">
         <f t="shared" si="6"/>
         <v>30079.22294725</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="5">
         <f t="shared" si="6"/>
         <v>30981.599635667502</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2" s="5">
         <f t="shared" ref="J2" si="7">I2*1.03</f>
         <v>31911.04762473753</v>
       </c>
-      <c r="K2" s="3">
+      <c r="K2" s="5">
         <f t="shared" ref="K2" si="8">J2*1.03</f>
         <v>32868.379053479657</v>
       </c>
-      <c r="L2" s="3">
+      <c r="L2" s="5">
         <f t="shared" ref="L2" si="9">K2*1.03</f>
         <v>33854.430425084051</v>
       </c>
-      <c r="M2" s="3">
+      <c r="M2" s="5">
         <f t="shared" ref="M2" si="10">L2*1.03</f>
         <v>34870.063337836575</v>
       </c>
-      <c r="N2" s="3">
+      <c r="N2" s="5">
         <f t="shared" ref="N2" si="11">M2*1.03</f>
         <v>35916.165237971676</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="3">
         <v>4028</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="3">
         <v>4677</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="3">
         <v>4738</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="3">
         <v>1475</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="3">
         <v>1481</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="3">
         <v>1608</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="3">
         <v>3273</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="3">
         <v>3116</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="3">
         <v>3121</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="3">
         <v>3287</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="3">
         <v>2009</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="3">
         <v>337</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="3">
         <f>SUM(B3:B6)</f>
         <v>12063</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="3">
         <f t="shared" ref="C7:D7" si="12">SUM(C3:C6)</f>
         <v>11283</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="3">
         <f t="shared" si="12"/>
         <v>9804</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="3">
         <f>E2*(1-E27)</f>
         <v>10184.897499999999</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="3">
         <f t="shared" ref="F7:I7" si="13">F2*(1-F27)</f>
         <v>10490.444425</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="3">
         <f t="shared" si="13"/>
         <v>10805.157757749999</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="3">
         <f t="shared" si="13"/>
         <v>11129.3124904825</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="3">
         <f t="shared" si="13"/>
         <v>11463.191865196975</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="3">
         <f t="shared" ref="J7:N7" si="14">J2*(1-J27)</f>
         <v>11807.087621152887</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K7" s="3">
         <f t="shared" si="14"/>
         <v>12161.300249787473</v>
       </c>
-      <c r="L7" s="2">
+      <c r="L7" s="3">
         <f t="shared" si="14"/>
         <v>12526.139257281098</v>
       </c>
-      <c r="M7" s="2">
+      <c r="M7" s="3">
         <f t="shared" si="14"/>
         <v>12901.923434999533</v>
       </c>
-      <c r="N7" s="2">
+      <c r="N7" s="3">
         <f t="shared" si="14"/>
         <v>13288.981138049519</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="3">
         <f>B2-B7</f>
         <v>24571</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="3">
         <f t="shared" ref="C8:D8" si="15">C2-C7</f>
         <v>16974</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="3">
         <f t="shared" si="15"/>
         <v>16921</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="3">
         <f t="shared" ref="E8" si="16">E2-E7</f>
         <v>17341.852500000001</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="3">
         <f t="shared" ref="F8" si="17">F2-F7</f>
         <v>17862.108075000004</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="3">
         <f t="shared" ref="G8" si="18">G2-G7</f>
         <v>18397.971317250001</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="3">
         <f t="shared" ref="H8" si="19">H2-H7</f>
         <v>18949.910456767502</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="3">
         <f t="shared" ref="I8:N8" si="20">I2-I7</f>
         <v>19518.407770470527</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="3">
         <f t="shared" si="20"/>
         <v>20103.960003584645</v>
       </c>
-      <c r="K8" s="2">
+      <c r="K8" s="3">
         <f t="shared" si="20"/>
         <v>20707.078803692184</v>
       </c>
-      <c r="L8" s="2">
+      <c r="L8" s="3">
         <f t="shared" si="20"/>
         <v>21328.291167802952</v>
       </c>
-      <c r="M8" s="2">
+      <c r="M8" s="3">
         <f t="shared" si="20"/>
         <v>21968.139902837043</v>
       </c>
-      <c r="N8" s="2">
+      <c r="N8" s="3">
         <f t="shared" si="20"/>
         <v>22627.184099922157</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="3">
         <v>945</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="3">
         <v>1083</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="3">
         <v>1062</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="3">
         <v>1271</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="3">
         <v>1084</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="3">
         <v>1581</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="3">
         <v>1271</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="3">
         <v>1084</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="3">
         <v>1062</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="3">
         <v>6926</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="3">
         <v>6865</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="3">
         <v>7371</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="3">
         <v>216</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="3">
         <v>441</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="3">
         <v>275</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="3">
         <f>SUM(B9:B13)</f>
         <v>10629</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="3">
         <f t="shared" ref="C14:D14" si="21">SUM(C9:C13)</f>
         <v>10557</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="3">
         <f t="shared" si="21"/>
         <v>11351</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="3">
         <f>D14*(1+E24)</f>
         <v>11691.53</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="3">
         <f t="shared" ref="F14:I14" si="22">E14*(1+F24)</f>
         <v>12042.275900000001</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="3">
         <f t="shared" si="22"/>
         <v>12403.544177000002</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14" s="3">
         <f t="shared" si="22"/>
         <v>12775.650502310002</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I14" s="3">
         <f t="shared" si="22"/>
         <v>13158.920017379301</v>
       </c>
-      <c r="J14" s="2">
+      <c r="J14" s="3">
         <f t="shared" ref="J14" si="23">I14*(1+J24)</f>
         <v>13553.687617900681</v>
       </c>
-      <c r="K14" s="2">
+      <c r="K14" s="3">
         <f t="shared" ref="K14" si="24">J14*(1+K24)</f>
         <v>13960.298246437702</v>
       </c>
-      <c r="L14" s="2">
+      <c r="L14" s="3">
         <f t="shared" ref="L14" si="25">K14*(1+L24)</f>
         <v>14379.107193830834</v>
       </c>
-      <c r="M14" s="2">
+      <c r="M14" s="3">
         <f t="shared" ref="M14" si="26">L14*(1+M24)</f>
         <v>14810.480409645759</v>
       </c>
-      <c r="N14" s="2">
+      <c r="N14" s="3">
         <f t="shared" ref="N14" si="27">M14*(1+N24)</f>
         <v>15254.794821935133</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="3">
         <f>B8-B14</f>
         <v>13942</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="3">
         <f t="shared" ref="C15:I15" si="28">C8-C14</f>
         <v>6417</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="3">
         <f t="shared" si="28"/>
         <v>5570</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="3">
         <f t="shared" si="28"/>
         <v>5650.3225000000002</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="3">
         <f t="shared" si="28"/>
         <v>5819.8321750000032</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15" s="3">
         <f t="shared" si="28"/>
         <v>5994.4271402499999</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H15" s="3">
         <f t="shared" si="28"/>
         <v>6174.2599544575005</v>
       </c>
-      <c r="I15" s="2">
+      <c r="I15" s="3">
         <f t="shared" si="28"/>
         <v>6359.4877530912254</v>
       </c>
-      <c r="J15" s="2">
+      <c r="J15" s="3">
         <f t="shared" ref="J15:N15" si="29">J8-J14</f>
         <v>6550.2723856839639</v>
       </c>
-      <c r="K15" s="2">
+      <c r="K15" s="3">
         <f t="shared" si="29"/>
         <v>6746.7805572544821</v>
       </c>
-      <c r="L15" s="2">
+      <c r="L15" s="3">
         <f t="shared" si="29"/>
         <v>6949.1839739721181</v>
       </c>
-      <c r="M15" s="2">
+      <c r="M15" s="3">
         <f t="shared" si="29"/>
         <v>7157.6594931912841</v>
       </c>
-      <c r="N15" s="2">
+      <c r="N15" s="3">
         <f t="shared" si="29"/>
         <v>7372.3892779870239</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="3">
         <v>-1030</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="3">
         <v>-945</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="3">
         <v>-1175</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="3">
         <f>D36*$Q$23</f>
         <v>-1370.76</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="3">
         <f>E36*$Q$23</f>
         <v>-1125.4155854999999</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16" s="3">
         <f>F36*$Q$23</f>
         <v>-858.70736107769972</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H16" s="3">
         <f>G36*$Q$23</f>
         <v>-569.31365034173268</v>
       </c>
-      <c r="I16" s="2">
+      <c r="I16" s="3">
         <f>H36*$Q$23</f>
         <v>-255.84017859531727</v>
       </c>
-      <c r="J16" s="2">
+      <c r="J16" s="3">
         <f t="shared" ref="J16:N16" si="30">I36*$Q$23</f>
         <v>83.183694044369915</v>
       </c>
-      <c r="K16" s="2">
+      <c r="K16" s="3">
         <f t="shared" si="30"/>
         <v>449.30892893641732</v>
       </c>
-      <c r="L16" s="2">
+      <c r="L16" s="3">
         <f t="shared" si="30"/>
         <v>844.17096396330737</v>
       </c>
-      <c r="M16" s="2">
+      <c r="M16" s="3">
         <f t="shared" si="30"/>
         <v>1269.4940771381457</v>
       </c>
-      <c r="N16" s="2">
+      <c r="N16" s="3">
         <f t="shared" si="30"/>
         <v>1727.0959690531274</v>
       </c>
     </row>
-    <row r="17" spans="1:98" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+    <row r="17" spans="1:98" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="3">
         <v>793</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="3">
         <v>534</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="3">
         <v>862</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="3">
         <f>D17*1.04</f>
         <v>896.48</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="3">
         <f t="shared" ref="F17:I17" si="31">E17*1.04</f>
         <v>932.33920000000001</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17" s="3">
         <f t="shared" si="31"/>
         <v>969.63276800000006</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H17" s="3">
         <f t="shared" si="31"/>
         <v>1008.41807872</v>
       </c>
-      <c r="I17" s="2">
+      <c r="I17" s="3">
         <f t="shared" si="31"/>
         <v>1048.7548018688001</v>
       </c>
-      <c r="J17" s="2">
+      <c r="J17" s="3">
         <f t="shared" ref="J17:N17" si="32">I17*1.04</f>
         <v>1090.7049939435522</v>
       </c>
-      <c r="K17" s="2">
+      <c r="K17" s="3">
         <f t="shared" si="32"/>
         <v>1134.3331937012942</v>
       </c>
-      <c r="L17" s="2">
+      <c r="L17" s="3">
         <f t="shared" si="32"/>
         <v>1179.7065214493462</v>
       </c>
-      <c r="M17" s="2">
+      <c r="M17" s="3">
         <f t="shared" si="32"/>
         <v>1226.8947823073202</v>
       </c>
-      <c r="N17" s="2">
+      <c r="N17" s="3">
         <f t="shared" si="32"/>
         <v>1275.9705735996131</v>
       </c>
     </row>
-    <row r="18" spans="1:98" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+    <row r="18" spans="1:98" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="3">
         <f>B15+SUM(B16:B17)</f>
         <v>13705</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="3">
         <f t="shared" ref="C18:I18" si="33">C15+SUM(C16:C17)</f>
         <v>6006</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="3">
         <f t="shared" si="33"/>
         <v>5257</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="3">
         <f t="shared" si="33"/>
         <v>5176.0425000000005</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="3">
         <f t="shared" si="33"/>
         <v>5626.7557895000036</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G18" s="3">
         <f t="shared" si="33"/>
         <v>6105.3525471723005</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H18" s="3">
         <f t="shared" si="33"/>
         <v>6613.3643828357681</v>
       </c>
-      <c r="I18" s="2">
+      <c r="I18" s="3">
         <f t="shared" si="33"/>
         <v>7152.4023763647083</v>
       </c>
-      <c r="J18" s="2">
+      <c r="J18" s="3">
         <f t="shared" ref="J18:N18" si="34">J15+SUM(J16:J17)</f>
         <v>7724.1610736718858</v>
       </c>
-      <c r="K18" s="2">
+      <c r="K18" s="3">
         <f t="shared" si="34"/>
         <v>8330.4226798921936</v>
       </c>
-      <c r="L18" s="2">
+      <c r="L18" s="3">
         <f t="shared" si="34"/>
         <v>8973.0614593847713</v>
       </c>
-      <c r="M18" s="2">
+      <c r="M18" s="3">
         <f t="shared" si="34"/>
         <v>9654.0483526367498</v>
       </c>
-      <c r="N18" s="2">
+      <c r="N18" s="3">
         <f t="shared" si="34"/>
         <v>10375.455820639763</v>
       </c>
     </row>
-    <row r="19" spans="1:98" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+    <row r="19" spans="1:98" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="3">
         <v>813</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="3">
         <v>1733</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="3">
         <v>1174</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="3">
         <f>E18*E25</f>
         <v>1086.9689250000001</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19" s="3">
         <f t="shared" ref="F19:I19" si="35">F18*F25</f>
         <v>1181.6187157950008</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G19" s="3">
         <f t="shared" si="35"/>
         <v>1282.1240349061832</v>
       </c>
-      <c r="H19" s="2">
+      <c r="H19" s="3">
         <f t="shared" si="35"/>
         <v>1388.8065203955111</v>
       </c>
-      <c r="I19" s="2">
+      <c r="I19" s="3">
         <f t="shared" si="35"/>
         <v>1502.0044990365886</v>
       </c>
-      <c r="J19" s="2">
+      <c r="J19" s="3">
         <f t="shared" ref="J19" si="36">J18*J25</f>
         <v>1622.0738254710959</v>
       </c>
-      <c r="K19" s="2">
+      <c r="K19" s="3">
         <f t="shared" ref="K19" si="37">K18*K25</f>
         <v>1749.3887627773606</v>
       </c>
-      <c r="L19" s="2">
+      <c r="L19" s="3">
         <f t="shared" ref="L19" si="38">L18*L25</f>
         <v>1884.3429064708018</v>
       </c>
-      <c r="M19" s="2">
+      <c r="M19" s="3">
         <f t="shared" ref="M19" si="39">M18*M25</f>
         <v>2027.3501540537175</v>
       </c>
-      <c r="N19" s="2">
+      <c r="N19" s="3">
         <f t="shared" ref="N19" si="40">N18*N25</f>
         <v>2178.8457223343503</v>
       </c>
     </row>
-    <row r="20" spans="1:98" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+    <row r="20" spans="1:98" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="5">
         <f>B18-B19</f>
         <v>12892</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="5">
         <f t="shared" ref="C20:I20" si="41">C18-C19</f>
         <v>4273</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="5">
         <f t="shared" si="41"/>
         <v>4083</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="5">
         <f t="shared" si="41"/>
         <v>4089.0735750000003</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="5">
         <f t="shared" si="41"/>
         <v>4445.1370737050029</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20" s="5">
         <f t="shared" si="41"/>
         <v>4823.2285122661178</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H20" s="5">
         <f t="shared" si="41"/>
         <v>5224.5578624402569</v>
       </c>
-      <c r="I20" s="3">
+      <c r="I20" s="5">
         <f t="shared" si="41"/>
         <v>5650.3978773281196</v>
       </c>
-      <c r="J20" s="3">
+      <c r="J20" s="5">
         <f t="shared" ref="J20:N20" si="42">J18-J19</f>
         <v>6102.0872482007899</v>
       </c>
-      <c r="K20" s="3">
+      <c r="K20" s="5">
         <f t="shared" si="42"/>
         <v>6581.0339171148335</v>
       </c>
-      <c r="L20" s="3">
+      <c r="L20" s="5">
         <f t="shared" si="42"/>
         <v>7088.7185529139697</v>
       </c>
-      <c r="M20" s="3">
+      <c r="M20" s="5">
         <f t="shared" si="42"/>
         <v>7626.6981985830325</v>
       </c>
-      <c r="N20" s="3">
+      <c r="N20" s="5">
         <f t="shared" si="42"/>
         <v>8196.610098305413</v>
       </c>
-      <c r="O20" s="3">
-        <f>N20*(1+$Q$24)</f>
+      <c r="O20" s="5">
+        <f t="shared" ref="O20:AT20" si="43">N20*(1+$Q$24)</f>
         <v>8278.5761992884673</v>
       </c>
-      <c r="P20" s="3">
-        <f>O20*(1+$Q$24)</f>
+      <c r="P20" s="5">
+        <f t="shared" si="43"/>
         <v>8361.3619612813527</v>
       </c>
-      <c r="Q20" s="3">
-        <f>P20*(1+$Q$24)</f>
+      <c r="Q20" s="5">
+        <f t="shared" si="43"/>
         <v>8444.9755808941663</v>
       </c>
-      <c r="R20" s="3">
-        <f>Q20*(1+$Q$24)</f>
+      <c r="R20" s="5">
+        <f t="shared" si="43"/>
         <v>8529.4253367031088</v>
       </c>
-      <c r="S20" s="3">
-        <f>R20*(1+$Q$24)</f>
+      <c r="S20" s="5">
+        <f t="shared" si="43"/>
         <v>8614.7195900701408</v>
       </c>
-      <c r="T20" s="3">
-        <f>S20*(1+$Q$24)</f>
+      <c r="T20" s="5">
+        <f t="shared" si="43"/>
         <v>8700.8667859708421</v>
       </c>
-      <c r="U20" s="3">
-        <f>T20*(1+$Q$24)</f>
+      <c r="U20" s="5">
+        <f t="shared" si="43"/>
         <v>8787.8754538305511</v>
       </c>
-      <c r="V20" s="3">
-        <f>U20*(1+$Q$24)</f>
+      <c r="V20" s="5">
+        <f t="shared" si="43"/>
         <v>8875.7542083688568</v>
       </c>
-      <c r="W20" s="3">
-        <f>V20*(1+$Q$24)</f>
+      <c r="W20" s="5">
+        <f t="shared" si="43"/>
         <v>8964.511750452546</v>
       </c>
-      <c r="X20" s="3">
-        <f>W20*(1+$Q$24)</f>
+      <c r="X20" s="5">
+        <f t="shared" si="43"/>
         <v>9054.1568679570719</v>
       </c>
-      <c r="Y20" s="3">
-        <f>X20*(1+$Q$24)</f>
+      <c r="Y20" s="5">
+        <f t="shared" si="43"/>
         <v>9144.6984366366432</v>
       </c>
-      <c r="Z20" s="3">
-        <f>Y20*(1+$Q$24)</f>
+      <c r="Z20" s="5">
+        <f t="shared" si="43"/>
         <v>9236.1454210030097</v>
       </c>
-      <c r="AA20" s="3">
-        <f>Z20*(1+$Q$24)</f>
+      <c r="AA20" s="5">
+        <f t="shared" si="43"/>
         <v>9328.5068752130392</v>
       </c>
-      <c r="AB20" s="3">
-        <f>AA20*(1+$Q$24)</f>
+      <c r="AB20" s="5">
+        <f t="shared" si="43"/>
         <v>9421.7919439651705</v>
       </c>
-      <c r="AC20" s="3">
-        <f>AB20*(1+$Q$24)</f>
+      <c r="AC20" s="5">
+        <f t="shared" si="43"/>
         <v>9516.0098634048227</v>
       </c>
-      <c r="AD20" s="3">
-        <f>AC20*(1+$Q$24)</f>
+      <c r="AD20" s="5">
+        <f t="shared" si="43"/>
         <v>9611.1699620388717</v>
       </c>
-      <c r="AE20" s="3">
-        <f>AD20*(1+$Q$24)</f>
+      <c r="AE20" s="5">
+        <f t="shared" si="43"/>
         <v>9707.2816616592609</v>
       </c>
-      <c r="AF20" s="3">
-        <f>AE20*(1+$Q$24)</f>
+      <c r="AF20" s="5">
+        <f t="shared" si="43"/>
         <v>9804.3544782758527</v>
       </c>
-      <c r="AG20" s="3">
-        <f>AF20*(1+$Q$24)</f>
+      <c r="AG20" s="5">
+        <f t="shared" si="43"/>
         <v>9902.3980230586112</v>
       </c>
-      <c r="AH20" s="3">
-        <f>AG20*(1+$Q$24)</f>
+      <c r="AH20" s="5">
+        <f t="shared" si="43"/>
         <v>10001.422003289197</v>
       </c>
-      <c r="AI20" s="3">
-        <f>AH20*(1+$Q$24)</f>
+      <c r="AI20" s="5">
+        <f t="shared" si="43"/>
         <v>10101.436223322089</v>
       </c>
-      <c r="AJ20" s="3">
-        <f>AI20*(1+$Q$24)</f>
+      <c r="AJ20" s="5">
+        <f t="shared" si="43"/>
         <v>10202.450585555311</v>
       </c>
-      <c r="AK20" s="3">
-        <f>AJ20*(1+$Q$24)</f>
+      <c r="AK20" s="5">
+        <f t="shared" si="43"/>
         <v>10304.475091410864</v>
       </c>
-      <c r="AL20" s="3">
-        <f>AK20*(1+$Q$24)</f>
+      <c r="AL20" s="5">
+        <f t="shared" si="43"/>
         <v>10407.519842324973</v>
       </c>
-      <c r="AM20" s="3">
-        <f>AL20*(1+$Q$24)</f>
+      <c r="AM20" s="5">
+        <f t="shared" si="43"/>
         <v>10511.595040748223</v>
       </c>
-      <c r="AN20" s="3">
-        <f>AM20*(1+$Q$24)</f>
+      <c r="AN20" s="5">
+        <f t="shared" si="43"/>
         <v>10616.710991155705</v>
       </c>
-      <c r="AO20" s="3">
-        <f>AN20*(1+$Q$24)</f>
+      <c r="AO20" s="5">
+        <f t="shared" si="43"/>
         <v>10722.878101067263</v>
       </c>
-      <c r="AP20" s="3">
-        <f>AO20*(1+$Q$24)</f>
+      <c r="AP20" s="5">
+        <f t="shared" si="43"/>
         <v>10830.106882077936</v>
       </c>
-      <c r="AQ20" s="3">
-        <f>AP20*(1+$Q$24)</f>
+      <c r="AQ20" s="5">
+        <f t="shared" si="43"/>
         <v>10938.407950898716</v>
       </c>
-      <c r="AR20" s="3">
-        <f>AQ20*(1+$Q$24)</f>
+      <c r="AR20" s="5">
+        <f t="shared" si="43"/>
         <v>11047.792030407703</v>
       </c>
-      <c r="AS20" s="3">
-        <f>AR20*(1+$Q$24)</f>
+      <c r="AS20" s="5">
+        <f t="shared" si="43"/>
         <v>11158.269950711781</v>
       </c>
-      <c r="AT20" s="3">
-        <f>AS20*(1+$Q$24)</f>
+      <c r="AT20" s="5">
+        <f t="shared" si="43"/>
         <v>11269.8526502189</v>
       </c>
-      <c r="AU20" s="3">
-        <f>AT20*(1+$Q$24)</f>
+      <c r="AU20" s="5">
+        <f t="shared" ref="AU20:BZ20" si="44">AT20*(1+$Q$24)</f>
         <v>11382.551176721088</v>
       </c>
-      <c r="AV20" s="3">
-        <f>AU20*(1+$Q$24)</f>
+      <c r="AV20" s="5">
+        <f t="shared" si="44"/>
         <v>11496.376688488299</v>
       </c>
-      <c r="AW20" s="3">
-        <f>AV20*(1+$Q$24)</f>
+      <c r="AW20" s="5">
+        <f t="shared" si="44"/>
         <v>11611.340455373182</v>
       </c>
-      <c r="AX20" s="3">
-        <f>AW20*(1+$Q$24)</f>
+      <c r="AX20" s="5">
+        <f t="shared" si="44"/>
         <v>11727.453859926913</v>
       </c>
-      <c r="AY20" s="3">
-        <f>AX20*(1+$Q$24)</f>
+      <c r="AY20" s="5">
+        <f t="shared" si="44"/>
         <v>11844.728398526182</v>
       </c>
-      <c r="AZ20" s="3">
-        <f>AY20*(1+$Q$24)</f>
+      <c r="AZ20" s="5">
+        <f t="shared" si="44"/>
         <v>11963.175682511444</v>
       </c>
-      <c r="BA20" s="3">
-        <f>AZ20*(1+$Q$24)</f>
+      <c r="BA20" s="5">
+        <f t="shared" si="44"/>
         <v>12082.807439336559</v>
       </c>
-      <c r="BB20" s="3">
-        <f>BA20*(1+$Q$24)</f>
+      <c r="BB20" s="5">
+        <f t="shared" si="44"/>
         <v>12203.635513729925</v>
       </c>
-      <c r="BC20" s="3">
-        <f>BB20*(1+$Q$24)</f>
+      <c r="BC20" s="5">
+        <f t="shared" si="44"/>
         <v>12325.671868867224</v>
       </c>
-      <c r="BD20" s="3">
-        <f>BC20*(1+$Q$24)</f>
+      <c r="BD20" s="5">
+        <f t="shared" si="44"/>
         <v>12448.928587555896</v>
       </c>
-      <c r="BE20" s="3">
-        <f>BD20*(1+$Q$24)</f>
+      <c r="BE20" s="5">
+        <f t="shared" si="44"/>
         <v>12573.417873431456</v>
       </c>
-      <c r="BF20" s="3">
-        <f>BE20*(1+$Q$24)</f>
+      <c r="BF20" s="5">
+        <f t="shared" si="44"/>
         <v>12699.152052165769</v>
       </c>
-      <c r="BG20" s="3">
-        <f>BF20*(1+$Q$24)</f>
+      <c r="BG20" s="5">
+        <f t="shared" si="44"/>
         <v>12826.143572687428</v>
       </c>
-      <c r="BH20" s="3">
-        <f>BG20*(1+$Q$24)</f>
+      <c r="BH20" s="5">
+        <f t="shared" si="44"/>
         <v>12954.405008414302</v>
       </c>
-      <c r="BI20" s="3">
-        <f>BH20*(1+$Q$24)</f>
+      <c r="BI20" s="5">
+        <f t="shared" si="44"/>
         <v>13083.949058498445</v>
       </c>
-      <c r="BJ20" s="3">
-        <f>BI20*(1+$Q$24)</f>
+      <c r="BJ20" s="5">
+        <f t="shared" si="44"/>
         <v>13214.788549083431</v>
       </c>
-      <c r="BK20" s="3">
-        <f>BJ20*(1+$Q$24)</f>
+      <c r="BK20" s="5">
+        <f t="shared" si="44"/>
         <v>13346.936434574265</v>
       </c>
-      <c r="BL20" s="3">
-        <f>BK20*(1+$Q$24)</f>
+      <c r="BL20" s="5">
+        <f t="shared" si="44"/>
         <v>13480.405798920008</v>
       </c>
-      <c r="BM20" s="3">
-        <f>BL20*(1+$Q$24)</f>
+      <c r="BM20" s="5">
+        <f t="shared" si="44"/>
         <v>13615.209856909209</v>
       </c>
-      <c r="BN20" s="3">
-        <f>BM20*(1+$Q$24)</f>
+      <c r="BN20" s="5">
+        <f t="shared" si="44"/>
         <v>13751.3619554783</v>
       </c>
-      <c r="BO20" s="3">
-        <f>BN20*(1+$Q$24)</f>
+      <c r="BO20" s="5">
+        <f t="shared" si="44"/>
         <v>13888.875575033084</v>
       </c>
-      <c r="BP20" s="3">
-        <f>BO20*(1+$Q$24)</f>
+      <c r="BP20" s="5">
+        <f t="shared" si="44"/>
         <v>14027.764330783415</v>
       </c>
-      <c r="BQ20" s="3">
-        <f>BP20*(1+$Q$24)</f>
+      <c r="BQ20" s="5">
+        <f t="shared" si="44"/>
         <v>14168.041974091249</v>
       </c>
-      <c r="BR20" s="3">
-        <f>BQ20*(1+$Q$24)</f>
+      <c r="BR20" s="5">
+        <f t="shared" si="44"/>
         <v>14309.722393832162</v>
       </c>
-      <c r="BS20" s="3">
-        <f>BR20*(1+$Q$24)</f>
+      <c r="BS20" s="5">
+        <f t="shared" si="44"/>
         <v>14452.819617770483</v>
       </c>
-      <c r="BT20" s="3">
-        <f>BS20*(1+$Q$24)</f>
+      <c r="BT20" s="5">
+        <f t="shared" si="44"/>
         <v>14597.347813948189</v>
       </c>
-      <c r="BU20" s="3">
-        <f>BT20*(1+$Q$24)</f>
+      <c r="BU20" s="5">
+        <f t="shared" si="44"/>
         <v>14743.32129208767</v>
       </c>
-      <c r="BV20" s="3">
-        <f>BU20*(1+$Q$24)</f>
+      <c r="BV20" s="5">
+        <f t="shared" si="44"/>
         <v>14890.754505008546</v>
       </c>
-      <c r="BW20" s="3">
-        <f>BV20*(1+$Q$24)</f>
+      <c r="BW20" s="5">
+        <f t="shared" si="44"/>
         <v>15039.662050058632</v>
       </c>
-      <c r="BX20" s="3">
-        <f>BW20*(1+$Q$24)</f>
+      <c r="BX20" s="5">
+        <f t="shared" si="44"/>
         <v>15190.05867055922</v>
       </c>
-      <c r="BY20" s="3">
-        <f>BX20*(1+$Q$24)</f>
+      <c r="BY20" s="5">
+        <f t="shared" si="44"/>
         <v>15341.959257264813</v>
       </c>
-      <c r="BZ20" s="3">
-        <f>BY20*(1+$Q$24)</f>
+      <c r="BZ20" s="5">
+        <f t="shared" si="44"/>
         <v>15495.378849837462</v>
       </c>
-      <c r="CA20" s="3">
-        <f>BZ20*(1+$Q$24)</f>
+      <c r="CA20" s="5">
+        <f t="shared" ref="CA20:CT20" si="45">BZ20*(1+$Q$24)</f>
         <v>15650.332638335836</v>
       </c>
-      <c r="CB20" s="3">
-        <f>CA20*(1+$Q$24)</f>
+      <c r="CB20" s="5">
+        <f t="shared" si="45"/>
         <v>15806.835964719196</v>
       </c>
-      <c r="CC20" s="3">
-        <f>CB20*(1+$Q$24)</f>
+      <c r="CC20" s="5">
+        <f t="shared" si="45"/>
         <v>15964.904324366387</v>
       </c>
-      <c r="CD20" s="3">
-        <f>CC20*(1+$Q$24)</f>
+      <c r="CD20" s="5">
+        <f t="shared" si="45"/>
         <v>16124.553367610051</v>
       </c>
-      <c r="CE20" s="3">
-        <f>CD20*(1+$Q$24)</f>
+      <c r="CE20" s="5">
+        <f t="shared" si="45"/>
         <v>16285.798901286153</v>
       </c>
-      <c r="CF20" s="3">
-        <f>CE20*(1+$Q$24)</f>
+      <c r="CF20" s="5">
+        <f t="shared" si="45"/>
         <v>16448.656890299015</v>
       </c>
-      <c r="CG20" s="3">
-        <f>CF20*(1+$Q$24)</f>
+      <c r="CG20" s="5">
+        <f t="shared" si="45"/>
         <v>16613.143459202005</v>
       </c>
-      <c r="CH20" s="3">
-        <f>CG20*(1+$Q$24)</f>
+      <c r="CH20" s="5">
+        <f t="shared" si="45"/>
         <v>16779.274893794027</v>
       </c>
-      <c r="CI20" s="3">
-        <f>CH20*(1+$Q$24)</f>
+      <c r="CI20" s="5">
+        <f t="shared" si="45"/>
         <v>16947.067642731967</v>
       </c>
-      <c r="CJ20" s="3">
-        <f>CI20*(1+$Q$24)</f>
+      <c r="CJ20" s="5">
+        <f t="shared" si="45"/>
         <v>17116.538319159288</v>
       </c>
-      <c r="CK20" s="3">
-        <f>CJ20*(1+$Q$24)</f>
+      <c r="CK20" s="5">
+        <f t="shared" si="45"/>
         <v>17287.703702350882</v>
       </c>
-      <c r="CL20" s="3">
-        <f>CK20*(1+$Q$24)</f>
+      <c r="CL20" s="5">
+        <f t="shared" si="45"/>
         <v>17460.580739374393</v>
       </c>
-      <c r="CM20" s="3">
-        <f>CL20*(1+$Q$24)</f>
+      <c r="CM20" s="5">
+        <f t="shared" si="45"/>
         <v>17635.186546768138</v>
       </c>
-      <c r="CN20" s="3">
-        <f>CM20*(1+$Q$24)</f>
+      <c r="CN20" s="5">
+        <f t="shared" si="45"/>
         <v>17811.538412235819</v>
       </c>
-      <c r="CO20" s="3">
-        <f>CN20*(1+$Q$24)</f>
+      <c r="CO20" s="5">
+        <f t="shared" si="45"/>
         <v>17989.653796358176</v>
       </c>
-      <c r="CP20" s="3">
-        <f>CO20*(1+$Q$24)</f>
+      <c r="CP20" s="5">
+        <f t="shared" si="45"/>
         <v>18169.550334321757</v>
       </c>
-      <c r="CQ20" s="3">
-        <f>CP20*(1+$Q$24)</f>
+      <c r="CQ20" s="5">
+        <f t="shared" si="45"/>
         <v>18351.245837664974</v>
       </c>
-      <c r="CR20" s="3">
-        <f>CQ20*(1+$Q$24)</f>
+      <c r="CR20" s="5">
+        <f t="shared" si="45"/>
         <v>18534.758296041622</v>
       </c>
-      <c r="CS20" s="3">
-        <f>CR20*(1+$Q$24)</f>
+      <c r="CS20" s="5">
+        <f t="shared" si="45"/>
         <v>18720.10587900204</v>
       </c>
-      <c r="CT20" s="3">
-        <f>CS20*(1+$Q$24)</f>
+      <c r="CT20" s="5">
+        <f t="shared" si="45"/>
         <v>18907.306937792062</v>
       </c>
     </row>
-    <row r="21" spans="1:98" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+    <row r="21" spans="1:98" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:98" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+    <row r="22" spans="1:98" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:98" x14ac:dyDescent="0.25">
-      <c r="P23" s="2" t="s">
+    <row r="23" spans="1:98" x14ac:dyDescent="0.2">
+      <c r="P23" s="3" t="s">
         <v>37</v>
       </c>
       <c r="Q23" s="6">
         <v>0.06</v>
       </c>
     </row>
-    <row r="24" spans="1:98" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+    <row r="24" spans="1:98" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24" s="7">
         <f>C2/B2-1</f>
         <v>-0.22866735819184369</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24" s="7">
         <f>D2/C2-1</f>
         <v>-5.421665428035527E-2</v>
       </c>
-      <c r="E24" s="5">
-        <f t="shared" ref="E24:I24" si="43">E2/D2-1</f>
+      <c r="E24" s="7">
+        <f t="shared" ref="E24:I24" si="46">E2/D2-1</f>
         <v>3.0000000000000027E-2</v>
       </c>
-      <c r="F24" s="5">
-        <f t="shared" si="43"/>
+      <c r="F24" s="7">
+        <f t="shared" si="46"/>
         <v>3.0000000000000027E-2</v>
       </c>
-      <c r="G24" s="5">
-        <f t="shared" si="43"/>
+      <c r="G24" s="7">
+        <f t="shared" si="46"/>
         <v>3.0000000000000027E-2</v>
       </c>
-      <c r="H24" s="5">
-        <f t="shared" si="43"/>
+      <c r="H24" s="7">
+        <f t="shared" si="46"/>
         <v>3.0000000000000027E-2</v>
       </c>
-      <c r="I24" s="5">
-        <f t="shared" si="43"/>
+      <c r="I24" s="7">
+        <f t="shared" si="46"/>
         <v>3.0000000000000027E-2</v>
       </c>
-      <c r="J24" s="5">
-        <f t="shared" ref="J24" si="44">J2/I2-1</f>
+      <c r="J24" s="7">
+        <f t="shared" ref="J24" si="47">J2/I2-1</f>
         <v>3.0000000000000027E-2</v>
       </c>
-      <c r="K24" s="5">
-        <f t="shared" ref="K24" si="45">K2/J2-1</f>
+      <c r="K24" s="7">
+        <f t="shared" ref="K24" si="48">K2/J2-1</f>
         <v>3.0000000000000027E-2</v>
       </c>
-      <c r="L24" s="5">
-        <f t="shared" ref="L24" si="46">L2/K2-1</f>
+      <c r="L24" s="7">
+        <f t="shared" ref="L24" si="49">L2/K2-1</f>
         <v>3.0000000000000027E-2</v>
       </c>
-      <c r="M24" s="5">
-        <f t="shared" ref="M24" si="47">M2/L2-1</f>
+      <c r="M24" s="7">
+        <f t="shared" ref="M24" si="50">M2/L2-1</f>
         <v>3.0000000000000027E-2</v>
       </c>
-      <c r="N24" s="5">
-        <f t="shared" ref="N24" si="48">N2/M2-1</f>
+      <c r="N24" s="7">
+        <f t="shared" ref="N24" si="51">N2/M2-1</f>
         <v>3.0000000000000027E-2</v>
       </c>
-      <c r="P24" s="2" t="s">
+      <c r="P24" s="3" t="s">
         <v>38</v>
       </c>
       <c r="Q24" s="6">
         <v>0.01</v>
       </c>
     </row>
-    <row r="25" spans="1:98" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+    <row r="25" spans="1:98" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B25" s="6">
@@ -1857,11 +1871,11 @@
         <v>5.9321415541773073E-2</v>
       </c>
       <c r="C25" s="6">
-        <f t="shared" ref="C25:D25" si="49">C19/C18</f>
+        <f t="shared" ref="C25:D25" si="52">C19/C18</f>
         <v>0.28854478854478854</v>
       </c>
       <c r="D25" s="6">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>0.22332128590450828</v>
       </c>
       <c r="E25" s="6">
@@ -1894,520 +1908,520 @@
       <c r="N25" s="6">
         <v>0.21</v>
       </c>
-      <c r="P25" s="2" t="s">
+      <c r="P25" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="Q25" s="7">
+      <c r="Q25" s="8">
         <v>8.5000000000000006E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:98" x14ac:dyDescent="0.25">
-      <c r="P26" s="2" t="s">
+    <row r="26" spans="1:98" ht="15" x14ac:dyDescent="0.25">
+      <c r="P26" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="Q26" s="5">
         <f>NPV(Q25,E33:XFD33)+Sheet1!D5-Sheet1!D6</f>
         <v>54546.54207092541</v>
       </c>
     </row>
-    <row r="27" spans="1:98" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+    <row r="27" spans="1:98" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="5">
+      <c r="B27" s="7">
         <f>B8/B2</f>
         <v>0.67071572855816997</v>
       </c>
-      <c r="C27" s="5">
-        <f t="shared" ref="C27:D27" si="50">C8/C2</f>
+      <c r="C27" s="7">
+        <f t="shared" ref="C27:D27" si="53">C8/C2</f>
         <v>0.60070071132816649</v>
       </c>
-      <c r="D27" s="5">
-        <f t="shared" si="50"/>
+      <c r="D27" s="7">
+        <f t="shared" si="53"/>
         <v>0.63315247895229188</v>
       </c>
-      <c r="E27" s="5">
+      <c r="E27" s="7">
         <v>0.63</v>
       </c>
-      <c r="F27" s="5">
+      <c r="F27" s="7">
         <v>0.63</v>
       </c>
-      <c r="G27" s="5">
+      <c r="G27" s="7">
         <v>0.63</v>
       </c>
-      <c r="H27" s="5">
+      <c r="H27" s="7">
         <v>0.63</v>
       </c>
-      <c r="I27" s="5">
+      <c r="I27" s="7">
         <v>0.63</v>
       </c>
-      <c r="J27" s="5">
+      <c r="J27" s="7">
         <v>0.63</v>
       </c>
-      <c r="K27" s="5">
+      <c r="K27" s="7">
         <v>0.63</v>
       </c>
-      <c r="L27" s="5">
+      <c r="L27" s="7">
         <v>0.63</v>
       </c>
-      <c r="M27" s="5">
+      <c r="M27" s="7">
         <v>0.63</v>
       </c>
-      <c r="N27" s="5">
+      <c r="N27" s="7">
         <v>0.63</v>
       </c>
-      <c r="P27" s="2" t="s">
+      <c r="P27" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="Q27" s="2">
+      <c r="Q27" s="3">
         <f>Q26/Sheet1!D3</f>
         <v>58.120982494326491</v>
       </c>
     </row>
-    <row r="28" spans="1:98" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+    <row r="28" spans="1:98" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
         <v>31</v>
       </c>
       <c r="D28" s="6"/>
-      <c r="P28" s="2" t="s">
+      <c r="P28" s="3" t="s">
         <v>41</v>
       </c>
       <c r="Q28" s="6">
         <f>Q27/Sheet1!D2-1</f>
-        <v>0.45302456235816235</v>
-      </c>
-    </row>
-    <row r="29" spans="1:98" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+        <v>0.40050560227292742</v>
+      </c>
+    </row>
+    <row r="29" spans="1:98" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:98" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+    <row r="31" spans="1:98" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31" s="3">
         <v>16810</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C31" s="3">
         <v>12308</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D31" s="3">
         <v>11439</v>
       </c>
     </row>
-    <row r="32" spans="1:98" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
+    <row r="32" spans="1:98" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="3">
         <v>4497</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C32" s="3">
         <v>6270</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D32" s="3">
         <v>7018</v>
       </c>
     </row>
-    <row r="33" spans="1:99" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
+    <row r="33" spans="1:99" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B33" s="5">
         <f>B31-B32</f>
         <v>12313</v>
       </c>
-      <c r="C33" s="3">
-        <f t="shared" ref="C33:D33" si="51">C31-C32</f>
+      <c r="C33" s="5">
+        <f t="shared" ref="C33:D33" si="54">C31-C32</f>
         <v>6038</v>
       </c>
-      <c r="D33" s="3">
-        <f t="shared" si="51"/>
+      <c r="D33" s="5">
+        <f t="shared" si="54"/>
         <v>4421</v>
       </c>
-      <c r="E33" s="3">
+      <c r="E33" s="5">
         <f>E20*E34</f>
         <v>3680.1662175000006</v>
       </c>
-      <c r="F33" s="3">
+      <c r="F33" s="5">
         <f>F20*F34</f>
         <v>4000.6233663345029</v>
       </c>
-      <c r="G33" s="3">
+      <c r="G33" s="5">
         <f>G20*G34</f>
         <v>4340.9056610395064</v>
       </c>
-      <c r="H33" s="3">
+      <c r="H33" s="5">
         <f>H20*H34</f>
         <v>4702.1020761962318</v>
       </c>
-      <c r="I33" s="3">
+      <c r="I33" s="5">
         <f>I20*I34</f>
         <v>5085.3580895953082</v>
       </c>
-      <c r="J33" s="3">
-        <f t="shared" ref="J33:N33" si="52">J20*J34</f>
+      <c r="J33" s="5">
+        <f t="shared" ref="J33:N33" si="55">J20*J34</f>
         <v>5491.8785233807112</v>
       </c>
-      <c r="K33" s="3">
-        <f t="shared" si="52"/>
+      <c r="K33" s="5">
+        <f t="shared" si="55"/>
         <v>5922.9305254033507</v>
       </c>
-      <c r="L33" s="3">
-        <f t="shared" si="52"/>
+      <c r="L33" s="5">
+        <f t="shared" si="55"/>
         <v>6379.8466976225727</v>
       </c>
-      <c r="M33" s="3">
-        <f t="shared" si="52"/>
+      <c r="M33" s="5">
+        <f t="shared" si="55"/>
         <v>6864.028378724729</v>
       </c>
-      <c r="N33" s="3">
-        <f t="shared" si="52"/>
+      <c r="N33" s="5">
+        <f t="shared" si="55"/>
         <v>7376.949088474872</v>
       </c>
-      <c r="O33" s="3">
-        <f>N33*(1+$Q$24)</f>
+      <c r="O33" s="5">
+        <f t="shared" ref="O33:AT33" si="56">N33*(1+$Q$24)</f>
         <v>7450.7185793596209</v>
       </c>
-      <c r="P33" s="3">
-        <f>O33*(1+$Q$24)</f>
+      <c r="P33" s="5">
+        <f t="shared" si="56"/>
         <v>7525.2257651532173</v>
       </c>
-      <c r="Q33" s="3">
-        <f>P33*(1+$Q$24)</f>
+      <c r="Q33" s="5">
+        <f t="shared" si="56"/>
         <v>7600.4780228047493</v>
       </c>
-      <c r="R33" s="3">
-        <f>Q33*(1+$Q$24)</f>
+      <c r="R33" s="5">
+        <f t="shared" si="56"/>
         <v>7676.4828030327972</v>
       </c>
-      <c r="S33" s="3">
-        <f>R33*(1+$Q$24)</f>
+      <c r="S33" s="5">
+        <f t="shared" si="56"/>
         <v>7753.2476310631255</v>
       </c>
-      <c r="T33" s="3">
-        <f>S33*(1+$Q$24)</f>
+      <c r="T33" s="5">
+        <f t="shared" si="56"/>
         <v>7830.7801073737564</v>
       </c>
-      <c r="U33" s="3">
-        <f>T33*(1+$Q$24)</f>
+      <c r="U33" s="5">
+        <f t="shared" si="56"/>
         <v>7909.0879084474936</v>
       </c>
-      <c r="V33" s="3">
-        <f>U33*(1+$Q$24)</f>
+      <c r="V33" s="5">
+        <f t="shared" si="56"/>
         <v>7988.1787875319687</v>
       </c>
-      <c r="W33" s="3">
-        <f>V33*(1+$Q$24)</f>
+      <c r="W33" s="5">
+        <f t="shared" si="56"/>
         <v>8068.0605754072885</v>
       </c>
-      <c r="X33" s="3">
-        <f>W33*(1+$Q$24)</f>
+      <c r="X33" s="5">
+        <f t="shared" si="56"/>
         <v>8148.7411811613611</v>
       </c>
-      <c r="Y33" s="3">
-        <f>X33*(1+$Q$24)</f>
+      <c r="Y33" s="5">
+        <f t="shared" si="56"/>
         <v>8230.2285929729751</v>
       </c>
-      <c r="Z33" s="3">
-        <f>Y33*(1+$Q$24)</f>
+      <c r="Z33" s="5">
+        <f t="shared" si="56"/>
         <v>8312.5308789027058</v>
       </c>
-      <c r="AA33" s="3">
-        <f>Z33*(1+$Q$24)</f>
+      <c r="AA33" s="5">
+        <f t="shared" si="56"/>
         <v>8395.6561876917331</v>
       </c>
-      <c r="AB33" s="3">
-        <f>AA33*(1+$Q$24)</f>
+      <c r="AB33" s="5">
+        <f t="shared" si="56"/>
         <v>8479.6127495686505</v>
       </c>
-      <c r="AC33" s="3">
-        <f>AB33*(1+$Q$24)</f>
+      <c r="AC33" s="5">
+        <f t="shared" si="56"/>
         <v>8564.4088770643375</v>
       </c>
-      <c r="AD33" s="3">
-        <f>AC33*(1+$Q$24)</f>
+      <c r="AD33" s="5">
+        <f t="shared" si="56"/>
         <v>8650.0529658349806</v>
       </c>
-      <c r="AE33" s="3">
-        <f>AD33*(1+$Q$24)</f>
+      <c r="AE33" s="5">
+        <f t="shared" si="56"/>
         <v>8736.55349549333</v>
       </c>
-      <c r="AF33" s="3">
-        <f>AE33*(1+$Q$24)</f>
+      <c r="AF33" s="5">
+        <f t="shared" si="56"/>
         <v>8823.9190304482636</v>
       </c>
-      <c r="AG33" s="3">
-        <f>AF33*(1+$Q$24)</f>
+      <c r="AG33" s="5">
+        <f t="shared" si="56"/>
         <v>8912.1582207527463</v>
       </c>
-      <c r="AH33" s="3">
-        <f>AG33*(1+$Q$24)</f>
+      <c r="AH33" s="5">
+        <f t="shared" si="56"/>
         <v>9001.2798029602745</v>
       </c>
-      <c r="AI33" s="3">
-        <f>AH33*(1+$Q$24)</f>
+      <c r="AI33" s="5">
+        <f t="shared" si="56"/>
         <v>9091.2926009898765</v>
       </c>
-      <c r="AJ33" s="3">
-        <f>AI33*(1+$Q$24)</f>
+      <c r="AJ33" s="5">
+        <f t="shared" si="56"/>
         <v>9182.2055269997745</v>
       </c>
-      <c r="AK33" s="3">
-        <f>AJ33*(1+$Q$24)</f>
+      <c r="AK33" s="5">
+        <f t="shared" si="56"/>
         <v>9274.0275822697731</v>
       </c>
-      <c r="AL33" s="3">
-        <f>AK33*(1+$Q$24)</f>
+      <c r="AL33" s="5">
+        <f t="shared" si="56"/>
         <v>9366.7678580924712</v>
       </c>
-      <c r="AM33" s="3">
-        <f>AL33*(1+$Q$24)</f>
+      <c r="AM33" s="5">
+        <f t="shared" si="56"/>
         <v>9460.4355366733962</v>
       </c>
-      <c r="AN33" s="3">
-        <f>AM33*(1+$Q$24)</f>
+      <c r="AN33" s="5">
+        <f t="shared" si="56"/>
         <v>9555.0398920401294</v>
       </c>
-      <c r="AO33" s="3">
-        <f>AN33*(1+$Q$24)</f>
+      <c r="AO33" s="5">
+        <f t="shared" si="56"/>
         <v>9650.5902909605302</v>
       </c>
-      <c r="AP33" s="3">
-        <f>AO33*(1+$Q$24)</f>
+      <c r="AP33" s="5">
+        <f t="shared" si="56"/>
         <v>9747.0961938701348</v>
       </c>
-      <c r="AQ33" s="3">
-        <f>AP33*(1+$Q$24)</f>
+      <c r="AQ33" s="5">
+        <f t="shared" si="56"/>
         <v>9844.5671558088361</v>
       </c>
-      <c r="AR33" s="3">
-        <f>AQ33*(1+$Q$24)</f>
+      <c r="AR33" s="5">
+        <f t="shared" si="56"/>
         <v>9943.0128273669252</v>
       </c>
-      <c r="AS33" s="3">
-        <f>AR33*(1+$Q$24)</f>
+      <c r="AS33" s="5">
+        <f t="shared" si="56"/>
         <v>10042.442955640594</v>
       </c>
-      <c r="AT33" s="3">
-        <f>AS33*(1+$Q$24)</f>
+      <c r="AT33" s="5">
+        <f t="shared" si="56"/>
         <v>10142.867385197</v>
       </c>
-      <c r="AU33" s="3">
-        <f>AT33*(1+$Q$24)</f>
+      <c r="AU33" s="5">
+        <f t="shared" ref="AU33:BZ33" si="57">AT33*(1+$Q$24)</f>
         <v>10244.296059048969</v>
       </c>
-      <c r="AV33" s="3">
-        <f>AU33*(1+$Q$24)</f>
+      <c r="AV33" s="5">
+        <f t="shared" si="57"/>
         <v>10346.739019639459</v>
       </c>
-      <c r="AW33" s="3">
-        <f>AV33*(1+$Q$24)</f>
+      <c r="AW33" s="5">
+        <f t="shared" si="57"/>
         <v>10450.206409835853</v>
       </c>
-      <c r="AX33" s="3">
-        <f>AW33*(1+$Q$24)</f>
+      <c r="AX33" s="5">
+        <f t="shared" si="57"/>
         <v>10554.708473934212</v>
       </c>
-      <c r="AY33" s="3">
-        <f>AX33*(1+$Q$24)</f>
+      <c r="AY33" s="5">
+        <f t="shared" si="57"/>
         <v>10660.255558673554</v>
       </c>
-      <c r="AZ33" s="3">
-        <f>AY33*(1+$Q$24)</f>
+      <c r="AZ33" s="5">
+        <f t="shared" si="57"/>
         <v>10766.858114260291</v>
       </c>
-      <c r="BA33" s="3">
-        <f>AZ33*(1+$Q$24)</f>
+      <c r="BA33" s="5">
+        <f t="shared" si="57"/>
         <v>10874.526695402894</v>
       </c>
-      <c r="BB33" s="3">
-        <f>BA33*(1+$Q$24)</f>
+      <c r="BB33" s="5">
+        <f t="shared" si="57"/>
         <v>10983.271962356923</v>
       </c>
-      <c r="BC33" s="3">
-        <f>BB33*(1+$Q$24)</f>
+      <c r="BC33" s="5">
+        <f t="shared" si="57"/>
         <v>11093.104681980492</v>
       </c>
-      <c r="BD33" s="3">
-        <f>BC33*(1+$Q$24)</f>
+      <c r="BD33" s="5">
+        <f t="shared" si="57"/>
         <v>11204.035728800298</v>
       </c>
-      <c r="BE33" s="3">
-        <f>BD33*(1+$Q$24)</f>
+      <c r="BE33" s="5">
+        <f t="shared" si="57"/>
         <v>11316.0760860883</v>
       </c>
-      <c r="BF33" s="3">
-        <f>BE33*(1+$Q$24)</f>
+      <c r="BF33" s="5">
+        <f t="shared" si="57"/>
         <v>11429.236846949183</v>
       </c>
-      <c r="BG33" s="3">
-        <f>BF33*(1+$Q$24)</f>
+      <c r="BG33" s="5">
+        <f t="shared" si="57"/>
         <v>11543.529215418675</v>
       </c>
-      <c r="BH33" s="3">
-        <f>BG33*(1+$Q$24)</f>
+      <c r="BH33" s="5">
+        <f t="shared" si="57"/>
         <v>11658.964507572862</v>
       </c>
-      <c r="BI33" s="3">
-        <f>BH33*(1+$Q$24)</f>
+      <c r="BI33" s="5">
+        <f t="shared" si="57"/>
         <v>11775.55415264859</v>
       </c>
-      <c r="BJ33" s="3">
-        <f>BI33*(1+$Q$24)</f>
+      <c r="BJ33" s="5">
+        <f t="shared" si="57"/>
         <v>11893.309694175075</v>
       </c>
-      <c r="BK33" s="3">
-        <f>BJ33*(1+$Q$24)</f>
+      <c r="BK33" s="5">
+        <f t="shared" si="57"/>
         <v>12012.242791116827</v>
       </c>
-      <c r="BL33" s="3">
-        <f>BK33*(1+$Q$24)</f>
+      <c r="BL33" s="5">
+        <f t="shared" si="57"/>
         <v>12132.365219027995</v>
       </c>
-      <c r="BM33" s="3">
-        <f>BL33*(1+$Q$24)</f>
+      <c r="BM33" s="5">
+        <f t="shared" si="57"/>
         <v>12253.688871218275</v>
       </c>
-      <c r="BN33" s="3">
-        <f>BM33*(1+$Q$24)</f>
+      <c r="BN33" s="5">
+        <f t="shared" si="57"/>
         <v>12376.225759930458</v>
       </c>
-      <c r="BO33" s="3">
-        <f>BN33*(1+$Q$24)</f>
+      <c r="BO33" s="5">
+        <f t="shared" si="57"/>
         <v>12499.988017529762</v>
       </c>
-      <c r="BP33" s="3">
-        <f>BO33*(1+$Q$24)</f>
+      <c r="BP33" s="5">
+        <f t="shared" si="57"/>
         <v>12624.987897705059</v>
       </c>
-      <c r="BQ33" s="3">
-        <f>BP33*(1+$Q$24)</f>
+      <c r="BQ33" s="5">
+        <f t="shared" si="57"/>
         <v>12751.23777668211</v>
       </c>
-      <c r="BR33" s="3">
-        <f>BQ33*(1+$Q$24)</f>
+      <c r="BR33" s="5">
+        <f t="shared" si="57"/>
         <v>12878.750154448931</v>
       </c>
-      <c r="BS33" s="3">
-        <f>BR33*(1+$Q$24)</f>
+      <c r="BS33" s="5">
+        <f t="shared" si="57"/>
         <v>13007.537655993421</v>
       </c>
-      <c r="BT33" s="3">
-        <f>BS33*(1+$Q$24)</f>
+      <c r="BT33" s="5">
+        <f t="shared" si="57"/>
         <v>13137.613032553356</v>
       </c>
-      <c r="BU33" s="3">
-        <f>BT33*(1+$Q$24)</f>
+      <c r="BU33" s="5">
+        <f t="shared" si="57"/>
         <v>13268.98916287889</v>
       </c>
-      <c r="BV33" s="3">
-        <f>BU33*(1+$Q$24)</f>
+      <c r="BV33" s="5">
+        <f t="shared" si="57"/>
         <v>13401.679054507678</v>
       </c>
-      <c r="BW33" s="3">
-        <f>BV33*(1+$Q$24)</f>
+      <c r="BW33" s="5">
+        <f t="shared" si="57"/>
         <v>13535.695845052755</v>
       </c>
-      <c r="BX33" s="3">
-        <f>BW33*(1+$Q$24)</f>
+      <c r="BX33" s="5">
+        <f t="shared" si="57"/>
         <v>13671.052803503282</v>
       </c>
-      <c r="BY33" s="3">
-        <f>BX33*(1+$Q$24)</f>
+      <c r="BY33" s="5">
+        <f t="shared" si="57"/>
         <v>13807.763331538315</v>
       </c>
-      <c r="BZ33" s="3">
-        <f>BY33*(1+$Q$24)</f>
+      <c r="BZ33" s="5">
+        <f t="shared" si="57"/>
         <v>13945.840964853698</v>
       </c>
-      <c r="CA33" s="3">
-        <f>BZ33*(1+$Q$24)</f>
+      <c r="CA33" s="5">
+        <f t="shared" ref="CA33:CU33" si="58">BZ33*(1+$Q$24)</f>
         <v>14085.299374502236</v>
       </c>
-      <c r="CB33" s="3">
-        <f>CA33*(1+$Q$24)</f>
+      <c r="CB33" s="5">
+        <f t="shared" si="58"/>
         <v>14226.152368247258</v>
       </c>
-      <c r="CC33" s="3">
-        <f>CB33*(1+$Q$24)</f>
+      <c r="CC33" s="5">
+        <f t="shared" si="58"/>
         <v>14368.413891929731</v>
       </c>
-      <c r="CD33" s="3">
-        <f>CC33*(1+$Q$24)</f>
+      <c r="CD33" s="5">
+        <f t="shared" si="58"/>
         <v>14512.098030849029</v>
       </c>
-      <c r="CE33" s="3">
-        <f>CD33*(1+$Q$24)</f>
+      <c r="CE33" s="5">
+        <f t="shared" si="58"/>
         <v>14657.21901115752</v>
       </c>
-      <c r="CF33" s="3">
-        <f>CE33*(1+$Q$24)</f>
+      <c r="CF33" s="5">
+        <f t="shared" si="58"/>
         <v>14803.791201269096</v>
       </c>
-      <c r="CG33" s="3">
-        <f>CF33*(1+$Q$24)</f>
+      <c r="CG33" s="5">
+        <f t="shared" si="58"/>
         <v>14951.829113281787</v>
       </c>
-      <c r="CH33" s="3">
-        <f>CG33*(1+$Q$24)</f>
+      <c r="CH33" s="5">
+        <f t="shared" si="58"/>
         <v>15101.347404414604</v>
       </c>
-      <c r="CI33" s="3">
-        <f>CH33*(1+$Q$24)</f>
+      <c r="CI33" s="5">
+        <f t="shared" si="58"/>
         <v>15252.36087845875</v>
       </c>
-      <c r="CJ33" s="3">
-        <f>CI33*(1+$Q$24)</f>
+      <c r="CJ33" s="5">
+        <f t="shared" si="58"/>
         <v>15404.884487243338</v>
       </c>
-      <c r="CK33" s="3">
-        <f>CJ33*(1+$Q$24)</f>
+      <c r="CK33" s="5">
+        <f t="shared" si="58"/>
         <v>15558.933332115772</v>
       </c>
-      <c r="CL33" s="3">
-        <f>CK33*(1+$Q$24)</f>
+      <c r="CL33" s="5">
+        <f t="shared" si="58"/>
         <v>15714.522665436929</v>
       </c>
-      <c r="CM33" s="3">
-        <f>CL33*(1+$Q$24)</f>
+      <c r="CM33" s="5">
+        <f t="shared" si="58"/>
         <v>15871.667892091298</v>
       </c>
-      <c r="CN33" s="3">
-        <f>CM33*(1+$Q$24)</f>
+      <c r="CN33" s="5">
+        <f t="shared" si="58"/>
         <v>16030.384571012211</v>
       </c>
-      <c r="CO33" s="3">
-        <f>CN33*(1+$Q$24)</f>
+      <c r="CO33" s="5">
+        <f t="shared" si="58"/>
         <v>16190.688416722334</v>
       </c>
-      <c r="CP33" s="3">
-        <f>CO33*(1+$Q$24)</f>
+      <c r="CP33" s="5">
+        <f t="shared" si="58"/>
         <v>16352.595300889558</v>
       </c>
-      <c r="CQ33" s="3">
-        <f>CP33*(1+$Q$24)</f>
+      <c r="CQ33" s="5">
+        <f t="shared" si="58"/>
         <v>16516.121253898455</v>
       </c>
-      <c r="CR33" s="3">
-        <f>CQ33*(1+$Q$24)</f>
+      <c r="CR33" s="5">
+        <f t="shared" si="58"/>
         <v>16681.282466437438</v>
       </c>
-      <c r="CS33" s="3">
-        <f>CR33*(1+$Q$24)</f>
+      <c r="CS33" s="5">
+        <f t="shared" si="58"/>
         <v>16848.095291101814</v>
       </c>
-      <c r="CT33" s="3">
-        <f>CS33*(1+$Q$24)</f>
+      <c r="CT33" s="5">
+        <f t="shared" si="58"/>
         <v>17016.576244012831</v>
       </c>
-      <c r="CU33" s="3">
-        <f>CT33*(1+$Q$24)</f>
+      <c r="CU33" s="5">
+        <f t="shared" si="58"/>
         <v>17186.742006452958</v>
       </c>
     </row>
-    <row r="34" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:99" x14ac:dyDescent="0.2">
       <c r="B34" s="6">
         <f>B33/B20</f>
         <v>0.95508842693143037</v>
@@ -2451,7 +2465,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="35" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:99" x14ac:dyDescent="0.2">
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
@@ -2464,68 +2478,68 @@
       <c r="M35" s="6"/>
       <c r="N35" s="6"/>
     </row>
-    <row r="36" spans="1:99" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
+    <row r="36" spans="1:99" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D36" s="2">
+      <c r="D36" s="3">
         <f>D38-D40</f>
         <v>-22846</v>
       </c>
-      <c r="E36" s="2">
+      <c r="E36" s="3">
         <f>D36+E20</f>
         <v>-18756.926424999998</v>
       </c>
-      <c r="F36" s="2">
+      <c r="F36" s="3">
         <f>E36+F20</f>
         <v>-14311.789351294996</v>
       </c>
-      <c r="G36" s="2">
+      <c r="G36" s="3">
         <f>F36+G20</f>
         <v>-9488.560839028878</v>
       </c>
-      <c r="H36" s="2">
+      <c r="H36" s="3">
         <f>G36+H20</f>
         <v>-4264.0029765886211</v>
       </c>
-      <c r="I36" s="2">
+      <c r="I36" s="3">
         <f>H36+I20</f>
         <v>1386.3949007394986</v>
       </c>
-      <c r="J36" s="2">
-        <f t="shared" ref="J36:N36" si="53">I36+J20</f>
+      <c r="J36" s="3">
+        <f t="shared" ref="J36:N36" si="59">I36+J20</f>
         <v>7488.4821489402884</v>
       </c>
-      <c r="K36" s="2">
-        <f t="shared" si="53"/>
+      <c r="K36" s="3">
+        <f t="shared" si="59"/>
         <v>14069.516066055123</v>
       </c>
-      <c r="L36" s="2">
-        <f t="shared" si="53"/>
+      <c r="L36" s="3">
+        <f t="shared" si="59"/>
         <v>21158.234618969094</v>
       </c>
-      <c r="M36" s="2">
-        <f t="shared" si="53"/>
+      <c r="M36" s="3">
+        <f t="shared" si="59"/>
         <v>28784.932817552126</v>
       </c>
-      <c r="N36" s="2">
-        <f t="shared" si="53"/>
+      <c r="N36" s="3">
+        <f t="shared" si="59"/>
         <v>36981.542915857543</v>
       </c>
     </row>
-    <row r="38" spans="1:99" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
+    <row r="38" spans="1:99" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D38" s="2">
+      <c r="D38" s="3">
         <v>2132</v>
       </c>
     </row>
-    <row r="40" spans="1:99" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
+    <row r="40" spans="1:99" x14ac:dyDescent="0.2">
+      <c r="A40" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D40" s="2">
+      <c r="D40" s="3">
         <v>24978</v>
       </c>
     </row>

--- a/OXY.xlsx
+++ b/OXY.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73BFA503-6377-485B-8FDD-F2A71D6F67F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65D967B2-F036-4521-986F-43B68E441586}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4680" yWindow="300" windowWidth="21120" windowHeight="14670" activeTab="1" xr2:uid="{08012682-0F50-4229-84EC-14421E66CA3F}"/>
+    <workbookView xWindow="6300" yWindow="330" windowWidth="21120" windowHeight="14730" activeTab="1" xr2:uid="{08012682-0F50-4229-84EC-14421E66CA3F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -703,7 +703,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I25" sqref="I25"/>
+      <selection pane="bottomRight" activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/OXY.xlsx
+++ b/OXY.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65D967B2-F036-4521-986F-43B68E441586}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F18AF6A5-7502-47F2-A9F8-A5545B486741}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6300" yWindow="330" windowWidth="21120" windowHeight="14730" activeTab="1" xr2:uid="{08012682-0F50-4229-84EC-14421E66CA3F}"/>
+    <workbookView xWindow="915" yWindow="1710" windowWidth="19695" windowHeight="13635" activeTab="1" xr2:uid="{08012682-0F50-4229-84EC-14421E66CA3F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -636,7 +636,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="2">
-        <v>41.5</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -656,7 +656,7 @@
       </c>
       <c r="D4" s="2">
         <f>D2*D3</f>
-        <v>38947.75</v>
+        <v>41294</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -687,7 +687,7 @@
       </c>
       <c r="D7" s="2">
         <f>D4+D6-D5</f>
-        <v>61793.75</v>
+        <v>64140</v>
       </c>
     </row>
   </sheetData>
@@ -700,10 +700,10 @@
   <dimension ref="A1:CU40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E25" sqref="E25"/>
+      <selection pane="bottomRight" activeCell="Q25" sqref="Q25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1988,7 +1988,7 @@
       </c>
       <c r="Q28" s="6">
         <f>Q27/Sheet1!D2-1</f>
-        <v>0.40050560227292742</v>
+        <v>0.32093142032560196</v>
       </c>
     </row>
     <row r="29" spans="1:98" x14ac:dyDescent="0.2">

--- a/OXY.xlsx
+++ b/OXY.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F18AF6A5-7502-47F2-A9F8-A5545B486741}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9BBE9F2-CAED-423D-AA20-B52635B40D9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="915" yWindow="1710" windowWidth="19695" windowHeight="13635" activeTab="1" xr2:uid="{08012682-0F50-4229-84EC-14421E66CA3F}"/>
+    <workbookView xWindow="645" yWindow="780" windowWidth="23670" windowHeight="14145" activeTab="1" xr2:uid="{08012682-0F50-4229-84EC-14421E66CA3F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -636,7 +636,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="2">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -656,7 +656,7 @@
       </c>
       <c r="D4" s="2">
         <f>D2*D3</f>
-        <v>41294</v>
+        <v>39417</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -687,7 +687,7 @@
       </c>
       <c r="D7" s="2">
         <f>D4+D6-D5</f>
-        <v>64140</v>
+        <v>62263</v>
       </c>
     </row>
   </sheetData>
@@ -700,10 +700,10 @@
   <dimension ref="A1:CU40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q25" sqref="Q25"/>
+      <selection pane="bottomRight" activeCell="R27" sqref="R27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -799,24 +799,24 @@
         <v>30981.599635667502</v>
       </c>
       <c r="J2" s="5">
-        <f t="shared" ref="J2" si="7">I2*1.03</f>
-        <v>31911.04762473753</v>
+        <f>I2*1.01</f>
+        <v>31291.415632024178</v>
       </c>
       <c r="K2" s="5">
-        <f t="shared" ref="K2" si="8">J2*1.03</f>
-        <v>32868.379053479657</v>
+        <f t="shared" ref="K2:N2" si="7">J2*1.01</f>
+        <v>31604.329788344421</v>
       </c>
       <c r="L2" s="5">
-        <f t="shared" ref="L2" si="9">K2*1.03</f>
-        <v>33854.430425084051</v>
+        <f t="shared" si="7"/>
+        <v>31920.373086227864</v>
       </c>
       <c r="M2" s="5">
-        <f t="shared" ref="M2" si="10">L2*1.03</f>
-        <v>34870.063337836575</v>
+        <f t="shared" si="7"/>
+        <v>32239.576817090143</v>
       </c>
       <c r="N2" s="5">
-        <f t="shared" ref="N2" si="11">M2*1.03</f>
-        <v>35916.165237971676</v>
+        <f t="shared" si="7"/>
+        <v>32561.972585261046</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -884,11 +884,11 @@
         <v>12063</v>
       </c>
       <c r="C7" s="3">
-        <f t="shared" ref="C7:D7" si="12">SUM(C3:C6)</f>
+        <f t="shared" ref="C7:D7" si="8">SUM(C3:C6)</f>
         <v>11283</v>
       </c>
       <c r="D7" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>9804</v>
       </c>
       <c r="E7" s="3">
@@ -896,40 +896,40 @@
         <v>10184.897499999999</v>
       </c>
       <c r="F7" s="3">
-        <f t="shared" ref="F7:I7" si="13">F2*(1-F27)</f>
+        <f t="shared" ref="F7:I7" si="9">F2*(1-F27)</f>
         <v>10490.444425</v>
       </c>
       <c r="G7" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>10805.157757749999</v>
       </c>
       <c r="H7" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>11129.3124904825</v>
       </c>
       <c r="I7" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>11463.191865196975</v>
       </c>
       <c r="J7" s="3">
-        <f t="shared" ref="J7:N7" si="14">J2*(1-J27)</f>
-        <v>11807.087621152887</v>
+        <f t="shared" ref="J7:N7" si="10">J2*(1-J27)</f>
+        <v>11577.823783848946</v>
       </c>
       <c r="K7" s="3">
-        <f t="shared" si="14"/>
-        <v>12161.300249787473</v>
+        <f t="shared" si="10"/>
+        <v>11693.602021687435</v>
       </c>
       <c r="L7" s="3">
-        <f t="shared" si="14"/>
-        <v>12526.139257281098</v>
+        <f t="shared" si="10"/>
+        <v>11810.53804190431</v>
       </c>
       <c r="M7" s="3">
-        <f t="shared" si="14"/>
-        <v>12901.923434999533</v>
+        <f t="shared" si="10"/>
+        <v>11928.643422323352</v>
       </c>
       <c r="N7" s="3">
-        <f t="shared" si="14"/>
-        <v>13288.981138049519</v>
+        <f t="shared" si="10"/>
+        <v>12047.929856546587</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
@@ -941,52 +941,52 @@
         <v>24571</v>
       </c>
       <c r="C8" s="3">
-        <f t="shared" ref="C8:D8" si="15">C2-C7</f>
+        <f t="shared" ref="C8:D8" si="11">C2-C7</f>
         <v>16974</v>
       </c>
       <c r="D8" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>16921</v>
       </c>
       <c r="E8" s="3">
-        <f t="shared" ref="E8" si="16">E2-E7</f>
+        <f t="shared" ref="E8" si="12">E2-E7</f>
         <v>17341.852500000001</v>
       </c>
       <c r="F8" s="3">
-        <f t="shared" ref="F8" si="17">F2-F7</f>
+        <f t="shared" ref="F8" si="13">F2-F7</f>
         <v>17862.108075000004</v>
       </c>
       <c r="G8" s="3">
-        <f t="shared" ref="G8" si="18">G2-G7</f>
+        <f t="shared" ref="G8" si="14">G2-G7</f>
         <v>18397.971317250001</v>
       </c>
       <c r="H8" s="3">
-        <f t="shared" ref="H8" si="19">H2-H7</f>
+        <f t="shared" ref="H8" si="15">H2-H7</f>
         <v>18949.910456767502</v>
       </c>
       <c r="I8" s="3">
-        <f t="shared" ref="I8:N8" si="20">I2-I7</f>
+        <f t="shared" ref="I8:N8" si="16">I2-I7</f>
         <v>19518.407770470527</v>
       </c>
       <c r="J8" s="3">
-        <f t="shared" si="20"/>
-        <v>20103.960003584645</v>
+        <f t="shared" si="16"/>
+        <v>19713.591848175231</v>
       </c>
       <c r="K8" s="3">
-        <f t="shared" si="20"/>
-        <v>20707.078803692184</v>
+        <f t="shared" si="16"/>
+        <v>19910.727766656986</v>
       </c>
       <c r="L8" s="3">
-        <f t="shared" si="20"/>
-        <v>21328.291167802952</v>
+        <f t="shared" si="16"/>
+        <v>20109.835044323554</v>
       </c>
       <c r="M8" s="3">
-        <f t="shared" si="20"/>
-        <v>21968.139902837043</v>
+        <f t="shared" si="16"/>
+        <v>20310.933394766791</v>
       </c>
       <c r="N8" s="3">
-        <f t="shared" si="20"/>
-        <v>22627.184099922157</v>
+        <f t="shared" si="16"/>
+        <v>20514.042728714459</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
@@ -1068,11 +1068,11 @@
         <v>10629</v>
       </c>
       <c r="C14" s="3">
-        <f t="shared" ref="C14:D14" si="21">SUM(C9:C13)</f>
+        <f t="shared" ref="C14:D14" si="17">SUM(C9:C13)</f>
         <v>10557</v>
       </c>
       <c r="D14" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>11351</v>
       </c>
       <c r="E14" s="3">
@@ -1080,40 +1080,40 @@
         <v>11691.53</v>
       </c>
       <c r="F14" s="3">
-        <f t="shared" ref="F14:I14" si="22">E14*(1+F24)</f>
+        <f t="shared" ref="F14:I14" si="18">E14*(1+F24)</f>
         <v>12042.275900000001</v>
       </c>
       <c r="G14" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>12403.544177000002</v>
       </c>
       <c r="H14" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>12775.650502310002</v>
       </c>
       <c r="I14" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>13158.920017379301</v>
       </c>
       <c r="J14" s="3">
-        <f t="shared" ref="J14" si="23">I14*(1+J24)</f>
-        <v>13553.687617900681</v>
+        <f t="shared" ref="J14" si="19">I14*(1+J24)</f>
+        <v>13290.509217553095</v>
       </c>
       <c r="K14" s="3">
-        <f t="shared" ref="K14" si="24">J14*(1+K24)</f>
-        <v>13960.298246437702</v>
+        <f t="shared" ref="K14" si="20">J14*(1+K24)</f>
+        <v>13423.414309728627</v>
       </c>
       <c r="L14" s="3">
-        <f t="shared" ref="L14" si="25">K14*(1+L24)</f>
-        <v>14379.107193830834</v>
+        <f t="shared" ref="L14" si="21">K14*(1+L24)</f>
+        <v>13557.648452825913</v>
       </c>
       <c r="M14" s="3">
-        <f t="shared" ref="M14" si="26">L14*(1+M24)</f>
-        <v>14810.480409645759</v>
+        <f t="shared" ref="M14" si="22">L14*(1+M24)</f>
+        <v>13693.224937354173</v>
       </c>
       <c r="N14" s="3">
-        <f t="shared" ref="N14" si="27">M14*(1+N24)</f>
-        <v>15254.794821935133</v>
+        <f t="shared" ref="N14" si="23">M14*(1+N24)</f>
+        <v>13830.157186727714</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
@@ -1125,52 +1125,52 @@
         <v>13942</v>
       </c>
       <c r="C15" s="3">
-        <f t="shared" ref="C15:I15" si="28">C8-C14</f>
+        <f t="shared" ref="C15:I15" si="24">C8-C14</f>
         <v>6417</v>
       </c>
       <c r="D15" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v>5570</v>
       </c>
       <c r="E15" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v>5650.3225000000002</v>
       </c>
       <c r="F15" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v>5819.8321750000032</v>
       </c>
       <c r="G15" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v>5994.4271402499999</v>
       </c>
       <c r="H15" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v>6174.2599544575005</v>
       </c>
       <c r="I15" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v>6359.4877530912254</v>
       </c>
       <c r="J15" s="3">
-        <f t="shared" ref="J15:N15" si="29">J8-J14</f>
-        <v>6550.2723856839639</v>
+        <f t="shared" ref="J15:N15" si="25">J8-J14</f>
+        <v>6423.0826306221352</v>
       </c>
       <c r="K15" s="3">
-        <f t="shared" si="29"/>
-        <v>6746.7805572544821</v>
+        <f t="shared" si="25"/>
+        <v>6487.3134569283593</v>
       </c>
       <c r="L15" s="3">
-        <f t="shared" si="29"/>
-        <v>6949.1839739721181</v>
+        <f t="shared" si="25"/>
+        <v>6552.1865914976406</v>
       </c>
       <c r="M15" s="3">
-        <f t="shared" si="29"/>
-        <v>7157.6594931912841</v>
+        <f t="shared" si="25"/>
+        <v>6617.7084574126184</v>
       </c>
       <c r="N15" s="3">
-        <f t="shared" si="29"/>
-        <v>7372.3892779870239</v>
+        <f t="shared" si="25"/>
+        <v>6683.885541986745</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
@@ -1207,24 +1207,24 @@
         <v>-255.84017859531727</v>
       </c>
       <c r="J16" s="3">
-        <f t="shared" ref="J16:N16" si="30">I36*$Q$23</f>
+        <f t="shared" ref="J16:N16" si="26">I36*$Q$23</f>
         <v>83.183694044369915</v>
       </c>
       <c r="K16" s="3">
-        <f t="shared" si="30"/>
-        <v>449.30892893641732</v>
+        <f t="shared" si="26"/>
+        <v>443.28013454648664</v>
       </c>
       <c r="L16" s="3">
-        <f t="shared" si="30"/>
-        <v>844.17096396330737</v>
+        <f t="shared" si="26"/>
+        <v>825.55766416383551</v>
       </c>
       <c r="M16" s="3">
-        <f t="shared" si="30"/>
-        <v>1269.4940771381457</v>
+        <f t="shared" si="26"/>
+        <v>1231.1808309988885</v>
       </c>
       <c r="N16" s="3">
-        <f t="shared" si="30"/>
-        <v>1727.0959690531274</v>
+        <f t="shared" si="26"/>
+        <v>1661.372995950961</v>
       </c>
     </row>
     <row r="17" spans="1:98" x14ac:dyDescent="0.2">
@@ -1245,39 +1245,39 @@
         <v>896.48</v>
       </c>
       <c r="F17" s="3">
-        <f t="shared" ref="F17:I17" si="31">E17*1.04</f>
+        <f t="shared" ref="F17:I17" si="27">E17*1.04</f>
         <v>932.33920000000001</v>
       </c>
       <c r="G17" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="27"/>
         <v>969.63276800000006</v>
       </c>
       <c r="H17" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="27"/>
         <v>1008.41807872</v>
       </c>
       <c r="I17" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="27"/>
         <v>1048.7548018688001</v>
       </c>
       <c r="J17" s="3">
-        <f t="shared" ref="J17:N17" si="32">I17*1.04</f>
+        <f t="shared" ref="J17:N17" si="28">I17*1.04</f>
         <v>1090.7049939435522</v>
       </c>
       <c r="K17" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="28"/>
         <v>1134.3331937012942</v>
       </c>
       <c r="L17" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="28"/>
         <v>1179.7065214493462</v>
       </c>
       <c r="M17" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="28"/>
         <v>1226.8947823073202</v>
       </c>
       <c r="N17" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="28"/>
         <v>1275.9705735996131</v>
       </c>
     </row>
@@ -1290,52 +1290,52 @@
         <v>13705</v>
       </c>
       <c r="C18" s="3">
-        <f t="shared" ref="C18:I18" si="33">C15+SUM(C16:C17)</f>
+        <f t="shared" ref="C18:I18" si="29">C15+SUM(C16:C17)</f>
         <v>6006</v>
       </c>
       <c r="D18" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>5257</v>
       </c>
       <c r="E18" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>5176.0425000000005</v>
       </c>
       <c r="F18" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>5626.7557895000036</v>
       </c>
       <c r="G18" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>6105.3525471723005</v>
       </c>
       <c r="H18" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>6613.3643828357681</v>
       </c>
       <c r="I18" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>7152.4023763647083</v>
       </c>
       <c r="J18" s="3">
-        <f t="shared" ref="J18:N18" si="34">J15+SUM(J16:J17)</f>
-        <v>7724.1610736718858</v>
+        <f t="shared" ref="J18:N18" si="30">J15+SUM(J16:J17)</f>
+        <v>7596.9713186100571</v>
       </c>
       <c r="K18" s="3">
-        <f t="shared" si="34"/>
-        <v>8330.4226798921936</v>
+        <f t="shared" si="30"/>
+        <v>8064.9267851761397</v>
       </c>
       <c r="L18" s="3">
-        <f t="shared" si="34"/>
-        <v>8973.0614593847713</v>
+        <f t="shared" si="30"/>
+        <v>8557.4507771108219</v>
       </c>
       <c r="M18" s="3">
-        <f t="shared" si="34"/>
-        <v>9654.0483526367498</v>
+        <f t="shared" si="30"/>
+        <v>9075.7840707188261</v>
       </c>
       <c r="N18" s="3">
-        <f t="shared" si="34"/>
-        <v>10375.455820639763</v>
+        <f t="shared" si="30"/>
+        <v>9621.2291115373191</v>
       </c>
     </row>
     <row r="19" spans="1:98" x14ac:dyDescent="0.2">
@@ -1356,40 +1356,40 @@
         <v>1086.9689250000001</v>
       </c>
       <c r="F19" s="3">
-        <f t="shared" ref="F19:I19" si="35">F18*F25</f>
+        <f t="shared" ref="F19:I19" si="31">F18*F25</f>
         <v>1181.6187157950008</v>
       </c>
       <c r="G19" s="3">
-        <f t="shared" si="35"/>
+        <f t="shared" si="31"/>
         <v>1282.1240349061832</v>
       </c>
       <c r="H19" s="3">
-        <f t="shared" si="35"/>
+        <f t="shared" si="31"/>
         <v>1388.8065203955111</v>
       </c>
       <c r="I19" s="3">
-        <f t="shared" si="35"/>
+        <f t="shared" si="31"/>
         <v>1502.0044990365886</v>
       </c>
       <c r="J19" s="3">
-        <f t="shared" ref="J19" si="36">J18*J25</f>
-        <v>1622.0738254710959</v>
+        <f t="shared" ref="J19" si="32">J18*J25</f>
+        <v>1595.3639769081119</v>
       </c>
       <c r="K19" s="3">
-        <f t="shared" ref="K19" si="37">K18*K25</f>
-        <v>1749.3887627773606</v>
+        <f t="shared" ref="K19" si="33">K18*K25</f>
+        <v>1693.6346248869893</v>
       </c>
       <c r="L19" s="3">
-        <f t="shared" ref="L19" si="38">L18*L25</f>
-        <v>1884.3429064708018</v>
+        <f t="shared" ref="L19" si="34">L18*L25</f>
+        <v>1797.0646631932725</v>
       </c>
       <c r="M19" s="3">
-        <f t="shared" ref="M19" si="39">M18*M25</f>
-        <v>2027.3501540537175</v>
+        <f t="shared" ref="M19" si="35">M18*M25</f>
+        <v>1905.9146548509534</v>
       </c>
       <c r="N19" s="3">
-        <f t="shared" ref="N19" si="40">N18*N25</f>
-        <v>2178.8457223343503</v>
+        <f t="shared" ref="N19" si="36">N18*N25</f>
+        <v>2020.458113422837</v>
       </c>
     </row>
     <row r="20" spans="1:98" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -1401,388 +1401,388 @@
         <v>12892</v>
       </c>
       <c r="C20" s="5">
-        <f t="shared" ref="C20:I20" si="41">C18-C19</f>
+        <f t="shared" ref="C20:I20" si="37">C18-C19</f>
         <v>4273</v>
       </c>
       <c r="D20" s="5">
+        <f t="shared" si="37"/>
+        <v>4083</v>
+      </c>
+      <c r="E20" s="5">
+        <f t="shared" si="37"/>
+        <v>4089.0735750000003</v>
+      </c>
+      <c r="F20" s="5">
+        <f t="shared" si="37"/>
+        <v>4445.1370737050029</v>
+      </c>
+      <c r="G20" s="5">
+        <f t="shared" si="37"/>
+        <v>4823.2285122661178</v>
+      </c>
+      <c r="H20" s="5">
+        <f t="shared" si="37"/>
+        <v>5224.5578624402569</v>
+      </c>
+      <c r="I20" s="5">
+        <f t="shared" si="37"/>
+        <v>5650.3978773281196</v>
+      </c>
+      <c r="J20" s="5">
+        <f t="shared" ref="J20:N20" si="38">J18-J19</f>
+        <v>6001.6073417019452</v>
+      </c>
+      <c r="K20" s="5">
+        <f t="shared" si="38"/>
+        <v>6371.2921602891502</v>
+      </c>
+      <c r="L20" s="5">
+        <f t="shared" si="38"/>
+        <v>6760.3861139175497</v>
+      </c>
+      <c r="M20" s="5">
+        <f t="shared" si="38"/>
+        <v>7169.8694158678727</v>
+      </c>
+      <c r="N20" s="5">
+        <f t="shared" si="38"/>
+        <v>7600.7709981144817</v>
+      </c>
+      <c r="O20" s="5">
+        <f t="shared" ref="O20:AT20" si="39">N20*(1+$Q$24)</f>
+        <v>7600.7709981144817</v>
+      </c>
+      <c r="P20" s="5">
+        <f t="shared" si="39"/>
+        <v>7600.7709981144817</v>
+      </c>
+      <c r="Q20" s="5">
+        <f t="shared" si="39"/>
+        <v>7600.7709981144817</v>
+      </c>
+      <c r="R20" s="5">
+        <f t="shared" si="39"/>
+        <v>7600.7709981144817</v>
+      </c>
+      <c r="S20" s="5">
+        <f t="shared" si="39"/>
+        <v>7600.7709981144817</v>
+      </c>
+      <c r="T20" s="5">
+        <f t="shared" si="39"/>
+        <v>7600.7709981144817</v>
+      </c>
+      <c r="U20" s="5">
+        <f t="shared" si="39"/>
+        <v>7600.7709981144817</v>
+      </c>
+      <c r="V20" s="5">
+        <f t="shared" si="39"/>
+        <v>7600.7709981144817</v>
+      </c>
+      <c r="W20" s="5">
+        <f t="shared" si="39"/>
+        <v>7600.7709981144817</v>
+      </c>
+      <c r="X20" s="5">
+        <f t="shared" si="39"/>
+        <v>7600.7709981144817</v>
+      </c>
+      <c r="Y20" s="5">
+        <f t="shared" si="39"/>
+        <v>7600.7709981144817</v>
+      </c>
+      <c r="Z20" s="5">
+        <f t="shared" si="39"/>
+        <v>7600.7709981144817</v>
+      </c>
+      <c r="AA20" s="5">
+        <f t="shared" si="39"/>
+        <v>7600.7709981144817</v>
+      </c>
+      <c r="AB20" s="5">
+        <f t="shared" si="39"/>
+        <v>7600.7709981144817</v>
+      </c>
+      <c r="AC20" s="5">
+        <f t="shared" si="39"/>
+        <v>7600.7709981144817</v>
+      </c>
+      <c r="AD20" s="5">
+        <f t="shared" si="39"/>
+        <v>7600.7709981144817</v>
+      </c>
+      <c r="AE20" s="5">
+        <f t="shared" si="39"/>
+        <v>7600.7709981144817</v>
+      </c>
+      <c r="AF20" s="5">
+        <f t="shared" si="39"/>
+        <v>7600.7709981144817</v>
+      </c>
+      <c r="AG20" s="5">
+        <f t="shared" si="39"/>
+        <v>7600.7709981144817</v>
+      </c>
+      <c r="AH20" s="5">
+        <f t="shared" si="39"/>
+        <v>7600.7709981144817</v>
+      </c>
+      <c r="AI20" s="5">
+        <f t="shared" si="39"/>
+        <v>7600.7709981144817</v>
+      </c>
+      <c r="AJ20" s="5">
+        <f t="shared" si="39"/>
+        <v>7600.7709981144817</v>
+      </c>
+      <c r="AK20" s="5">
+        <f t="shared" si="39"/>
+        <v>7600.7709981144817</v>
+      </c>
+      <c r="AL20" s="5">
+        <f t="shared" si="39"/>
+        <v>7600.7709981144817</v>
+      </c>
+      <c r="AM20" s="5">
+        <f t="shared" si="39"/>
+        <v>7600.7709981144817</v>
+      </c>
+      <c r="AN20" s="5">
+        <f t="shared" si="39"/>
+        <v>7600.7709981144817</v>
+      </c>
+      <c r="AO20" s="5">
+        <f t="shared" si="39"/>
+        <v>7600.7709981144817</v>
+      </c>
+      <c r="AP20" s="5">
+        <f t="shared" si="39"/>
+        <v>7600.7709981144817</v>
+      </c>
+      <c r="AQ20" s="5">
+        <f t="shared" si="39"/>
+        <v>7600.7709981144817</v>
+      </c>
+      <c r="AR20" s="5">
+        <f t="shared" si="39"/>
+        <v>7600.7709981144817</v>
+      </c>
+      <c r="AS20" s="5">
+        <f t="shared" si="39"/>
+        <v>7600.7709981144817</v>
+      </c>
+      <c r="AT20" s="5">
+        <f t="shared" si="39"/>
+        <v>7600.7709981144817</v>
+      </c>
+      <c r="AU20" s="5">
+        <f t="shared" ref="AU20:BZ20" si="40">AT20*(1+$Q$24)</f>
+        <v>7600.7709981144817</v>
+      </c>
+      <c r="AV20" s="5">
+        <f t="shared" si="40"/>
+        <v>7600.7709981144817</v>
+      </c>
+      <c r="AW20" s="5">
+        <f t="shared" si="40"/>
+        <v>7600.7709981144817</v>
+      </c>
+      <c r="AX20" s="5">
+        <f t="shared" si="40"/>
+        <v>7600.7709981144817</v>
+      </c>
+      <c r="AY20" s="5">
+        <f t="shared" si="40"/>
+        <v>7600.7709981144817</v>
+      </c>
+      <c r="AZ20" s="5">
+        <f t="shared" si="40"/>
+        <v>7600.7709981144817</v>
+      </c>
+      <c r="BA20" s="5">
+        <f t="shared" si="40"/>
+        <v>7600.7709981144817</v>
+      </c>
+      <c r="BB20" s="5">
+        <f t="shared" si="40"/>
+        <v>7600.7709981144817</v>
+      </c>
+      <c r="BC20" s="5">
+        <f t="shared" si="40"/>
+        <v>7600.7709981144817</v>
+      </c>
+      <c r="BD20" s="5">
+        <f t="shared" si="40"/>
+        <v>7600.7709981144817</v>
+      </c>
+      <c r="BE20" s="5">
+        <f t="shared" si="40"/>
+        <v>7600.7709981144817</v>
+      </c>
+      <c r="BF20" s="5">
+        <f t="shared" si="40"/>
+        <v>7600.7709981144817</v>
+      </c>
+      <c r="BG20" s="5">
+        <f t="shared" si="40"/>
+        <v>7600.7709981144817</v>
+      </c>
+      <c r="BH20" s="5">
+        <f t="shared" si="40"/>
+        <v>7600.7709981144817</v>
+      </c>
+      <c r="BI20" s="5">
+        <f t="shared" si="40"/>
+        <v>7600.7709981144817</v>
+      </c>
+      <c r="BJ20" s="5">
+        <f t="shared" si="40"/>
+        <v>7600.7709981144817</v>
+      </c>
+      <c r="BK20" s="5">
+        <f t="shared" si="40"/>
+        <v>7600.7709981144817</v>
+      </c>
+      <c r="BL20" s="5">
+        <f t="shared" si="40"/>
+        <v>7600.7709981144817</v>
+      </c>
+      <c r="BM20" s="5">
+        <f t="shared" si="40"/>
+        <v>7600.7709981144817</v>
+      </c>
+      <c r="BN20" s="5">
+        <f t="shared" si="40"/>
+        <v>7600.7709981144817</v>
+      </c>
+      <c r="BO20" s="5">
+        <f t="shared" si="40"/>
+        <v>7600.7709981144817</v>
+      </c>
+      <c r="BP20" s="5">
+        <f t="shared" si="40"/>
+        <v>7600.7709981144817</v>
+      </c>
+      <c r="BQ20" s="5">
+        <f t="shared" si="40"/>
+        <v>7600.7709981144817</v>
+      </c>
+      <c r="BR20" s="5">
+        <f t="shared" si="40"/>
+        <v>7600.7709981144817</v>
+      </c>
+      <c r="BS20" s="5">
+        <f t="shared" si="40"/>
+        <v>7600.7709981144817</v>
+      </c>
+      <c r="BT20" s="5">
+        <f t="shared" si="40"/>
+        <v>7600.7709981144817</v>
+      </c>
+      <c r="BU20" s="5">
+        <f t="shared" si="40"/>
+        <v>7600.7709981144817</v>
+      </c>
+      <c r="BV20" s="5">
+        <f t="shared" si="40"/>
+        <v>7600.7709981144817</v>
+      </c>
+      <c r="BW20" s="5">
+        <f t="shared" si="40"/>
+        <v>7600.7709981144817</v>
+      </c>
+      <c r="BX20" s="5">
+        <f t="shared" si="40"/>
+        <v>7600.7709981144817</v>
+      </c>
+      <c r="BY20" s="5">
+        <f t="shared" si="40"/>
+        <v>7600.7709981144817</v>
+      </c>
+      <c r="BZ20" s="5">
+        <f t="shared" si="40"/>
+        <v>7600.7709981144817</v>
+      </c>
+      <c r="CA20" s="5">
+        <f t="shared" ref="CA20:CT20" si="41">BZ20*(1+$Q$24)</f>
+        <v>7600.7709981144817</v>
+      </c>
+      <c r="CB20" s="5">
         <f t="shared" si="41"/>
-        <v>4083</v>
-      </c>
-      <c r="E20" s="5">
+        <v>7600.7709981144817</v>
+      </c>
+      <c r="CC20" s="5">
         <f t="shared" si="41"/>
-        <v>4089.0735750000003</v>
-      </c>
-      <c r="F20" s="5">
+        <v>7600.7709981144817</v>
+      </c>
+      <c r="CD20" s="5">
         <f t="shared" si="41"/>
-        <v>4445.1370737050029</v>
-      </c>
-      <c r="G20" s="5">
+        <v>7600.7709981144817</v>
+      </c>
+      <c r="CE20" s="5">
         <f t="shared" si="41"/>
-        <v>4823.2285122661178</v>
-      </c>
-      <c r="H20" s="5">
+        <v>7600.7709981144817</v>
+      </c>
+      <c r="CF20" s="5">
         <f t="shared" si="41"/>
-        <v>5224.5578624402569</v>
-      </c>
-      <c r="I20" s="5">
+        <v>7600.7709981144817</v>
+      </c>
+      <c r="CG20" s="5">
         <f t="shared" si="41"/>
-        <v>5650.3978773281196</v>
-      </c>
-      <c r="J20" s="5">
-        <f t="shared" ref="J20:N20" si="42">J18-J19</f>
-        <v>6102.0872482007899</v>
-      </c>
-      <c r="K20" s="5">
-        <f t="shared" si="42"/>
-        <v>6581.0339171148335</v>
-      </c>
-      <c r="L20" s="5">
-        <f t="shared" si="42"/>
-        <v>7088.7185529139697</v>
-      </c>
-      <c r="M20" s="5">
-        <f t="shared" si="42"/>
-        <v>7626.6981985830325</v>
-      </c>
-      <c r="N20" s="5">
-        <f t="shared" si="42"/>
-        <v>8196.610098305413</v>
-      </c>
-      <c r="O20" s="5">
-        <f t="shared" ref="O20:AT20" si="43">N20*(1+$Q$24)</f>
-        <v>8278.5761992884673</v>
-      </c>
-      <c r="P20" s="5">
-        <f t="shared" si="43"/>
-        <v>8361.3619612813527</v>
-      </c>
-      <c r="Q20" s="5">
-        <f t="shared" si="43"/>
-        <v>8444.9755808941663</v>
-      </c>
-      <c r="R20" s="5">
-        <f t="shared" si="43"/>
-        <v>8529.4253367031088</v>
-      </c>
-      <c r="S20" s="5">
-        <f t="shared" si="43"/>
-        <v>8614.7195900701408</v>
-      </c>
-      <c r="T20" s="5">
-        <f t="shared" si="43"/>
-        <v>8700.8667859708421</v>
-      </c>
-      <c r="U20" s="5">
-        <f t="shared" si="43"/>
-        <v>8787.8754538305511</v>
-      </c>
-      <c r="V20" s="5">
-        <f t="shared" si="43"/>
-        <v>8875.7542083688568</v>
-      </c>
-      <c r="W20" s="5">
-        <f t="shared" si="43"/>
-        <v>8964.511750452546</v>
-      </c>
-      <c r="X20" s="5">
-        <f t="shared" si="43"/>
-        <v>9054.1568679570719</v>
-      </c>
-      <c r="Y20" s="5">
-        <f t="shared" si="43"/>
-        <v>9144.6984366366432</v>
-      </c>
-      <c r="Z20" s="5">
-        <f t="shared" si="43"/>
-        <v>9236.1454210030097</v>
-      </c>
-      <c r="AA20" s="5">
-        <f t="shared" si="43"/>
-        <v>9328.5068752130392</v>
-      </c>
-      <c r="AB20" s="5">
-        <f t="shared" si="43"/>
-        <v>9421.7919439651705</v>
-      </c>
-      <c r="AC20" s="5">
-        <f t="shared" si="43"/>
-        <v>9516.0098634048227</v>
-      </c>
-      <c r="AD20" s="5">
-        <f t="shared" si="43"/>
-        <v>9611.1699620388717</v>
-      </c>
-      <c r="AE20" s="5">
-        <f t="shared" si="43"/>
-        <v>9707.2816616592609</v>
-      </c>
-      <c r="AF20" s="5">
-        <f t="shared" si="43"/>
-        <v>9804.3544782758527</v>
-      </c>
-      <c r="AG20" s="5">
-        <f t="shared" si="43"/>
-        <v>9902.3980230586112</v>
-      </c>
-      <c r="AH20" s="5">
-        <f t="shared" si="43"/>
-        <v>10001.422003289197</v>
-      </c>
-      <c r="AI20" s="5">
-        <f t="shared" si="43"/>
-        <v>10101.436223322089</v>
-      </c>
-      <c r="AJ20" s="5">
-        <f t="shared" si="43"/>
-        <v>10202.450585555311</v>
-      </c>
-      <c r="AK20" s="5">
-        <f t="shared" si="43"/>
-        <v>10304.475091410864</v>
-      </c>
-      <c r="AL20" s="5">
-        <f t="shared" si="43"/>
-        <v>10407.519842324973</v>
-      </c>
-      <c r="AM20" s="5">
-        <f t="shared" si="43"/>
-        <v>10511.595040748223</v>
-      </c>
-      <c r="AN20" s="5">
-        <f t="shared" si="43"/>
-        <v>10616.710991155705</v>
-      </c>
-      <c r="AO20" s="5">
-        <f t="shared" si="43"/>
-        <v>10722.878101067263</v>
-      </c>
-      <c r="AP20" s="5">
-        <f t="shared" si="43"/>
-        <v>10830.106882077936</v>
-      </c>
-      <c r="AQ20" s="5">
-        <f t="shared" si="43"/>
-        <v>10938.407950898716</v>
-      </c>
-      <c r="AR20" s="5">
-        <f t="shared" si="43"/>
-        <v>11047.792030407703</v>
-      </c>
-      <c r="AS20" s="5">
-        <f t="shared" si="43"/>
-        <v>11158.269950711781</v>
-      </c>
-      <c r="AT20" s="5">
-        <f t="shared" si="43"/>
-        <v>11269.8526502189</v>
-      </c>
-      <c r="AU20" s="5">
-        <f t="shared" ref="AU20:BZ20" si="44">AT20*(1+$Q$24)</f>
-        <v>11382.551176721088</v>
-      </c>
-      <c r="AV20" s="5">
-        <f t="shared" si="44"/>
-        <v>11496.376688488299</v>
-      </c>
-      <c r="AW20" s="5">
-        <f t="shared" si="44"/>
-        <v>11611.340455373182</v>
-      </c>
-      <c r="AX20" s="5">
-        <f t="shared" si="44"/>
-        <v>11727.453859926913</v>
-      </c>
-      <c r="AY20" s="5">
-        <f t="shared" si="44"/>
-        <v>11844.728398526182</v>
-      </c>
-      <c r="AZ20" s="5">
-        <f t="shared" si="44"/>
-        <v>11963.175682511444</v>
-      </c>
-      <c r="BA20" s="5">
-        <f t="shared" si="44"/>
-        <v>12082.807439336559</v>
-      </c>
-      <c r="BB20" s="5">
-        <f t="shared" si="44"/>
-        <v>12203.635513729925</v>
-      </c>
-      <c r="BC20" s="5">
-        <f t="shared" si="44"/>
-        <v>12325.671868867224</v>
-      </c>
-      <c r="BD20" s="5">
-        <f t="shared" si="44"/>
-        <v>12448.928587555896</v>
-      </c>
-      <c r="BE20" s="5">
-        <f t="shared" si="44"/>
-        <v>12573.417873431456</v>
-      </c>
-      <c r="BF20" s="5">
-        <f t="shared" si="44"/>
-        <v>12699.152052165769</v>
-      </c>
-      <c r="BG20" s="5">
-        <f t="shared" si="44"/>
-        <v>12826.143572687428</v>
-      </c>
-      <c r="BH20" s="5">
-        <f t="shared" si="44"/>
-        <v>12954.405008414302</v>
-      </c>
-      <c r="BI20" s="5">
-        <f t="shared" si="44"/>
-        <v>13083.949058498445</v>
-      </c>
-      <c r="BJ20" s="5">
-        <f t="shared" si="44"/>
-        <v>13214.788549083431</v>
-      </c>
-      <c r="BK20" s="5">
-        <f t="shared" si="44"/>
-        <v>13346.936434574265</v>
-      </c>
-      <c r="BL20" s="5">
-        <f t="shared" si="44"/>
-        <v>13480.405798920008</v>
-      </c>
-      <c r="BM20" s="5">
-        <f t="shared" si="44"/>
-        <v>13615.209856909209</v>
-      </c>
-      <c r="BN20" s="5">
-        <f t="shared" si="44"/>
-        <v>13751.3619554783</v>
-      </c>
-      <c r="BO20" s="5">
-        <f t="shared" si="44"/>
-        <v>13888.875575033084</v>
-      </c>
-      <c r="BP20" s="5">
-        <f t="shared" si="44"/>
-        <v>14027.764330783415</v>
-      </c>
-      <c r="BQ20" s="5">
-        <f t="shared" si="44"/>
-        <v>14168.041974091249</v>
-      </c>
-      <c r="BR20" s="5">
-        <f t="shared" si="44"/>
-        <v>14309.722393832162</v>
-      </c>
-      <c r="BS20" s="5">
-        <f t="shared" si="44"/>
-        <v>14452.819617770483</v>
-      </c>
-      <c r="BT20" s="5">
-        <f t="shared" si="44"/>
-        <v>14597.347813948189</v>
-      </c>
-      <c r="BU20" s="5">
-        <f t="shared" si="44"/>
-        <v>14743.32129208767</v>
-      </c>
-      <c r="BV20" s="5">
-        <f t="shared" si="44"/>
-        <v>14890.754505008546</v>
-      </c>
-      <c r="BW20" s="5">
-        <f t="shared" si="44"/>
-        <v>15039.662050058632</v>
-      </c>
-      <c r="BX20" s="5">
-        <f t="shared" si="44"/>
-        <v>15190.05867055922</v>
-      </c>
-      <c r="BY20" s="5">
-        <f t="shared" si="44"/>
-        <v>15341.959257264813</v>
-      </c>
-      <c r="BZ20" s="5">
-        <f t="shared" si="44"/>
-        <v>15495.378849837462</v>
-      </c>
-      <c r="CA20" s="5">
-        <f t="shared" ref="CA20:CT20" si="45">BZ20*(1+$Q$24)</f>
-        <v>15650.332638335836</v>
-      </c>
-      <c r="CB20" s="5">
-        <f t="shared" si="45"/>
-        <v>15806.835964719196</v>
-      </c>
-      <c r="CC20" s="5">
-        <f t="shared" si="45"/>
-        <v>15964.904324366387</v>
-      </c>
-      <c r="CD20" s="5">
-        <f t="shared" si="45"/>
-        <v>16124.553367610051</v>
-      </c>
-      <c r="CE20" s="5">
-        <f t="shared" si="45"/>
-        <v>16285.798901286153</v>
-      </c>
-      <c r="CF20" s="5">
-        <f t="shared" si="45"/>
-        <v>16448.656890299015</v>
-      </c>
-      <c r="CG20" s="5">
-        <f t="shared" si="45"/>
-        <v>16613.143459202005</v>
+        <v>7600.7709981144817</v>
       </c>
       <c r="CH20" s="5">
-        <f t="shared" si="45"/>
-        <v>16779.274893794027</v>
+        <f t="shared" si="41"/>
+        <v>7600.7709981144817</v>
       </c>
       <c r="CI20" s="5">
-        <f t="shared" si="45"/>
-        <v>16947.067642731967</v>
+        <f t="shared" si="41"/>
+        <v>7600.7709981144817</v>
       </c>
       <c r="CJ20" s="5">
-        <f t="shared" si="45"/>
-        <v>17116.538319159288</v>
+        <f t="shared" si="41"/>
+        <v>7600.7709981144817</v>
       </c>
       <c r="CK20" s="5">
-        <f t="shared" si="45"/>
-        <v>17287.703702350882</v>
+        <f t="shared" si="41"/>
+        <v>7600.7709981144817</v>
       </c>
       <c r="CL20" s="5">
-        <f t="shared" si="45"/>
-        <v>17460.580739374393</v>
+        <f t="shared" si="41"/>
+        <v>7600.7709981144817</v>
       </c>
       <c r="CM20" s="5">
-        <f t="shared" si="45"/>
-        <v>17635.186546768138</v>
+        <f t="shared" si="41"/>
+        <v>7600.7709981144817</v>
       </c>
       <c r="CN20" s="5">
-        <f t="shared" si="45"/>
-        <v>17811.538412235819</v>
+        <f t="shared" si="41"/>
+        <v>7600.7709981144817</v>
       </c>
       <c r="CO20" s="5">
-        <f t="shared" si="45"/>
-        <v>17989.653796358176</v>
+        <f t="shared" si="41"/>
+        <v>7600.7709981144817</v>
       </c>
       <c r="CP20" s="5">
-        <f t="shared" si="45"/>
-        <v>18169.550334321757</v>
+        <f t="shared" si="41"/>
+        <v>7600.7709981144817</v>
       </c>
       <c r="CQ20" s="5">
-        <f t="shared" si="45"/>
-        <v>18351.245837664974</v>
+        <f t="shared" si="41"/>
+        <v>7600.7709981144817</v>
       </c>
       <c r="CR20" s="5">
-        <f t="shared" si="45"/>
-        <v>18534.758296041622</v>
+        <f t="shared" si="41"/>
+        <v>7600.7709981144817</v>
       </c>
       <c r="CS20" s="5">
-        <f t="shared" si="45"/>
-        <v>18720.10587900204</v>
+        <f t="shared" si="41"/>
+        <v>7600.7709981144817</v>
       </c>
       <c r="CT20" s="5">
-        <f t="shared" si="45"/>
-        <v>18907.306937792062</v>
+        <f t="shared" si="41"/>
+        <v>7600.7709981144817</v>
       </c>
     </row>
     <row r="21" spans="1:98" x14ac:dyDescent="0.2">
@@ -1816,50 +1816,50 @@
         <v>-5.421665428035527E-2</v>
       </c>
       <c r="E24" s="7">
-        <f t="shared" ref="E24:I24" si="46">E2/D2-1</f>
+        <f t="shared" ref="E24:I24" si="42">E2/D2-1</f>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="F24" s="7">
-        <f t="shared" si="46"/>
+        <f t="shared" si="42"/>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="G24" s="7">
-        <f t="shared" si="46"/>
+        <f t="shared" si="42"/>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="H24" s="7">
-        <f t="shared" si="46"/>
+        <f t="shared" si="42"/>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="I24" s="7">
-        <f t="shared" si="46"/>
+        <f t="shared" si="42"/>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="J24" s="7">
-        <f t="shared" ref="J24" si="47">J2/I2-1</f>
-        <v>3.0000000000000027E-2</v>
+        <f t="shared" ref="J24" si="43">J2/I2-1</f>
+        <v>1.0000000000000009E-2</v>
       </c>
       <c r="K24" s="7">
-        <f t="shared" ref="K24" si="48">K2/J2-1</f>
-        <v>3.0000000000000027E-2</v>
+        <f t="shared" ref="K24" si="44">K2/J2-1</f>
+        <v>1.0000000000000009E-2</v>
       </c>
       <c r="L24" s="7">
-        <f t="shared" ref="L24" si="49">L2/K2-1</f>
-        <v>3.0000000000000027E-2</v>
+        <f t="shared" ref="L24" si="45">L2/K2-1</f>
+        <v>1.0000000000000009E-2</v>
       </c>
       <c r="M24" s="7">
-        <f t="shared" ref="M24" si="50">M2/L2-1</f>
-        <v>3.0000000000000027E-2</v>
+        <f t="shared" ref="M24" si="46">M2/L2-1</f>
+        <v>1.0000000000000009E-2</v>
       </c>
       <c r="N24" s="7">
-        <f t="shared" ref="N24" si="51">N2/M2-1</f>
-        <v>3.0000000000000027E-2</v>
+        <f t="shared" ref="N24" si="47">N2/M2-1</f>
+        <v>1.0000000000000009E-2</v>
       </c>
       <c r="P24" s="3" t="s">
         <v>38</v>
       </c>
       <c r="Q24" s="6">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:98" x14ac:dyDescent="0.2">
@@ -1871,11 +1871,11 @@
         <v>5.9321415541773073E-2</v>
       </c>
       <c r="C25" s="6">
-        <f t="shared" ref="C25:D25" si="52">C19/C18</f>
+        <f t="shared" ref="C25:D25" si="48">C19/C18</f>
         <v>0.28854478854478854</v>
       </c>
       <c r="D25" s="6">
-        <f t="shared" si="52"/>
+        <f t="shared" si="48"/>
         <v>0.22332128590450828</v>
       </c>
       <c r="E25" s="6">
@@ -1912,7 +1912,7 @@
         <v>39</v>
       </c>
       <c r="Q25" s="8">
-        <v>8.5000000000000006E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="26" spans="1:98" ht="15" x14ac:dyDescent="0.25">
@@ -1921,7 +1921,7 @@
       </c>
       <c r="Q26" s="5">
         <f>NPV(Q25,E33:XFD33)+Sheet1!D5-Sheet1!D6</f>
-        <v>54546.54207092541</v>
+        <v>55808.736768674004</v>
       </c>
     </row>
     <row r="27" spans="1:98" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -1933,11 +1933,11 @@
         <v>0.67071572855816997</v>
       </c>
       <c r="C27" s="7">
-        <f t="shared" ref="C27:D27" si="53">C8/C2</f>
+        <f t="shared" ref="C27:D27" si="49">C8/C2</f>
         <v>0.60070071132816649</v>
       </c>
       <c r="D27" s="7">
-        <f t="shared" si="53"/>
+        <f t="shared" si="49"/>
         <v>0.63315247895229188</v>
       </c>
       <c r="E27" s="7">
@@ -1975,7 +1975,7 @@
       </c>
       <c r="Q27" s="3">
         <f>Q26/Sheet1!D3</f>
-        <v>58.120982494326491</v>
+        <v>59.465888938384659</v>
       </c>
     </row>
     <row r="28" spans="1:98" x14ac:dyDescent="0.2">
@@ -1988,7 +1988,7 @@
       </c>
       <c r="Q28" s="6">
         <f>Q27/Sheet1!D2-1</f>
-        <v>0.32093142032560196</v>
+        <v>0.41585449853296796</v>
       </c>
     </row>
     <row r="29" spans="1:98" x14ac:dyDescent="0.2">
@@ -2033,11 +2033,11 @@
         <v>12313</v>
       </c>
       <c r="C33" s="5">
-        <f t="shared" ref="C33:D33" si="54">C31-C32</f>
+        <f t="shared" ref="C33:D33" si="50">C31-C32</f>
         <v>6038</v>
       </c>
       <c r="D33" s="5">
-        <f t="shared" si="54"/>
+        <f t="shared" si="50"/>
         <v>4421</v>
       </c>
       <c r="E33" s="5">
@@ -2061,364 +2061,364 @@
         <v>5085.3580895953082</v>
       </c>
       <c r="J33" s="5">
-        <f t="shared" ref="J33:N33" si="55">J20*J34</f>
-        <v>5491.8785233807112</v>
+        <f t="shared" ref="J33:N33" si="51">J20*J34</f>
+        <v>5401.4466075317505</v>
       </c>
       <c r="K33" s="5">
-        <f t="shared" si="55"/>
-        <v>5922.9305254033507</v>
+        <f t="shared" si="51"/>
+        <v>5734.1629442602352</v>
       </c>
       <c r="L33" s="5">
-        <f t="shared" si="55"/>
-        <v>6379.8466976225727</v>
+        <f t="shared" si="51"/>
+        <v>6084.3475025257949</v>
       </c>
       <c r="M33" s="5">
-        <f t="shared" si="55"/>
-        <v>6864.028378724729</v>
+        <f t="shared" si="51"/>
+        <v>6452.8824742810857</v>
       </c>
       <c r="N33" s="5">
-        <f t="shared" si="55"/>
-        <v>7376.949088474872</v>
+        <f t="shared" si="51"/>
+        <v>6840.6938983030341</v>
       </c>
       <c r="O33" s="5">
-        <f t="shared" ref="O33:AT33" si="56">N33*(1+$Q$24)</f>
-        <v>7450.7185793596209</v>
+        <f t="shared" ref="O33:AT33" si="52">N33*(1+$Q$24)</f>
+        <v>6840.6938983030341</v>
       </c>
       <c r="P33" s="5">
-        <f t="shared" si="56"/>
-        <v>7525.2257651532173</v>
+        <f t="shared" si="52"/>
+        <v>6840.6938983030341</v>
       </c>
       <c r="Q33" s="5">
-        <f t="shared" si="56"/>
-        <v>7600.4780228047493</v>
+        <f t="shared" si="52"/>
+        <v>6840.6938983030341</v>
       </c>
       <c r="R33" s="5">
-        <f t="shared" si="56"/>
-        <v>7676.4828030327972</v>
+        <f t="shared" si="52"/>
+        <v>6840.6938983030341</v>
       </c>
       <c r="S33" s="5">
-        <f t="shared" si="56"/>
-        <v>7753.2476310631255</v>
+        <f t="shared" si="52"/>
+        <v>6840.6938983030341</v>
       </c>
       <c r="T33" s="5">
-        <f t="shared" si="56"/>
-        <v>7830.7801073737564</v>
+        <f t="shared" si="52"/>
+        <v>6840.6938983030341</v>
       </c>
       <c r="U33" s="5">
-        <f t="shared" si="56"/>
-        <v>7909.0879084474936</v>
+        <f t="shared" si="52"/>
+        <v>6840.6938983030341</v>
       </c>
       <c r="V33" s="5">
-        <f t="shared" si="56"/>
-        <v>7988.1787875319687</v>
+        <f t="shared" si="52"/>
+        <v>6840.6938983030341</v>
       </c>
       <c r="W33" s="5">
-        <f t="shared" si="56"/>
-        <v>8068.0605754072885</v>
+        <f t="shared" si="52"/>
+        <v>6840.6938983030341</v>
       </c>
       <c r="X33" s="5">
-        <f t="shared" si="56"/>
-        <v>8148.7411811613611</v>
+        <f t="shared" si="52"/>
+        <v>6840.6938983030341</v>
       </c>
       <c r="Y33" s="5">
-        <f t="shared" si="56"/>
-        <v>8230.2285929729751</v>
+        <f t="shared" si="52"/>
+        <v>6840.6938983030341</v>
       </c>
       <c r="Z33" s="5">
-        <f t="shared" si="56"/>
-        <v>8312.5308789027058</v>
+        <f t="shared" si="52"/>
+        <v>6840.6938983030341</v>
       </c>
       <c r="AA33" s="5">
-        <f t="shared" si="56"/>
-        <v>8395.6561876917331</v>
+        <f t="shared" si="52"/>
+        <v>6840.6938983030341</v>
       </c>
       <c r="AB33" s="5">
-        <f t="shared" si="56"/>
-        <v>8479.6127495686505</v>
+        <f t="shared" si="52"/>
+        <v>6840.6938983030341</v>
       </c>
       <c r="AC33" s="5">
-        <f t="shared" si="56"/>
-        <v>8564.4088770643375</v>
+        <f t="shared" si="52"/>
+        <v>6840.6938983030341</v>
       </c>
       <c r="AD33" s="5">
-        <f t="shared" si="56"/>
-        <v>8650.0529658349806</v>
+        <f t="shared" si="52"/>
+        <v>6840.6938983030341</v>
       </c>
       <c r="AE33" s="5">
-        <f t="shared" si="56"/>
-        <v>8736.55349549333</v>
+        <f t="shared" si="52"/>
+        <v>6840.6938983030341</v>
       </c>
       <c r="AF33" s="5">
-        <f t="shared" si="56"/>
-        <v>8823.9190304482636</v>
+        <f t="shared" si="52"/>
+        <v>6840.6938983030341</v>
       </c>
       <c r="AG33" s="5">
-        <f t="shared" si="56"/>
-        <v>8912.1582207527463</v>
+        <f t="shared" si="52"/>
+        <v>6840.6938983030341</v>
       </c>
       <c r="AH33" s="5">
-        <f t="shared" si="56"/>
-        <v>9001.2798029602745</v>
+        <f t="shared" si="52"/>
+        <v>6840.6938983030341</v>
       </c>
       <c r="AI33" s="5">
-        <f t="shared" si="56"/>
-        <v>9091.2926009898765</v>
+        <f t="shared" si="52"/>
+        <v>6840.6938983030341</v>
       </c>
       <c r="AJ33" s="5">
-        <f t="shared" si="56"/>
-        <v>9182.2055269997745</v>
+        <f t="shared" si="52"/>
+        <v>6840.6938983030341</v>
       </c>
       <c r="AK33" s="5">
-        <f t="shared" si="56"/>
-        <v>9274.0275822697731</v>
+        <f t="shared" si="52"/>
+        <v>6840.6938983030341</v>
       </c>
       <c r="AL33" s="5">
-        <f t="shared" si="56"/>
-        <v>9366.7678580924712</v>
+        <f t="shared" si="52"/>
+        <v>6840.6938983030341</v>
       </c>
       <c r="AM33" s="5">
-        <f t="shared" si="56"/>
-        <v>9460.4355366733962</v>
+        <f t="shared" si="52"/>
+        <v>6840.6938983030341</v>
       </c>
       <c r="AN33" s="5">
-        <f t="shared" si="56"/>
-        <v>9555.0398920401294</v>
+        <f t="shared" si="52"/>
+        <v>6840.6938983030341</v>
       </c>
       <c r="AO33" s="5">
-        <f t="shared" si="56"/>
-        <v>9650.5902909605302</v>
+        <f t="shared" si="52"/>
+        <v>6840.6938983030341</v>
       </c>
       <c r="AP33" s="5">
-        <f t="shared" si="56"/>
-        <v>9747.0961938701348</v>
+        <f t="shared" si="52"/>
+        <v>6840.6938983030341</v>
       </c>
       <c r="AQ33" s="5">
-        <f t="shared" si="56"/>
-        <v>9844.5671558088361</v>
+        <f t="shared" si="52"/>
+        <v>6840.6938983030341</v>
       </c>
       <c r="AR33" s="5">
-        <f t="shared" si="56"/>
-        <v>9943.0128273669252</v>
+        <f t="shared" si="52"/>
+        <v>6840.6938983030341</v>
       </c>
       <c r="AS33" s="5">
-        <f t="shared" si="56"/>
-        <v>10042.442955640594</v>
+        <f t="shared" si="52"/>
+        <v>6840.6938983030341</v>
       </c>
       <c r="AT33" s="5">
-        <f t="shared" si="56"/>
-        <v>10142.867385197</v>
+        <f t="shared" si="52"/>
+        <v>6840.6938983030341</v>
       </c>
       <c r="AU33" s="5">
-        <f t="shared" ref="AU33:BZ33" si="57">AT33*(1+$Q$24)</f>
-        <v>10244.296059048969</v>
+        <f t="shared" ref="AU33:BZ33" si="53">AT33*(1+$Q$24)</f>
+        <v>6840.6938983030341</v>
       </c>
       <c r="AV33" s="5">
-        <f t="shared" si="57"/>
-        <v>10346.739019639459</v>
+        <f t="shared" si="53"/>
+        <v>6840.6938983030341</v>
       </c>
       <c r="AW33" s="5">
-        <f t="shared" si="57"/>
-        <v>10450.206409835853</v>
+        <f t="shared" si="53"/>
+        <v>6840.6938983030341</v>
       </c>
       <c r="AX33" s="5">
-        <f t="shared" si="57"/>
-        <v>10554.708473934212</v>
+        <f t="shared" si="53"/>
+        <v>6840.6938983030341</v>
       </c>
       <c r="AY33" s="5">
-        <f t="shared" si="57"/>
-        <v>10660.255558673554</v>
+        <f t="shared" si="53"/>
+        <v>6840.6938983030341</v>
       </c>
       <c r="AZ33" s="5">
-        <f t="shared" si="57"/>
-        <v>10766.858114260291</v>
+        <f t="shared" si="53"/>
+        <v>6840.6938983030341</v>
       </c>
       <c r="BA33" s="5">
-        <f t="shared" si="57"/>
-        <v>10874.526695402894</v>
+        <f t="shared" si="53"/>
+        <v>6840.6938983030341</v>
       </c>
       <c r="BB33" s="5">
-        <f t="shared" si="57"/>
-        <v>10983.271962356923</v>
+        <f t="shared" si="53"/>
+        <v>6840.6938983030341</v>
       </c>
       <c r="BC33" s="5">
-        <f t="shared" si="57"/>
-        <v>11093.104681980492</v>
+        <f t="shared" si="53"/>
+        <v>6840.6938983030341</v>
       </c>
       <c r="BD33" s="5">
-        <f t="shared" si="57"/>
-        <v>11204.035728800298</v>
+        <f t="shared" si="53"/>
+        <v>6840.6938983030341</v>
       </c>
       <c r="BE33" s="5">
-        <f t="shared" si="57"/>
-        <v>11316.0760860883</v>
+        <f t="shared" si="53"/>
+        <v>6840.6938983030341</v>
       </c>
       <c r="BF33" s="5">
-        <f t="shared" si="57"/>
-        <v>11429.236846949183</v>
+        <f t="shared" si="53"/>
+        <v>6840.6938983030341</v>
       </c>
       <c r="BG33" s="5">
-        <f t="shared" si="57"/>
-        <v>11543.529215418675</v>
+        <f t="shared" si="53"/>
+        <v>6840.6938983030341</v>
       </c>
       <c r="BH33" s="5">
-        <f t="shared" si="57"/>
-        <v>11658.964507572862</v>
+        <f t="shared" si="53"/>
+        <v>6840.6938983030341</v>
       </c>
       <c r="BI33" s="5">
-        <f t="shared" si="57"/>
-        <v>11775.55415264859</v>
+        <f t="shared" si="53"/>
+        <v>6840.6938983030341</v>
       </c>
       <c r="BJ33" s="5">
-        <f t="shared" si="57"/>
-        <v>11893.309694175075</v>
+        <f t="shared" si="53"/>
+        <v>6840.6938983030341</v>
       </c>
       <c r="BK33" s="5">
-        <f t="shared" si="57"/>
-        <v>12012.242791116827</v>
+        <f t="shared" si="53"/>
+        <v>6840.6938983030341</v>
       </c>
       <c r="BL33" s="5">
-        <f t="shared" si="57"/>
-        <v>12132.365219027995</v>
+        <f t="shared" si="53"/>
+        <v>6840.6938983030341</v>
       </c>
       <c r="BM33" s="5">
-        <f t="shared" si="57"/>
-        <v>12253.688871218275</v>
+        <f t="shared" si="53"/>
+        <v>6840.6938983030341</v>
       </c>
       <c r="BN33" s="5">
-        <f t="shared" si="57"/>
-        <v>12376.225759930458</v>
+        <f t="shared" si="53"/>
+        <v>6840.6938983030341</v>
       </c>
       <c r="BO33" s="5">
-        <f t="shared" si="57"/>
-        <v>12499.988017529762</v>
+        <f t="shared" si="53"/>
+        <v>6840.6938983030341</v>
       </c>
       <c r="BP33" s="5">
-        <f t="shared" si="57"/>
-        <v>12624.987897705059</v>
+        <f t="shared" si="53"/>
+        <v>6840.6938983030341</v>
       </c>
       <c r="BQ33" s="5">
-        <f t="shared" si="57"/>
-        <v>12751.23777668211</v>
+        <f t="shared" si="53"/>
+        <v>6840.6938983030341</v>
       </c>
       <c r="BR33" s="5">
-        <f t="shared" si="57"/>
-        <v>12878.750154448931</v>
+        <f t="shared" si="53"/>
+        <v>6840.6938983030341</v>
       </c>
       <c r="BS33" s="5">
-        <f t="shared" si="57"/>
-        <v>13007.537655993421</v>
+        <f t="shared" si="53"/>
+        <v>6840.6938983030341</v>
       </c>
       <c r="BT33" s="5">
-        <f t="shared" si="57"/>
-        <v>13137.613032553356</v>
+        <f t="shared" si="53"/>
+        <v>6840.6938983030341</v>
       </c>
       <c r="BU33" s="5">
-        <f t="shared" si="57"/>
-        <v>13268.98916287889</v>
+        <f t="shared" si="53"/>
+        <v>6840.6938983030341</v>
       </c>
       <c r="BV33" s="5">
-        <f t="shared" si="57"/>
-        <v>13401.679054507678</v>
+        <f t="shared" si="53"/>
+        <v>6840.6938983030341</v>
       </c>
       <c r="BW33" s="5">
-        <f t="shared" si="57"/>
-        <v>13535.695845052755</v>
+        <f t="shared" si="53"/>
+        <v>6840.6938983030341</v>
       </c>
       <c r="BX33" s="5">
-        <f t="shared" si="57"/>
-        <v>13671.052803503282</v>
+        <f t="shared" si="53"/>
+        <v>6840.6938983030341</v>
       </c>
       <c r="BY33" s="5">
-        <f t="shared" si="57"/>
-        <v>13807.763331538315</v>
+        <f t="shared" si="53"/>
+        <v>6840.6938983030341</v>
       </c>
       <c r="BZ33" s="5">
-        <f t="shared" si="57"/>
-        <v>13945.840964853698</v>
+        <f t="shared" si="53"/>
+        <v>6840.6938983030341</v>
       </c>
       <c r="CA33" s="5">
-        <f t="shared" ref="CA33:CU33" si="58">BZ33*(1+$Q$24)</f>
-        <v>14085.299374502236</v>
+        <f t="shared" ref="CA33:CU33" si="54">BZ33*(1+$Q$24)</f>
+        <v>6840.6938983030341</v>
       </c>
       <c r="CB33" s="5">
-        <f t="shared" si="58"/>
-        <v>14226.152368247258</v>
+        <f t="shared" si="54"/>
+        <v>6840.6938983030341</v>
       </c>
       <c r="CC33" s="5">
-        <f t="shared" si="58"/>
-        <v>14368.413891929731</v>
+        <f t="shared" si="54"/>
+        <v>6840.6938983030341</v>
       </c>
       <c r="CD33" s="5">
-        <f t="shared" si="58"/>
-        <v>14512.098030849029</v>
+        <f t="shared" si="54"/>
+        <v>6840.6938983030341</v>
       </c>
       <c r="CE33" s="5">
-        <f t="shared" si="58"/>
-        <v>14657.21901115752</v>
+        <f t="shared" si="54"/>
+        <v>6840.6938983030341</v>
       </c>
       <c r="CF33" s="5">
-        <f t="shared" si="58"/>
-        <v>14803.791201269096</v>
+        <f t="shared" si="54"/>
+        <v>6840.6938983030341</v>
       </c>
       <c r="CG33" s="5">
-        <f t="shared" si="58"/>
-        <v>14951.829113281787</v>
+        <f t="shared" si="54"/>
+        <v>6840.6938983030341</v>
       </c>
       <c r="CH33" s="5">
-        <f t="shared" si="58"/>
-        <v>15101.347404414604</v>
+        <f t="shared" si="54"/>
+        <v>6840.6938983030341</v>
       </c>
       <c r="CI33" s="5">
-        <f t="shared" si="58"/>
-        <v>15252.36087845875</v>
+        <f t="shared" si="54"/>
+        <v>6840.6938983030341</v>
       </c>
       <c r="CJ33" s="5">
-        <f t="shared" si="58"/>
-        <v>15404.884487243338</v>
+        <f t="shared" si="54"/>
+        <v>6840.6938983030341</v>
       </c>
       <c r="CK33" s="5">
-        <f t="shared" si="58"/>
-        <v>15558.933332115772</v>
+        <f t="shared" si="54"/>
+        <v>6840.6938983030341</v>
       </c>
       <c r="CL33" s="5">
-        <f t="shared" si="58"/>
-        <v>15714.522665436929</v>
+        <f t="shared" si="54"/>
+        <v>6840.6938983030341</v>
       </c>
       <c r="CM33" s="5">
-        <f t="shared" si="58"/>
-        <v>15871.667892091298</v>
+        <f t="shared" si="54"/>
+        <v>6840.6938983030341</v>
       </c>
       <c r="CN33" s="5">
-        <f t="shared" si="58"/>
-        <v>16030.384571012211</v>
+        <f t="shared" si="54"/>
+        <v>6840.6938983030341</v>
       </c>
       <c r="CO33" s="5">
-        <f t="shared" si="58"/>
-        <v>16190.688416722334</v>
+        <f t="shared" si="54"/>
+        <v>6840.6938983030341</v>
       </c>
       <c r="CP33" s="5">
-        <f t="shared" si="58"/>
-        <v>16352.595300889558</v>
+        <f t="shared" si="54"/>
+        <v>6840.6938983030341</v>
       </c>
       <c r="CQ33" s="5">
-        <f t="shared" si="58"/>
-        <v>16516.121253898455</v>
+        <f t="shared" si="54"/>
+        <v>6840.6938983030341</v>
       </c>
       <c r="CR33" s="5">
-        <f t="shared" si="58"/>
-        <v>16681.282466437438</v>
+        <f t="shared" si="54"/>
+        <v>6840.6938983030341</v>
       </c>
       <c r="CS33" s="5">
-        <f t="shared" si="58"/>
-        <v>16848.095291101814</v>
+        <f t="shared" si="54"/>
+        <v>6840.6938983030341</v>
       </c>
       <c r="CT33" s="5">
-        <f t="shared" si="58"/>
-        <v>17016.576244012831</v>
+        <f t="shared" si="54"/>
+        <v>6840.6938983030341</v>
       </c>
       <c r="CU33" s="5">
-        <f t="shared" si="58"/>
-        <v>17186.742006452958</v>
+        <f t="shared" si="54"/>
+        <v>6840.6938983030341</v>
       </c>
     </row>
     <row r="34" spans="1:99" x14ac:dyDescent="0.2">
@@ -2507,24 +2507,24 @@
         <v>1386.3949007394986</v>
       </c>
       <c r="J36" s="3">
-        <f t="shared" ref="J36:N36" si="59">I36+J20</f>
-        <v>7488.4821489402884</v>
+        <f t="shared" ref="J36:N36" si="55">I36+J20</f>
+        <v>7388.0022424414437</v>
       </c>
       <c r="K36" s="3">
-        <f t="shared" si="59"/>
-        <v>14069.516066055123</v>
+        <f t="shared" si="55"/>
+        <v>13759.294402730593</v>
       </c>
       <c r="L36" s="3">
-        <f t="shared" si="59"/>
-        <v>21158.234618969094</v>
+        <f t="shared" si="55"/>
+        <v>20519.680516648143</v>
       </c>
       <c r="M36" s="3">
-        <f t="shared" si="59"/>
-        <v>28784.932817552126</v>
+        <f t="shared" si="55"/>
+        <v>27689.549932516016</v>
       </c>
       <c r="N36" s="3">
-        <f t="shared" si="59"/>
-        <v>36981.542915857543</v>
+        <f t="shared" si="55"/>
+        <v>35290.3209306305</v>
       </c>
     </row>
     <row r="38" spans="1:99" x14ac:dyDescent="0.2">

--- a/OXY.xlsx
+++ b/OXY.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9BBE9F2-CAED-423D-AA20-B52635B40D9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80C02C2C-2518-42E4-99D0-CCA9F92A95D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="645" yWindow="780" windowWidth="23670" windowHeight="14145" activeTab="1" xr2:uid="{08012682-0F50-4229-84EC-14421E66CA3F}"/>
+    <workbookView xWindow="795" yWindow="465" windowWidth="19425" windowHeight="14595" activeTab="1" xr2:uid="{08012682-0F50-4229-84EC-14421E66CA3F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -621,7 +621,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -636,7 +636,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="2">
-        <v>42</v>
+        <v>41.5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -656,7 +656,7 @@
       </c>
       <c r="D4" s="2">
         <f>D2*D3</f>
-        <v>39417</v>
+        <v>38947.75</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -687,7 +687,7 @@
       </c>
       <c r="D7" s="2">
         <f>D4+D6-D5</f>
-        <v>62263</v>
+        <v>61793.75</v>
       </c>
     </row>
   </sheetData>
@@ -703,7 +703,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R27" sqref="R27"/>
+      <selection pane="bottomRight" activeCell="Q25" sqref="Q25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1988,7 +1988,7 @@
       </c>
       <c r="Q28" s="6">
         <f>Q27/Sheet1!D2-1</f>
-        <v>0.41585449853296796</v>
+        <v>0.43291298646710019</v>
       </c>
     </row>
     <row r="29" spans="1:98" x14ac:dyDescent="0.2">

--- a/OXY.xlsx
+++ b/OXY.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{624B0269-9CC5-432E-A697-AE3F5999E9AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA0C5614-D979-4E96-82C3-D5E37685600B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="285" windowWidth="21945" windowHeight="14610" activeTab="1" xr2:uid="{08012682-0F50-4229-84EC-14421E66CA3F}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21945" windowHeight="13935" activeTab="1" xr2:uid="{08012682-0F50-4229-84EC-14421E66CA3F}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="41">
   <si>
     <t>Price</t>
   </si>
@@ -156,23 +156,29 @@
     <t>NPV</t>
   </si>
   <si>
-    <t>Diff</t>
-  </si>
-  <si>
     <t>Main</t>
+  </si>
+  <si>
+    <t>Share</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -215,19 +221,21 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -620,8 +628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E39E9A49-802E-4E87-81BC-A60DBADF9707}">
   <dimension ref="A1:P7"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C34" sqref="C33:C34"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -636,8 +644,8 @@
       <c r="N2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="O2" s="3">
-        <v>45</v>
+      <c r="O2" s="10">
+        <v>42.5</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
@@ -657,7 +665,7 @@
       </c>
       <c r="O4" s="3">
         <f>O2*O3</f>
-        <v>42232.5</v>
+        <v>39886.25</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
@@ -688,7 +696,7 @@
       </c>
       <c r="O7" s="3">
         <f>O4+O6-O5</f>
-        <v>65078.5</v>
+        <v>62732.25</v>
       </c>
     </row>
   </sheetData>
@@ -701,10 +709,10 @@
   <dimension ref="A1:CV39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="H12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="L9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R28" sqref="R28"/>
+      <selection pane="bottomRight" activeCell="S26" sqref="S26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -716,7 +724,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
@@ -786,44 +794,44 @@
         <v>26725</v>
       </c>
       <c r="F3" s="5">
-        <f>E3*1.03</f>
-        <v>27526.75</v>
+        <f>E3*1.01</f>
+        <v>26992.25</v>
       </c>
       <c r="G3" s="5">
-        <f t="shared" ref="G3:I3" si="6">F3*1.03</f>
-        <v>28352.552500000002</v>
+        <f t="shared" ref="G3:O3" si="6">F3*1.01</f>
+        <v>27262.172500000001</v>
       </c>
       <c r="H3" s="5">
         <f t="shared" si="6"/>
-        <v>29203.129075000001</v>
+        <v>27534.794225000001</v>
       </c>
       <c r="I3" s="5">
         <f t="shared" si="6"/>
-        <v>30079.22294725</v>
+        <v>27810.14216725</v>
       </c>
       <c r="J3" s="5">
-        <f t="shared" ref="J3" si="7">I3*1.03</f>
-        <v>30981.599635667502</v>
+        <f t="shared" si="6"/>
+        <v>28088.243588922502</v>
       </c>
       <c r="K3" s="5">
-        <f>J3*1.01</f>
-        <v>31291.415632024178</v>
+        <f t="shared" si="6"/>
+        <v>28369.126024811729</v>
       </c>
       <c r="L3" s="5">
-        <f t="shared" ref="L3:O3" si="8">K3*1.01</f>
-        <v>31604.329788344421</v>
+        <f t="shared" si="6"/>
+        <v>28652.817285059846</v>
       </c>
       <c r="M3" s="5">
-        <f t="shared" si="8"/>
-        <v>31920.373086227864</v>
+        <f t="shared" si="6"/>
+        <v>28939.345457910444</v>
       </c>
       <c r="N3" s="5">
-        <f t="shared" si="8"/>
-        <v>32239.576817090143</v>
+        <f t="shared" si="6"/>
+        <v>29228.738912489549</v>
       </c>
       <c r="O3" s="5">
-        <f t="shared" si="8"/>
-        <v>32561.972585261046</v>
+        <f t="shared" si="6"/>
+        <v>29521.026301614445</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
@@ -891,52 +899,52 @@
         <v>12063</v>
       </c>
       <c r="D8" s="3">
-        <f t="shared" ref="D8:E8" si="9">SUM(D4:D7)</f>
+        <f t="shared" ref="D8:E8" si="7">SUM(D4:D7)</f>
         <v>11283</v>
       </c>
       <c r="E8" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>9804</v>
       </c>
       <c r="F8" s="3">
-        <f>F3*(1-F27)</f>
-        <v>10460.165000000001</v>
+        <f t="shared" ref="F8:O8" si="8">F3*(1-F27)</f>
+        <v>10257.055</v>
       </c>
       <c r="G8" s="3">
-        <f>G3*(1-G27)</f>
-        <v>10773.969950000001</v>
+        <f t="shared" si="8"/>
+        <v>10359.625550000001</v>
       </c>
       <c r="H8" s="3">
-        <f>H3*(1-H27)</f>
-        <v>11097.1890485</v>
+        <f t="shared" si="8"/>
+        <v>10463.221805500001</v>
       </c>
       <c r="I8" s="3">
-        <f>I3*(1-I27)</f>
-        <v>11430.104719954999</v>
+        <f t="shared" si="8"/>
+        <v>10567.854023555001</v>
       </c>
       <c r="J8" s="3">
-        <f>J3*(1-J27)</f>
-        <v>11773.007861553651</v>
+        <f t="shared" si="8"/>
+        <v>10673.532563790552</v>
       </c>
       <c r="K8" s="3">
-        <f>K3*(1-K27)</f>
-        <v>11890.737940169189</v>
+        <f t="shared" si="8"/>
+        <v>10780.267889428456</v>
       </c>
       <c r="L8" s="3">
-        <f>L3*(1-L27)</f>
-        <v>12009.64531957088</v>
+        <f t="shared" si="8"/>
+        <v>10888.070568322741</v>
       </c>
       <c r="M8" s="3">
-        <f>M3*(1-M27)</f>
-        <v>12129.741772766589</v>
+        <f t="shared" si="8"/>
+        <v>10996.951274005969</v>
       </c>
       <c r="N8" s="3">
-        <f>N3*(1-N27)</f>
-        <v>12251.039190494255</v>
+        <f t="shared" si="8"/>
+        <v>11106.920786746028</v>
       </c>
       <c r="O8" s="3">
-        <f>O3*(1-O27)</f>
-        <v>12373.549582399197</v>
+        <f t="shared" si="8"/>
+        <v>11217.98999461349</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
@@ -948,52 +956,52 @@
         <v>24571</v>
       </c>
       <c r="D9" s="3">
-        <f t="shared" ref="D9:E9" si="10">D3-D8</f>
+        <f t="shared" ref="D9:E9" si="9">D3-D8</f>
         <v>16974</v>
       </c>
       <c r="E9" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>16921</v>
       </c>
       <c r="F9" s="3">
-        <f t="shared" ref="F9" si="11">F3-F8</f>
-        <v>17066.584999999999</v>
+        <f t="shared" ref="F9" si="10">F3-F8</f>
+        <v>16735.195</v>
       </c>
       <c r="G9" s="3">
-        <f t="shared" ref="G9" si="12">G3-G8</f>
-        <v>17578.582549999999</v>
+        <f t="shared" ref="G9" si="11">G3-G8</f>
+        <v>16902.54695</v>
       </c>
       <c r="H9" s="3">
-        <f t="shared" ref="H9" si="13">H3-H8</f>
-        <v>18105.9400265</v>
+        <f t="shared" ref="H9" si="12">H3-H8</f>
+        <v>17071.5724195</v>
       </c>
       <c r="I9" s="3">
-        <f t="shared" ref="I9" si="14">I3-I8</f>
-        <v>18649.118227295003</v>
+        <f t="shared" ref="I9" si="13">I3-I8</f>
+        <v>17242.288143694997</v>
       </c>
       <c r="J9" s="3">
-        <f t="shared" ref="J9:O9" si="15">J3-J8</f>
-        <v>19208.591774113851</v>
+        <f t="shared" ref="J9:O9" si="14">J3-J8</f>
+        <v>17414.71102513195</v>
       </c>
       <c r="K9" s="3">
-        <f t="shared" si="15"/>
-        <v>19400.677691854988</v>
+        <f t="shared" si="14"/>
+        <v>17588.858135383271</v>
       </c>
       <c r="L9" s="3">
-        <f t="shared" si="15"/>
-        <v>19594.684468773543</v>
+        <f t="shared" si="14"/>
+        <v>17764.746716737107</v>
       </c>
       <c r="M9" s="3">
-        <f t="shared" si="15"/>
-        <v>19790.631313461276</v>
+        <f t="shared" si="14"/>
+        <v>17942.394183904475</v>
       </c>
       <c r="N9" s="3">
-        <f t="shared" si="15"/>
-        <v>19988.537626595888</v>
+        <f t="shared" si="14"/>
+        <v>18121.818125743521</v>
       </c>
       <c r="O9" s="3">
-        <f t="shared" si="15"/>
-        <v>20188.423002861848</v>
+        <f t="shared" si="14"/>
+        <v>18303.036307000955</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
@@ -1075,52 +1083,52 @@
         <v>10629</v>
       </c>
       <c r="D15" s="3">
-        <f t="shared" ref="D15:E15" si="16">SUM(D10:D14)</f>
+        <f t="shared" ref="D15:E15" si="15">SUM(D10:D14)</f>
         <v>10557</v>
       </c>
       <c r="E15" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>11351</v>
       </c>
       <c r="F15" s="3">
         <f>E15*(1+F25)</f>
-        <v>11691.53</v>
+        <v>11464.51</v>
       </c>
       <c r="G15" s="3">
-        <f t="shared" ref="G15:J15" si="17">F15*(1+G25)</f>
-        <v>12042.275900000001</v>
+        <f t="shared" ref="G15:J15" si="16">F15*(1+G25)</f>
+        <v>11579.1551</v>
       </c>
       <c r="H15" s="3">
-        <f t="shared" si="17"/>
-        <v>12403.544177000002</v>
+        <f t="shared" si="16"/>
+        <v>11694.946651</v>
       </c>
       <c r="I15" s="3">
-        <f t="shared" si="17"/>
-        <v>12775.650502310002</v>
+        <f t="shared" si="16"/>
+        <v>11811.896117510001</v>
       </c>
       <c r="J15" s="3">
-        <f t="shared" si="17"/>
-        <v>13158.920017379301</v>
+        <f t="shared" si="16"/>
+        <v>11930.015078685101</v>
       </c>
       <c r="K15" s="3">
-        <f t="shared" ref="K15" si="18">J15*(1+K25)</f>
-        <v>13290.509217553095</v>
+        <f t="shared" ref="K15" si="17">J15*(1+K25)</f>
+        <v>12049.315229471951</v>
       </c>
       <c r="L15" s="3">
-        <f t="shared" ref="L15" si="19">K15*(1+L25)</f>
-        <v>13423.414309728627</v>
+        <f t="shared" ref="L15" si="18">K15*(1+L25)</f>
+        <v>12169.80838176667</v>
       </c>
       <c r="M15" s="3">
-        <f t="shared" ref="M15" si="20">L15*(1+M25)</f>
-        <v>13557.648452825913</v>
+        <f t="shared" ref="M15" si="19">L15*(1+M25)</f>
+        <v>12291.506465584336</v>
       </c>
       <c r="N15" s="3">
-        <f t="shared" ref="N15" si="21">M15*(1+N25)</f>
-        <v>13693.224937354173</v>
+        <f t="shared" ref="N15" si="20">M15*(1+N25)</f>
+        <v>12414.421530240179</v>
       </c>
       <c r="O15" s="3">
-        <f t="shared" ref="O15" si="22">N15*(1+O25)</f>
-        <v>13830.157186727714</v>
+        <f t="shared" ref="O15" si="21">N15*(1+O25)</f>
+        <v>12538.565745542581</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
@@ -1132,52 +1140,52 @@
         <v>13942</v>
       </c>
       <c r="D16" s="3">
-        <f t="shared" ref="D16:J16" si="23">D9-D15</f>
+        <f t="shared" ref="D16:J16" si="22">D9-D15</f>
         <v>6417</v>
       </c>
       <c r="E16" s="3">
+        <f t="shared" si="22"/>
+        <v>5570</v>
+      </c>
+      <c r="F16" s="3">
+        <f t="shared" si="22"/>
+        <v>5270.6849999999995</v>
+      </c>
+      <c r="G16" s="3">
+        <f t="shared" si="22"/>
+        <v>5323.39185</v>
+      </c>
+      <c r="H16" s="3">
+        <f t="shared" si="22"/>
+        <v>5376.6257685</v>
+      </c>
+      <c r="I16" s="3">
+        <f t="shared" si="22"/>
+        <v>5430.3920261849962</v>
+      </c>
+      <c r="J16" s="3">
+        <f t="shared" si="22"/>
+        <v>5484.6959464468491</v>
+      </c>
+      <c r="K16" s="3">
+        <f t="shared" ref="K16:O16" si="23">K9-K15</f>
+        <v>5539.5429059113194</v>
+      </c>
+      <c r="L16" s="3">
         <f t="shared" si="23"/>
-        <v>5570</v>
-      </c>
-      <c r="F16" s="3">
+        <v>5594.9383349704367</v>
+      </c>
+      <c r="M16" s="3">
         <f t="shared" si="23"/>
-        <v>5375.0549999999985</v>
-      </c>
-      <c r="G16" s="3">
+        <v>5650.8877183201384</v>
+      </c>
+      <c r="N16" s="3">
         <f t="shared" si="23"/>
-        <v>5536.3066499999986</v>
-      </c>
-      <c r="H16" s="3">
+        <v>5707.3965955033418</v>
+      </c>
+      <c r="O16" s="3">
         <f t="shared" si="23"/>
-        <v>5702.3958494999988</v>
-      </c>
-      <c r="I16" s="3">
-        <f t="shared" si="23"/>
-        <v>5873.467724985001</v>
-      </c>
-      <c r="J16" s="3">
-        <f t="shared" si="23"/>
-        <v>6049.6717567345495</v>
-      </c>
-      <c r="K16" s="3">
-        <f t="shared" ref="K16:O16" si="24">K9-K15</f>
-        <v>6110.1684743018923</v>
-      </c>
-      <c r="L16" s="3">
-        <f t="shared" si="24"/>
-        <v>6171.270159044916</v>
-      </c>
-      <c r="M16" s="3">
-        <f t="shared" si="24"/>
-        <v>6232.9828606353622</v>
-      </c>
-      <c r="N16" s="3">
-        <f t="shared" si="24"/>
-        <v>6295.3126892417149</v>
-      </c>
-      <c r="O16" s="3">
-        <f t="shared" si="24"/>
-        <v>6358.2658161341333</v>
+        <v>5764.4705614583745</v>
       </c>
     </row>
     <row r="17" spans="2:99" x14ac:dyDescent="0.2">
@@ -1198,40 +1206,40 @@
         <v>-456.92</v>
       </c>
       <c r="G17" s="3">
-        <f t="shared" ref="G17:O17" si="25">F35*$R$25</f>
-        <v>-363.88616000000002</v>
+        <f t="shared" ref="G17:O17" si="24">F35*$R$25</f>
+        <v>-365.55608000000001</v>
       </c>
       <c r="H17" s="3">
-        <f t="shared" si="25"/>
-        <v>-266.21000496000005</v>
+        <f t="shared" si="24"/>
+        <v>-271.31328048</v>
       </c>
       <c r="I17" s="3">
-        <f t="shared" si="25"/>
-        <v>-163.71690715936006</v>
+        <f t="shared" si="24"/>
+        <v>-174.11415638368001</v>
       </c>
       <c r="J17" s="3">
-        <f t="shared" si="25"/>
-        <v>-56.226204814629781</v>
+        <f t="shared" si="24"/>
+        <v>-73.879021207338951</v>
       </c>
       <c r="K17" s="3">
-        <f t="shared" si="25"/>
-        <v>56.449000845989723</v>
+        <f t="shared" si="24"/>
+        <v>29.474126426394015</v>
       </c>
       <c r="L17" s="3">
-        <f t="shared" si="25"/>
-        <v>172.56616035145268</v>
+        <f t="shared" si="24"/>
+        <v>136.02967884689426</v>
       </c>
       <c r="M17" s="3">
-        <f t="shared" si="25"/>
-        <v>292.21687256101529</v>
+        <f t="shared" si="24"/>
+        <v>245.87449816719229</v>
       </c>
       <c r="N17" s="3">
-        <f t="shared" si="25"/>
-        <v>415.49537263534688</v>
+        <f t="shared" si="24"/>
+        <v>359.09799797417918</v>
       </c>
       <c r="O17" s="3">
-        <f t="shared" si="25"/>
-        <v>542.498618142297</v>
+        <f t="shared" si="24"/>
+        <v>475.79222798673663</v>
       </c>
     </row>
     <row r="18" spans="2:99" x14ac:dyDescent="0.2">
@@ -1252,39 +1260,39 @@
         <v>896.48</v>
       </c>
       <c r="G18" s="3">
-        <f t="shared" ref="G18:J18" si="26">F18*1.04</f>
+        <f t="shared" ref="G18:J18" si="25">F18*1.04</f>
         <v>932.33920000000001</v>
       </c>
       <c r="H18" s="3">
+        <f t="shared" si="25"/>
+        <v>969.63276800000006</v>
+      </c>
+      <c r="I18" s="3">
+        <f t="shared" si="25"/>
+        <v>1008.41807872</v>
+      </c>
+      <c r="J18" s="3">
+        <f t="shared" si="25"/>
+        <v>1048.7548018688001</v>
+      </c>
+      <c r="K18" s="3">
+        <f t="shared" ref="K18:O18" si="26">J18*1.04</f>
+        <v>1090.7049939435522</v>
+      </c>
+      <c r="L18" s="3">
         <f t="shared" si="26"/>
-        <v>969.63276800000006</v>
-      </c>
-      <c r="I18" s="3">
+        <v>1134.3331937012942</v>
+      </c>
+      <c r="M18" s="3">
         <f t="shared" si="26"/>
-        <v>1008.41807872</v>
-      </c>
-      <c r="J18" s="3">
+        <v>1179.7065214493462</v>
+      </c>
+      <c r="N18" s="3">
         <f t="shared" si="26"/>
-        <v>1048.7548018688001</v>
-      </c>
-      <c r="K18" s="3">
-        <f t="shared" ref="K18:O18" si="27">J18*1.04</f>
-        <v>1090.7049939435522</v>
-      </c>
-      <c r="L18" s="3">
-        <f t="shared" si="27"/>
-        <v>1134.3331937012942</v>
-      </c>
-      <c r="M18" s="3">
-        <f t="shared" si="27"/>
-        <v>1179.7065214493462</v>
-      </c>
-      <c r="N18" s="3">
-        <f t="shared" si="27"/>
         <v>1226.8947823073202</v>
       </c>
       <c r="O18" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>1275.9705735996131</v>
       </c>
     </row>
@@ -1297,52 +1305,52 @@
         <v>13705</v>
       </c>
       <c r="D19" s="3">
-        <f t="shared" ref="D19:J19" si="28">D16+SUM(D17:D18)</f>
+        <f t="shared" ref="D19:J19" si="27">D16+SUM(D17:D18)</f>
         <v>6006</v>
       </c>
       <c r="E19" s="3">
+        <f t="shared" si="27"/>
+        <v>5257</v>
+      </c>
+      <c r="F19" s="3">
+        <f t="shared" si="27"/>
+        <v>5710.2449999999999</v>
+      </c>
+      <c r="G19" s="3">
+        <f t="shared" si="27"/>
+        <v>5890.17497</v>
+      </c>
+      <c r="H19" s="3">
+        <f t="shared" si="27"/>
+        <v>6074.9452560199998</v>
+      </c>
+      <c r="I19" s="3">
+        <f t="shared" si="27"/>
+        <v>6264.6959485213165</v>
+      </c>
+      <c r="J19" s="3">
+        <f t="shared" si="27"/>
+        <v>6459.5717271083104</v>
+      </c>
+      <c r="K19" s="3">
+        <f t="shared" ref="K19:O19" si="28">K16+SUM(K17:K18)</f>
+        <v>6659.7220262812652</v>
+      </c>
+      <c r="L19" s="3">
         <f t="shared" si="28"/>
-        <v>5257</v>
-      </c>
-      <c r="F19" s="3">
+        <v>6865.3012075186252</v>
+      </c>
+      <c r="M19" s="3">
         <f t="shared" si="28"/>
-        <v>5814.6149999999989</v>
-      </c>
-      <c r="G19" s="3">
+        <v>7076.4687379366769</v>
+      </c>
+      <c r="N19" s="3">
         <f t="shared" si="28"/>
-        <v>6104.759689999999</v>
-      </c>
-      <c r="H19" s="3">
+        <v>7293.3893757848409</v>
+      </c>
+      <c r="O19" s="3">
         <f t="shared" si="28"/>
-        <v>6405.8186125399989</v>
-      </c>
-      <c r="I19" s="3">
-        <f t="shared" si="28"/>
-        <v>6718.1688965456415</v>
-      </c>
-      <c r="J19" s="3">
-        <f t="shared" si="28"/>
-        <v>7042.2003537887194</v>
-      </c>
-      <c r="K19" s="3">
-        <f t="shared" ref="K19:O19" si="29">K16+SUM(K17:K18)</f>
-        <v>7257.322469091434</v>
-      </c>
-      <c r="L19" s="3">
-        <f t="shared" si="29"/>
-        <v>7478.1695130976632</v>
-      </c>
-      <c r="M19" s="3">
-        <f t="shared" si="29"/>
-        <v>7704.9062546457235</v>
-      </c>
-      <c r="N19" s="3">
-        <f t="shared" si="29"/>
-        <v>7937.7028441843822</v>
-      </c>
-      <c r="O19" s="3">
-        <f t="shared" si="29"/>
-        <v>8176.7350078760428</v>
+        <v>7516.2333630447247</v>
       </c>
     </row>
     <row r="20" spans="2:99" x14ac:dyDescent="0.2">
@@ -1360,43 +1368,43 @@
       </c>
       <c r="F20" s="3">
         <f>F19*0.2</f>
-        <v>1162.9229999999998</v>
+        <v>1142.049</v>
       </c>
       <c r="G20" s="3">
-        <f t="shared" ref="G20:O20" si="30">G19*0.2</f>
-        <v>1220.9519379999999</v>
+        <f t="shared" ref="G20:O20" si="29">G19*0.2</f>
+        <v>1178.0349940000001</v>
       </c>
       <c r="H20" s="3">
-        <f t="shared" si="30"/>
-        <v>1281.1637225079999</v>
+        <f t="shared" si="29"/>
+        <v>1214.9890512039999</v>
       </c>
       <c r="I20" s="3">
-        <f t="shared" si="30"/>
-        <v>1343.6337793091284</v>
+        <f t="shared" si="29"/>
+        <v>1252.9391897042633</v>
       </c>
       <c r="J20" s="3">
-        <f t="shared" si="30"/>
-        <v>1408.440070757744</v>
+        <f t="shared" si="29"/>
+        <v>1291.9143454216621</v>
       </c>
       <c r="K20" s="3">
-        <f t="shared" si="30"/>
-        <v>1451.4644938182869</v>
+        <f t="shared" si="29"/>
+        <v>1331.944405256253</v>
       </c>
       <c r="L20" s="3">
-        <f t="shared" si="30"/>
-        <v>1495.6339026195328</v>
+        <f t="shared" si="29"/>
+        <v>1373.0602415037251</v>
       </c>
       <c r="M20" s="3">
-        <f t="shared" si="30"/>
-        <v>1540.9812509291448</v>
+        <f t="shared" si="29"/>
+        <v>1415.2937475873355</v>
       </c>
       <c r="N20" s="3">
-        <f t="shared" si="30"/>
-        <v>1587.5405688368764</v>
+        <f t="shared" si="29"/>
+        <v>1458.6778751569682</v>
       </c>
       <c r="O20" s="3">
-        <f t="shared" si="30"/>
-        <v>1635.3470015752087</v>
+        <f t="shared" si="29"/>
+        <v>1503.2466726089451</v>
       </c>
     </row>
     <row r="21" spans="2:99" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -1408,388 +1416,388 @@
         <v>12892</v>
       </c>
       <c r="D21" s="5">
-        <f t="shared" ref="D21:J21" si="31">D19-D20</f>
+        <f t="shared" ref="D21:J21" si="30">D19-D20</f>
         <v>4273</v>
       </c>
       <c r="E21" s="5">
+        <f t="shared" si="30"/>
+        <v>4083</v>
+      </c>
+      <c r="F21" s="5">
+        <f t="shared" si="30"/>
+        <v>4568.1959999999999</v>
+      </c>
+      <c r="G21" s="5">
+        <f t="shared" si="30"/>
+        <v>4712.1399760000004</v>
+      </c>
+      <c r="H21" s="5">
+        <f t="shared" si="30"/>
+        <v>4859.9562048159996</v>
+      </c>
+      <c r="I21" s="5">
+        <f t="shared" si="30"/>
+        <v>5011.7567588170532</v>
+      </c>
+      <c r="J21" s="5">
+        <f t="shared" si="30"/>
+        <v>5167.6573816866485</v>
+      </c>
+      <c r="K21" s="5">
+        <f t="shared" ref="K21:O21" si="31">K19-K20</f>
+        <v>5327.7776210250122</v>
+      </c>
+      <c r="L21" s="5">
         <f t="shared" si="31"/>
-        <v>4083</v>
-      </c>
-      <c r="F21" s="5">
+        <v>5492.2409660149006</v>
+      </c>
+      <c r="M21" s="5">
         <f t="shared" si="31"/>
-        <v>4651.6919999999991</v>
-      </c>
-      <c r="G21" s="5">
+        <v>5661.1749903493419</v>
+      </c>
+      <c r="N21" s="5">
         <f t="shared" si="31"/>
-        <v>4883.8077519999988</v>
-      </c>
-      <c r="H21" s="5">
+        <v>5834.7115006278727</v>
+      </c>
+      <c r="O21" s="5">
         <f t="shared" si="31"/>
-        <v>5124.6548900319995</v>
-      </c>
-      <c r="I21" s="5">
-        <f t="shared" si="31"/>
-        <v>5374.5351172365135</v>
-      </c>
-      <c r="J21" s="5">
-        <f t="shared" si="31"/>
-        <v>5633.7602830309752</v>
-      </c>
-      <c r="K21" s="5">
-        <f t="shared" ref="K21:O21" si="32">K19-K20</f>
-        <v>5805.8579752731475</v>
-      </c>
-      <c r="L21" s="5">
-        <f t="shared" si="32"/>
-        <v>5982.5356104781304</v>
-      </c>
-      <c r="M21" s="5">
-        <f t="shared" si="32"/>
-        <v>6163.9250037165784</v>
-      </c>
-      <c r="N21" s="5">
-        <f t="shared" si="32"/>
-        <v>6350.1622753475058</v>
-      </c>
-      <c r="O21" s="5">
-        <f t="shared" si="32"/>
-        <v>6541.3880063008346</v>
+        <v>6012.9866904357796</v>
       </c>
       <c r="P21" s="5">
-        <f>O21*(1+$R$26)</f>
-        <v>6475.9741262378266</v>
+        <f t="shared" ref="P21:AU21" si="32">O21*(1+$R$26)</f>
+        <v>5952.8568235314215</v>
       </c>
       <c r="Q21" s="5">
-        <f>P21*(1+$R$26)</f>
-        <v>6411.2143849754484</v>
+        <f t="shared" si="32"/>
+        <v>5893.3282552961073</v>
       </c>
       <c r="R21" s="5">
-        <f>Q21*(1+$R$26)</f>
-        <v>6347.1022411256936</v>
+        <f t="shared" si="32"/>
+        <v>5834.3949727431464</v>
       </c>
       <c r="S21" s="5">
-        <f>R21*(1+$R$26)</f>
-        <v>6283.6312187144367</v>
+        <f t="shared" si="32"/>
+        <v>5776.0510230157151</v>
       </c>
       <c r="T21" s="5">
-        <f>S21*(1+$R$26)</f>
-        <v>6220.7949065272924</v>
+        <f t="shared" si="32"/>
+        <v>5718.2905127855583</v>
       </c>
       <c r="U21" s="5">
-        <f>T21*(1+$R$26)</f>
-        <v>6158.5869574620192</v>
+        <f t="shared" si="32"/>
+        <v>5661.1076076577028</v>
       </c>
       <c r="V21" s="5">
-        <f>U21*(1+$R$26)</f>
-        <v>6097.0010878873991</v>
+        <f t="shared" si="32"/>
+        <v>5604.496531581126</v>
       </c>
       <c r="W21" s="5">
-        <f>V21*(1+$R$26)</f>
-        <v>6036.0310770085252</v>
+        <f t="shared" si="32"/>
+        <v>5548.4515662653148</v>
       </c>
       <c r="X21" s="5">
-        <f>W21*(1+$R$26)</f>
-        <v>5975.6707662384397</v>
+        <f t="shared" si="32"/>
+        <v>5492.9670506026614</v>
       </c>
       <c r="Y21" s="5">
-        <f>X21*(1+$R$26)</f>
-        <v>5915.9140585760551</v>
+        <f t="shared" si="32"/>
+        <v>5438.0373800966345</v>
       </c>
       <c r="Z21" s="5">
-        <f>Y21*(1+$R$26)</f>
-        <v>5856.7549179902944</v>
+        <f t="shared" si="32"/>
+        <v>5383.657006295668</v>
       </c>
       <c r="AA21" s="5">
-        <f>Z21*(1+$R$26)</f>
-        <v>5798.1873688103915</v>
+        <f t="shared" si="32"/>
+        <v>5329.8204362327115</v>
       </c>
       <c r="AB21" s="5">
-        <f>AA21*(1+$R$26)</f>
-        <v>5740.2054951222872</v>
+        <f t="shared" si="32"/>
+        <v>5276.5222318703845</v>
       </c>
       <c r="AC21" s="5">
-        <f>AB21*(1+$R$26)</f>
-        <v>5682.8034401710638</v>
+        <f t="shared" si="32"/>
+        <v>5223.7570095516803</v>
       </c>
       <c r="AD21" s="5">
-        <f>AC21*(1+$R$26)</f>
-        <v>5625.9754057693535</v>
+        <f t="shared" si="32"/>
+        <v>5171.5194394561631</v>
       </c>
       <c r="AE21" s="5">
-        <f>AD21*(1+$R$26)</f>
-        <v>5569.71565171166</v>
+        <f t="shared" si="32"/>
+        <v>5119.8042450616013</v>
       </c>
       <c r="AF21" s="5">
-        <f>AE21*(1+$R$26)</f>
-        <v>5514.018495194543</v>
+        <f t="shared" si="32"/>
+        <v>5068.6062026109848</v>
       </c>
       <c r="AG21" s="5">
-        <f>AF21*(1+$R$26)</f>
-        <v>5458.8783102425978</v>
+        <f t="shared" si="32"/>
+        <v>5017.9201405848753</v>
       </c>
       <c r="AH21" s="5">
-        <f>AG21*(1+$R$26)</f>
-        <v>5404.2895271401721</v>
+        <f t="shared" si="32"/>
+        <v>4967.7409391790261</v>
       </c>
       <c r="AI21" s="5">
-        <f>AH21*(1+$R$26)</f>
-        <v>5350.2466318687702</v>
+        <f t="shared" si="32"/>
+        <v>4918.0635297872359</v>
       </c>
       <c r="AJ21" s="5">
-        <f>AI21*(1+$R$26)</f>
-        <v>5296.7441655500825</v>
+        <f t="shared" si="32"/>
+        <v>4868.8828944893639</v>
       </c>
       <c r="AK21" s="5">
-        <f>AJ21*(1+$R$26)</f>
-        <v>5243.7767238945817</v>
+        <f t="shared" si="32"/>
+        <v>4820.1940655444705</v>
       </c>
       <c r="AL21" s="5">
-        <f>AK21*(1+$R$26)</f>
-        <v>5191.3389566556361</v>
+        <f t="shared" si="32"/>
+        <v>4771.9921248890259</v>
       </c>
       <c r="AM21" s="5">
-        <f>AL21*(1+$R$26)</f>
-        <v>5139.4255670890798</v>
+        <f t="shared" si="32"/>
+        <v>4724.2722036401356</v>
       </c>
       <c r="AN21" s="5">
-        <f>AM21*(1+$R$26)</f>
-        <v>5088.031311418189</v>
+        <f t="shared" si="32"/>
+        <v>4677.029481603734</v>
       </c>
       <c r="AO21" s="5">
-        <f>AN21*(1+$R$26)</f>
-        <v>5037.1509983040069</v>
+        <f t="shared" si="32"/>
+        <v>4630.2591867876963</v>
       </c>
       <c r="AP21" s="5">
-        <f>AO21*(1+$R$26)</f>
-        <v>4986.7794883209672</v>
+        <f t="shared" si="32"/>
+        <v>4583.9565949198195</v>
       </c>
       <c r="AQ21" s="5">
-        <f>AP21*(1+$R$26)</f>
-        <v>4936.9116934377571</v>
+        <f t="shared" si="32"/>
+        <v>4538.1170289706215</v>
       </c>
       <c r="AR21" s="5">
-        <f>AQ21*(1+$R$26)</f>
-        <v>4887.5425765033797</v>
+        <f t="shared" si="32"/>
+        <v>4492.735858680915</v>
       </c>
       <c r="AS21" s="5">
-        <f>AR21*(1+$R$26)</f>
-        <v>4838.6671507383462</v>
+        <f t="shared" si="32"/>
+        <v>4447.8085000941055</v>
       </c>
       <c r="AT21" s="5">
-        <f>AS21*(1+$R$26)</f>
-        <v>4790.2804792309626</v>
+        <f t="shared" si="32"/>
+        <v>4403.3304150931644</v>
       </c>
       <c r="AU21" s="5">
-        <f>AT21*(1+$R$26)</f>
-        <v>4742.3776744386532</v>
+        <f t="shared" si="32"/>
+        <v>4359.2971109422324</v>
       </c>
       <c r="AV21" s="5">
-        <f>AU21*(1+$R$26)</f>
-        <v>4694.9538976942667</v>
+        <f t="shared" ref="AV21:CA21" si="33">AU21*(1+$R$26)</f>
+        <v>4315.7041398328101</v>
       </c>
       <c r="AW21" s="5">
-        <f>AV21*(1+$R$26)</f>
-        <v>4648.0043587173241</v>
+        <f t="shared" si="33"/>
+        <v>4272.547098434482</v>
       </c>
       <c r="AX21" s="5">
-        <f>AW21*(1+$R$26)</f>
-        <v>4601.5243151301511</v>
+        <f t="shared" si="33"/>
+        <v>4229.8216274501374</v>
       </c>
       <c r="AY21" s="5">
-        <f>AX21*(1+$R$26)</f>
-        <v>4555.5090719788495</v>
+        <f t="shared" si="33"/>
+        <v>4187.5234111756363</v>
       </c>
       <c r="AZ21" s="5">
-        <f>AY21*(1+$R$26)</f>
-        <v>4509.953981259061</v>
+        <f t="shared" si="33"/>
+        <v>4145.6481770638802</v>
       </c>
       <c r="BA21" s="5">
-        <f>AZ21*(1+$R$26)</f>
-        <v>4464.8544414464704</v>
+        <f t="shared" si="33"/>
+        <v>4104.1916952932415</v>
       </c>
       <c r="BB21" s="5">
-        <f>BA21*(1+$R$26)</f>
-        <v>4420.2058970320059</v>
+        <f t="shared" si="33"/>
+        <v>4063.1497783403092</v>
       </c>
       <c r="BC21" s="5">
-        <f>BB21*(1+$R$26)</f>
-        <v>4376.0038380616861</v>
+        <f t="shared" si="33"/>
+        <v>4022.5182805569061</v>
       </c>
       <c r="BD21" s="5">
-        <f>BC21*(1+$R$26)</f>
-        <v>4332.2437996810695</v>
+        <f t="shared" si="33"/>
+        <v>3982.293097751337</v>
       </c>
       <c r="BE21" s="5">
-        <f>BD21*(1+$R$26)</f>
-        <v>4288.921361684259</v>
+        <f t="shared" si="33"/>
+        <v>3942.4701667738236</v>
       </c>
       <c r="BF21" s="5">
-        <f>BE21*(1+$R$26)</f>
-        <v>4246.0321480674165</v>
+        <f t="shared" si="33"/>
+        <v>3903.0454651060854</v>
       </c>
       <c r="BG21" s="5">
-        <f>BF21*(1+$R$26)</f>
-        <v>4203.5718265867426</v>
+        <f t="shared" si="33"/>
+        <v>3864.0150104550244</v>
       </c>
       <c r="BH21" s="5">
-        <f>BG21*(1+$R$26)</f>
-        <v>4161.5361083208754</v>
+        <f t="shared" si="33"/>
+        <v>3825.3748603504741</v>
       </c>
       <c r="BI21" s="5">
-        <f>BH21*(1+$R$26)</f>
-        <v>4119.9207472376665</v>
+        <f t="shared" si="33"/>
+        <v>3787.1211117469693</v>
       </c>
       <c r="BJ21" s="5">
-        <f>BI21*(1+$R$26)</f>
-        <v>4078.7215397652899</v>
+        <f t="shared" si="33"/>
+        <v>3749.2499006294997</v>
       </c>
       <c r="BK21" s="5">
-        <f>BJ21*(1+$R$26)</f>
-        <v>4037.9343243676371</v>
+        <f t="shared" si="33"/>
+        <v>3711.7574016232047</v>
       </c>
       <c r="BL21" s="5">
-        <f>BK21*(1+$R$26)</f>
-        <v>3997.5549811239607</v>
+        <f t="shared" si="33"/>
+        <v>3674.6398276069726</v>
       </c>
       <c r="BM21" s="5">
-        <f>BL21*(1+$R$26)</f>
-        <v>3957.5794313127212</v>
+        <f t="shared" si="33"/>
+        <v>3637.893429330903</v>
       </c>
       <c r="BN21" s="5">
-        <f>BM21*(1+$R$26)</f>
-        <v>3918.0036369995942</v>
+        <f t="shared" si="33"/>
+        <v>3601.5144950375939</v>
       </c>
       <c r="BO21" s="5">
-        <f>BN21*(1+$R$26)</f>
-        <v>3878.8236006295983</v>
+        <f t="shared" si="33"/>
+        <v>3565.4993500872179</v>
       </c>
       <c r="BP21" s="5">
-        <f>BO21*(1+$R$26)</f>
-        <v>3840.0353646233025</v>
+        <f t="shared" si="33"/>
+        <v>3529.8443565863458</v>
       </c>
       <c r="BQ21" s="5">
-        <f>BP21*(1+$R$26)</f>
-        <v>3801.6350109770692</v>
+        <f t="shared" si="33"/>
+        <v>3494.5459130204822</v>
       </c>
       <c r="BR21" s="5">
-        <f>BQ21*(1+$R$26)</f>
-        <v>3763.6186608672983</v>
+        <f t="shared" si="33"/>
+        <v>3459.6004538902775</v>
       </c>
       <c r="BS21" s="5">
-        <f>BR21*(1+$R$26)</f>
-        <v>3725.9824742586252</v>
+        <f t="shared" si="33"/>
+        <v>3425.0044493513747</v>
       </c>
       <c r="BT21" s="5">
-        <f>BS21*(1+$R$26)</f>
-        <v>3688.7226495160389</v>
+        <f t="shared" si="33"/>
+        <v>3390.7544048578607</v>
       </c>
       <c r="BU21" s="5">
-        <f>BT21*(1+$R$26)</f>
-        <v>3651.8354230208784</v>
+        <f t="shared" si="33"/>
+        <v>3356.8468608092821</v>
       </c>
       <c r="BV21" s="5">
-        <f>BU21*(1+$R$26)</f>
-        <v>3615.3170687906695</v>
+        <f t="shared" si="33"/>
+        <v>3323.2783922011895</v>
       </c>
       <c r="BW21" s="5">
-        <f>BV21*(1+$R$26)</f>
-        <v>3579.1638981027627</v>
+        <f t="shared" si="33"/>
+        <v>3290.0456082791775</v>
       </c>
       <c r="BX21" s="5">
-        <f>BW21*(1+$R$26)</f>
-        <v>3543.3722591217352</v>
+        <f t="shared" si="33"/>
+        <v>3257.1451521963859</v>
       </c>
       <c r="BY21" s="5">
-        <f>BX21*(1+$R$26)</f>
-        <v>3507.9385365305179</v>
+        <f t="shared" si="33"/>
+        <v>3224.5737006744221</v>
       </c>
       <c r="BZ21" s="5">
-        <f>BY21*(1+$R$26)</f>
-        <v>3472.8591511652126</v>
+        <f t="shared" si="33"/>
+        <v>3192.327963667678</v>
       </c>
       <c r="CA21" s="5">
-        <f>BZ21*(1+$R$26)</f>
-        <v>3438.1305596535603</v>
+        <f t="shared" si="33"/>
+        <v>3160.4046840310011</v>
       </c>
       <c r="CB21" s="5">
-        <f>CA21*(1+$R$26)</f>
-        <v>3403.7492540570247</v>
+        <f t="shared" ref="CB21:CU21" si="34">CA21*(1+$R$26)</f>
+        <v>3128.8006371906913</v>
       </c>
       <c r="CC21" s="5">
-        <f>CB21*(1+$R$26)</f>
-        <v>3369.7117615164543</v>
+        <f t="shared" si="34"/>
+        <v>3097.5126308187841</v>
       </c>
       <c r="CD21" s="5">
-        <f>CC21*(1+$R$26)</f>
-        <v>3336.0146439012897</v>
+        <f t="shared" si="34"/>
+        <v>3066.5375045105961</v>
       </c>
       <c r="CE21" s="5">
-        <f>CD21*(1+$R$26)</f>
-        <v>3302.6544974622766</v>
+        <f t="shared" si="34"/>
+        <v>3035.8721294654902</v>
       </c>
       <c r="CF21" s="5">
-        <f>CE21*(1+$R$26)</f>
-        <v>3269.6279524876536</v>
+        <f t="shared" si="34"/>
+        <v>3005.5134081708352</v>
       </c>
       <c r="CG21" s="5">
-        <f>CF21*(1+$R$26)</f>
-        <v>3236.9316729627772</v>
+        <f t="shared" si="34"/>
+        <v>2975.4582740891269</v>
       </c>
       <c r="CH21" s="5">
-        <f>CG21*(1+$R$26)</f>
-        <v>3204.5623562331493</v>
+        <f t="shared" si="34"/>
+        <v>2945.7036913482357</v>
       </c>
       <c r="CI21" s="5">
-        <f>CH21*(1+$R$26)</f>
-        <v>3172.5167326708179</v>
+        <f t="shared" si="34"/>
+        <v>2916.2466544347535</v>
       </c>
       <c r="CJ21" s="5">
-        <f>CI21*(1+$R$26)</f>
-        <v>3140.7915653441096</v>
+        <f t="shared" si="34"/>
+        <v>2887.0841878904062</v>
       </c>
       <c r="CK21" s="5">
-        <f>CJ21*(1+$R$26)</f>
-        <v>3109.3836496906683</v>
+        <f t="shared" si="34"/>
+        <v>2858.2133460115019</v>
       </c>
       <c r="CL21" s="5">
-        <f>CK21*(1+$R$26)</f>
-        <v>3078.2898131937618</v>
+        <f t="shared" si="34"/>
+        <v>2829.6312125513869</v>
       </c>
       <c r="CM21" s="5">
-        <f>CL21*(1+$R$26)</f>
-        <v>3047.5069150618242</v>
+        <f t="shared" si="34"/>
+        <v>2801.334900425873</v>
       </c>
       <c r="CN21" s="5">
-        <f>CM21*(1+$R$26)</f>
-        <v>3017.0318459112059</v>
+        <f t="shared" si="34"/>
+        <v>2773.3215514216145</v>
       </c>
       <c r="CO21" s="5">
-        <f>CN21*(1+$R$26)</f>
-        <v>2986.8615274520939</v>
+        <f t="shared" si="34"/>
+        <v>2745.5883359073982</v>
       </c>
       <c r="CP21" s="5">
-        <f>CO21*(1+$R$26)</f>
-        <v>2956.9929121775731</v>
+        <f t="shared" si="34"/>
+        <v>2718.1324525483242</v>
       </c>
       <c r="CQ21" s="5">
-        <f>CP21*(1+$R$26)</f>
-        <v>2927.4229830557974</v>
+        <f t="shared" si="34"/>
+        <v>2690.9511280228407</v>
       </c>
       <c r="CR21" s="5">
-        <f>CQ21*(1+$R$26)</f>
-        <v>2898.1487532252395</v>
+        <f t="shared" si="34"/>
+        <v>2664.0416167426124</v>
       </c>
       <c r="CS21" s="5">
-        <f>CR21*(1+$R$26)</f>
-        <v>2869.1672656929873</v>
+        <f t="shared" si="34"/>
+        <v>2637.4012005751861</v>
       </c>
       <c r="CT21" s="5">
-        <f>CS21*(1+$R$26)</f>
-        <v>2840.4755930360575</v>
+        <f t="shared" si="34"/>
+        <v>2611.0271885694342</v>
       </c>
       <c r="CU21" s="5">
-        <f>CT21*(1+$R$26)</f>
-        <v>2812.0708371056967</v>
+        <f t="shared" si="34"/>
+        <v>2584.9169166837401</v>
       </c>
     </row>
     <row r="22" spans="2:99" x14ac:dyDescent="0.2">
@@ -1815,43 +1823,43 @@
         <v>-5.421665428035527E-2</v>
       </c>
       <c r="F25" s="7">
-        <f t="shared" ref="F25:J25" si="33">F3/E3-1</f>
-        <v>3.0000000000000027E-2</v>
+        <f t="shared" ref="F25:J25" si="35">F3/E3-1</f>
+        <v>1.0000000000000009E-2</v>
       </c>
       <c r="G25" s="7">
-        <f t="shared" si="33"/>
-        <v>3.0000000000000027E-2</v>
+        <f t="shared" si="35"/>
+        <v>1.0000000000000009E-2</v>
       </c>
       <c r="H25" s="7">
-        <f t="shared" si="33"/>
-        <v>3.0000000000000027E-2</v>
+        <f t="shared" si="35"/>
+        <v>1.0000000000000009E-2</v>
       </c>
       <c r="I25" s="7">
-        <f t="shared" si="33"/>
-        <v>3.0000000000000027E-2</v>
+        <f t="shared" si="35"/>
+        <v>1.0000000000000009E-2</v>
       </c>
       <c r="J25" s="7">
-        <f t="shared" si="33"/>
-        <v>3.0000000000000027E-2</v>
+        <f t="shared" si="35"/>
+        <v>1.0000000000000009E-2</v>
       </c>
       <c r="K25" s="7">
-        <f t="shared" ref="K25" si="34">K3/J3-1</f>
+        <f t="shared" ref="K25" si="36">K3/J3-1</f>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="L25" s="7">
-        <f t="shared" ref="L25" si="35">L3/K3-1</f>
+        <f t="shared" ref="L25" si="37">L3/K3-1</f>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="M25" s="7">
-        <f t="shared" ref="M25" si="36">M3/L3-1</f>
+        <f t="shared" ref="M25" si="38">M3/L3-1</f>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="N25" s="7">
-        <f t="shared" ref="N25" si="37">N3/M3-1</f>
+        <f t="shared" ref="N25" si="39">N3/M3-1</f>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="O25" s="7">
-        <f t="shared" ref="O25" si="38">O3/N3-1</f>
+        <f t="shared" ref="O25" si="40">O3/N3-1</f>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="Q25" s="3" t="s">
@@ -1932,28 +1940,25 @@
       </c>
       <c r="R28" s="5">
         <f>NPV(R27,F33:XFD33)+Main!O5-Main!O6</f>
-        <v>59510.412015741036</v>
+        <v>53535.920921742611</v>
       </c>
     </row>
     <row r="29" spans="2:99" x14ac:dyDescent="0.2">
       <c r="B29" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="R29" s="3">
+      <c r="Q29" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="R29" s="10">
         <f>R28/Main!O3</f>
-        <v>63.410135339095405</v>
+        <v>57.044135238937251</v>
       </c>
     </row>
     <row r="30" spans="2:99" x14ac:dyDescent="0.2">
-      <c r="Q30" s="3" t="s">
-        <v>39</v>
-      </c>
       <c r="R30" s="6">
         <f>R29/Main!O2-1</f>
-        <v>0.40911411864656455</v>
+        <v>0.3422149467985236</v>
       </c>
     </row>
     <row r="31" spans="2:99" x14ac:dyDescent="0.2">
@@ -1993,392 +1998,392 @@
         <v>12313</v>
       </c>
       <c r="D33" s="5">
-        <f t="shared" ref="D33:E33" si="39">D31-D32</f>
+        <f t="shared" ref="D33:E33" si="41">D31-D32</f>
         <v>6038</v>
       </c>
       <c r="E33" s="5">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>4421</v>
       </c>
       <c r="F33" s="5">
-        <f>F21*1.1</f>
-        <v>5116.8611999999994</v>
+        <f t="shared" ref="F33:O33" si="42">F21*1.1</f>
+        <v>5025.0156000000006</v>
       </c>
       <c r="G33" s="5">
-        <f>G21*1.1</f>
-        <v>5372.188527199999</v>
+        <f t="shared" si="42"/>
+        <v>5183.3539736000012</v>
       </c>
       <c r="H33" s="5">
-        <f>H21*1.1</f>
-        <v>5637.1203790352001</v>
+        <f t="shared" si="42"/>
+        <v>5345.9518252976004</v>
       </c>
       <c r="I33" s="5">
-        <f>I21*1.1</f>
-        <v>5911.9886289601654</v>
+        <f t="shared" si="42"/>
+        <v>5512.9324346987587</v>
       </c>
       <c r="J33" s="5">
-        <f>J21*1.1</f>
-        <v>6197.1363113340731</v>
+        <f t="shared" si="42"/>
+        <v>5684.4231198553134</v>
       </c>
       <c r="K33" s="5">
-        <f>K21*1.1</f>
-        <v>6386.4437728004632</v>
+        <f t="shared" si="42"/>
+        <v>5860.5553831275138</v>
       </c>
       <c r="L33" s="5">
-        <f>L21*1.1</f>
-        <v>6580.7891715259439</v>
+        <f t="shared" si="42"/>
+        <v>6041.4650626163912</v>
       </c>
       <c r="M33" s="5">
-        <f>M21*1.1</f>
-        <v>6780.317504088237</v>
+        <f t="shared" si="42"/>
+        <v>6227.2924893842765</v>
       </c>
       <c r="N33" s="5">
-        <f>N21*1.1</f>
-        <v>6985.1785028822569</v>
+        <f t="shared" si="42"/>
+        <v>6418.1826506906609</v>
       </c>
       <c r="O33" s="5">
-        <f>O21*1.1</f>
-        <v>7195.5268069309186</v>
+        <f t="shared" si="42"/>
+        <v>6614.2853594793578</v>
       </c>
       <c r="P33" s="5">
-        <f>O33*(1+$R$26)</f>
-        <v>7123.571538861609</v>
+        <f t="shared" ref="P33:AU33" si="43">O33*(1+$R$26)</f>
+        <v>6548.1425058845643</v>
       </c>
       <c r="Q33" s="5">
-        <f>P33*(1+$R$26)</f>
-        <v>7052.3358234729931</v>
+        <f t="shared" si="43"/>
+        <v>6482.6610808257183</v>
       </c>
       <c r="R33" s="5">
-        <f>Q33*(1+$R$26)</f>
-        <v>6981.812465238263</v>
+        <f t="shared" si="43"/>
+        <v>6417.8344700174612</v>
       </c>
       <c r="S33" s="5">
-        <f>R33*(1+$R$26)</f>
-        <v>6911.9943405858803</v>
+        <f t="shared" si="43"/>
+        <v>6353.6561253172868</v>
       </c>
       <c r="T33" s="5">
-        <f>S33*(1+$R$26)</f>
-        <v>6842.8743971800213</v>
+        <f t="shared" si="43"/>
+        <v>6290.1195640641135</v>
       </c>
       <c r="U33" s="5">
-        <f>T33*(1+$R$26)</f>
-        <v>6774.4456532082213</v>
+        <f t="shared" si="43"/>
+        <v>6227.2183684234724</v>
       </c>
       <c r="V33" s="5">
-        <f>U33*(1+$R$26)</f>
-        <v>6706.7011966761393</v>
+        <f t="shared" si="43"/>
+        <v>6164.9461847392377</v>
       </c>
       <c r="W33" s="5">
-        <f>V33*(1+$R$26)</f>
-        <v>6639.6341847093781</v>
+        <f t="shared" si="43"/>
+        <v>6103.2967228918451</v>
       </c>
       <c r="X33" s="5">
-        <f>W33*(1+$R$26)</f>
-        <v>6573.2378428622842</v>
+        <f t="shared" si="43"/>
+        <v>6042.263755662927</v>
       </c>
       <c r="Y33" s="5">
-        <f>X33*(1+$R$26)</f>
-        <v>6507.5054644336615</v>
+        <f t="shared" si="43"/>
+        <v>5981.8411181062975</v>
       </c>
       <c r="Z33" s="5">
-        <f>Y33*(1+$R$26)</f>
-        <v>6442.4304097893246</v>
+        <f t="shared" si="43"/>
+        <v>5922.0227069252342</v>
       </c>
       <c r="AA33" s="5">
-        <f>Z33*(1+$R$26)</f>
-        <v>6378.006105691431</v>
+        <f t="shared" si="43"/>
+        <v>5862.8024798559818</v>
       </c>
       <c r="AB33" s="5">
-        <f>AA33*(1+$R$26)</f>
-        <v>6314.2260446345163</v>
+        <f t="shared" si="43"/>
+        <v>5804.1744550574222</v>
       </c>
       <c r="AC33" s="5">
-        <f>AB33*(1+$R$26)</f>
-        <v>6251.0837841881712</v>
+        <f t="shared" si="43"/>
+        <v>5746.1327105068476</v>
       </c>
       <c r="AD33" s="5">
-        <f>AC33*(1+$R$26)</f>
-        <v>6188.5729463462894</v>
+        <f t="shared" si="43"/>
+        <v>5688.6713834017792</v>
       </c>
       <c r="AE33" s="5">
-        <f>AD33*(1+$R$26)</f>
-        <v>6126.6872168828268</v>
+        <f t="shared" si="43"/>
+        <v>5631.7846695677617</v>
       </c>
       <c r="AF33" s="5">
-        <f>AE33*(1+$R$26)</f>
-        <v>6065.420344713998</v>
+        <f t="shared" si="43"/>
+        <v>5575.4668228720839</v>
       </c>
       <c r="AG33" s="5">
-        <f>AF33*(1+$R$26)</f>
-        <v>6004.7661412668576</v>
+        <f t="shared" si="43"/>
+        <v>5519.7121546433627</v>
       </c>
       <c r="AH33" s="5">
-        <f>AG33*(1+$R$26)</f>
-        <v>5944.7184798541894</v>
+        <f t="shared" si="43"/>
+        <v>5464.5150330969291</v>
       </c>
       <c r="AI33" s="5">
-        <f>AH33*(1+$R$26)</f>
-        <v>5885.271295055647</v>
+        <f t="shared" si="43"/>
+        <v>5409.86988276596</v>
       </c>
       <c r="AJ33" s="5">
-        <f>AI33*(1+$R$26)</f>
-        <v>5826.4185821050905</v>
+        <f t="shared" si="43"/>
+        <v>5355.7711839383001</v>
       </c>
       <c r="AK33" s="5">
-        <f>AJ33*(1+$R$26)</f>
-        <v>5768.1543962840396</v>
+        <f t="shared" si="43"/>
+        <v>5302.213472098917</v>
       </c>
       <c r="AL33" s="5">
-        <f>AK33*(1+$R$26)</f>
-        <v>5710.4728523211988</v>
+        <f t="shared" si="43"/>
+        <v>5249.191337377928</v>
       </c>
       <c r="AM33" s="5">
-        <f>AL33*(1+$R$26)</f>
-        <v>5653.3681237979872</v>
+        <f t="shared" si="43"/>
+        <v>5196.6994240041486</v>
       </c>
       <c r="AN33" s="5">
-        <f>AM33*(1+$R$26)</f>
-        <v>5596.8344425600071</v>
+        <f t="shared" si="43"/>
+        <v>5144.7324297641071</v>
       </c>
       <c r="AO33" s="5">
-        <f>AN33*(1+$R$26)</f>
-        <v>5540.8660981344074</v>
+        <f t="shared" si="43"/>
+        <v>5093.2851054664661</v>
       </c>
       <c r="AP33" s="5">
-        <f>AO33*(1+$R$26)</f>
-        <v>5485.4574371530634</v>
+        <f t="shared" si="43"/>
+        <v>5042.3522544118014</v>
       </c>
       <c r="AQ33" s="5">
-        <f>AP33*(1+$R$26)</f>
-        <v>5430.6028627815331</v>
+        <f t="shared" si="43"/>
+        <v>4991.9287318676834</v>
       </c>
       <c r="AR33" s="5">
-        <f>AQ33*(1+$R$26)</f>
-        <v>5376.296834153718</v>
+        <f t="shared" si="43"/>
+        <v>4942.0094445490067</v>
       </c>
       <c r="AS33" s="5">
-        <f>AR33*(1+$R$26)</f>
-        <v>5322.5338658121809</v>
+        <f t="shared" si="43"/>
+        <v>4892.5893501035171</v>
       </c>
       <c r="AT33" s="5">
-        <f>AS33*(1+$R$26)</f>
-        <v>5269.3085271540594</v>
+        <f t="shared" si="43"/>
+        <v>4843.6634566024823</v>
       </c>
       <c r="AU33" s="5">
-        <f>AT33*(1+$R$26)</f>
-        <v>5216.615441882519</v>
+        <f t="shared" si="43"/>
+        <v>4795.2268220364576</v>
       </c>
       <c r="AV33" s="5">
-        <f>AU33*(1+$R$26)</f>
-        <v>5164.4492874636935</v>
+        <f t="shared" ref="AV33:CA33" si="44">AU33*(1+$R$26)</f>
+        <v>4747.2745538160934</v>
       </c>
       <c r="AW33" s="5">
-        <f>AV33*(1+$R$26)</f>
-        <v>5112.8047945890567</v>
+        <f t="shared" si="44"/>
+        <v>4699.8018082779327</v>
       </c>
       <c r="AX33" s="5">
-        <f>AW33*(1+$R$26)</f>
-        <v>5061.6767466431656</v>
+        <f t="shared" si="44"/>
+        <v>4652.8037901951529</v>
       </c>
       <c r="AY33" s="5">
-        <f>AX33*(1+$R$26)</f>
-        <v>5011.0599791767336</v>
+        <f t="shared" si="44"/>
+        <v>4606.2757522932015</v>
       </c>
       <c r="AZ33" s="5">
-        <f>AY33*(1+$R$26)</f>
-        <v>4960.9493793849661</v>
+        <f t="shared" si="44"/>
+        <v>4560.2129947702697</v>
       </c>
       <c r="BA33" s="5">
-        <f>AZ33*(1+$R$26)</f>
-        <v>4911.3398855911164</v>
+        <f t="shared" si="44"/>
+        <v>4514.6108648225672</v>
       </c>
       <c r="BB33" s="5">
-        <f>BA33*(1+$R$26)</f>
-        <v>4862.2264867352051</v>
+        <f t="shared" si="44"/>
+        <v>4469.4647561743413</v>
       </c>
       <c r="BC33" s="5">
-        <f>BB33*(1+$R$26)</f>
-        <v>4813.6042218678531</v>
+        <f t="shared" si="44"/>
+        <v>4424.7701086125981</v>
       </c>
       <c r="BD33" s="5">
-        <f>BC33*(1+$R$26)</f>
-        <v>4765.4681796491741</v>
+        <f t="shared" si="44"/>
+        <v>4380.5224075264723</v>
       </c>
       <c r="BE33" s="5">
-        <f>BD33*(1+$R$26)</f>
-        <v>4717.8134978526823</v>
+        <f t="shared" si="44"/>
+        <v>4336.7171834512073</v>
       </c>
       <c r="BF33" s="5">
-        <f>BE33*(1+$R$26)</f>
-        <v>4670.6353628741554</v>
+        <f t="shared" si="44"/>
+        <v>4293.3500116166952</v>
       </c>
       <c r="BG33" s="5">
-        <f>BF33*(1+$R$26)</f>
-        <v>4623.9290092454139</v>
+        <f t="shared" si="44"/>
+        <v>4250.416511500528</v>
       </c>
       <c r="BH33" s="5">
-        <f>BG33*(1+$R$26)</f>
-        <v>4577.6897191529597</v>
+        <f t="shared" si="44"/>
+        <v>4207.9123463855231</v>
       </c>
       <c r="BI33" s="5">
-        <f>BH33*(1+$R$26)</f>
-        <v>4531.9128219614304</v>
+        <f t="shared" si="44"/>
+        <v>4165.8332229216676</v>
       </c>
       <c r="BJ33" s="5">
-        <f>BI33*(1+$R$26)</f>
-        <v>4486.5936937418164</v>
+        <f t="shared" si="44"/>
+        <v>4124.1748906924513</v>
       </c>
       <c r="BK33" s="5">
-        <f>BJ33*(1+$R$26)</f>
-        <v>4441.7277568043983</v>
+        <f t="shared" si="44"/>
+        <v>4082.9331417855269</v>
       </c>
       <c r="BL33" s="5">
-        <f>BK33*(1+$R$26)</f>
-        <v>4397.3104792363547</v>
+        <f t="shared" si="44"/>
+        <v>4042.1038103676715</v>
       </c>
       <c r="BM33" s="5">
-        <f>BL33*(1+$R$26)</f>
-        <v>4353.3373744439914</v>
+        <f t="shared" si="44"/>
+        <v>4001.6827722639946</v>
       </c>
       <c r="BN33" s="5">
-        <f>BM33*(1+$R$26)</f>
-        <v>4309.8040006995516</v>
+        <f t="shared" si="44"/>
+        <v>3961.6659445413547</v>
       </c>
       <c r="BO33" s="5">
-        <f>BN33*(1+$R$26)</f>
-        <v>4266.7059606925559</v>
+        <f t="shared" si="44"/>
+        <v>3922.0492850959413</v>
       </c>
       <c r="BP33" s="5">
-        <f>BO33*(1+$R$26)</f>
-        <v>4224.0389010856306</v>
+        <f t="shared" si="44"/>
+        <v>3882.8287922449817</v>
       </c>
       <c r="BQ33" s="5">
-        <f>BP33*(1+$R$26)</f>
-        <v>4181.7985120747744</v>
+        <f t="shared" si="44"/>
+        <v>3844.0005043225319</v>
       </c>
       <c r="BR33" s="5">
-        <f>BQ33*(1+$R$26)</f>
-        <v>4139.9805269540266</v>
+        <f t="shared" si="44"/>
+        <v>3805.5604992793064</v>
       </c>
       <c r="BS33" s="5">
-        <f>BR33*(1+$R$26)</f>
-        <v>4098.580721684486</v>
+        <f t="shared" si="44"/>
+        <v>3767.5048942865133</v>
       </c>
       <c r="BT33" s="5">
-        <f>BS33*(1+$R$26)</f>
-        <v>4057.594914467641</v>
+        <f t="shared" si="44"/>
+        <v>3729.8298453436482</v>
       </c>
       <c r="BU33" s="5">
-        <f>BT33*(1+$R$26)</f>
-        <v>4017.0189653229645</v>
+        <f t="shared" si="44"/>
+        <v>3692.5315468902118</v>
       </c>
       <c r="BV33" s="5">
-        <f>BU33*(1+$R$26)</f>
-        <v>3976.848775669735</v>
+        <f t="shared" si="44"/>
+        <v>3655.6062314213095</v>
       </c>
       <c r="BW33" s="5">
-        <f>BV33*(1+$R$26)</f>
-        <v>3937.0802879130374</v>
+        <f t="shared" si="44"/>
+        <v>3619.0501691070963</v>
       </c>
       <c r="BX33" s="5">
-        <f>BW33*(1+$R$26)</f>
-        <v>3897.7094850339072</v>
+        <f t="shared" si="44"/>
+        <v>3582.8596674160253</v>
       </c>
       <c r="BY33" s="5">
-        <f>BX33*(1+$R$26)</f>
-        <v>3858.732390183568</v>
+        <f t="shared" si="44"/>
+        <v>3547.0310707418648</v>
       </c>
       <c r="BZ33" s="5">
-        <f>BY33*(1+$R$26)</f>
-        <v>3820.1450662817324</v>
+        <f t="shared" si="44"/>
+        <v>3511.560760034446</v>
       </c>
       <c r="CA33" s="5">
-        <f>BZ33*(1+$R$26)</f>
-        <v>3781.9436156189149</v>
+        <f t="shared" si="44"/>
+        <v>3476.4451524341016</v>
       </c>
       <c r="CB33" s="5">
-        <f>CA33*(1+$R$26)</f>
-        <v>3744.1241794627258</v>
+        <f t="shared" ref="CB33:CV33" si="45">CA33*(1+$R$26)</f>
+        <v>3441.6807009097606</v>
       </c>
       <c r="CC33" s="5">
-        <f>CB33*(1+$R$26)</f>
-        <v>3706.6829376680985</v>
+        <f t="shared" si="45"/>
+        <v>3407.2638939006629</v>
       </c>
       <c r="CD33" s="5">
-        <f>CC33*(1+$R$26)</f>
-        <v>3669.6161082914173</v>
+        <f t="shared" si="45"/>
+        <v>3373.1912549616563</v>
       </c>
       <c r="CE33" s="5">
-        <f>CD33*(1+$R$26)</f>
-        <v>3632.9199472085029</v>
+        <f t="shared" si="45"/>
+        <v>3339.4593424120399</v>
       </c>
       <c r="CF33" s="5">
-        <f>CE33*(1+$R$26)</f>
-        <v>3596.5907477364181</v>
+        <f t="shared" si="45"/>
+        <v>3306.0647489879193</v>
       </c>
       <c r="CG33" s="5">
-        <f>CF33*(1+$R$26)</f>
-        <v>3560.6248402590541</v>
+        <f t="shared" si="45"/>
+        <v>3273.0041014980402</v>
       </c>
       <c r="CH33" s="5">
-        <f>CG33*(1+$R$26)</f>
-        <v>3525.0185918564634</v>
+        <f t="shared" si="45"/>
+        <v>3240.2740604830597</v>
       </c>
       <c r="CI33" s="5">
-        <f>CH33*(1+$R$26)</f>
-        <v>3489.7684059378989</v>
+        <f t="shared" si="45"/>
+        <v>3207.8713198782289</v>
       </c>
       <c r="CJ33" s="5">
-        <f>CI33*(1+$R$26)</f>
-        <v>3454.8707218785198</v>
+        <f t="shared" si="45"/>
+        <v>3175.7926066794466</v>
       </c>
       <c r="CK33" s="5">
-        <f>CJ33*(1+$R$26)</f>
-        <v>3420.3220146597346</v>
+        <f t="shared" si="45"/>
+        <v>3144.0346806126522</v>
       </c>
       <c r="CL33" s="5">
-        <f>CK33*(1+$R$26)</f>
-        <v>3386.1187945131373</v>
+        <f t="shared" si="45"/>
+        <v>3112.5943338065258</v>
       </c>
       <c r="CM33" s="5">
-        <f>CL33*(1+$R$26)</f>
-        <v>3352.2576065680059</v>
+        <f t="shared" si="45"/>
+        <v>3081.4683904684607</v>
       </c>
       <c r="CN33" s="5">
-        <f>CM33*(1+$R$26)</f>
-        <v>3318.735030502326</v>
+        <f t="shared" si="45"/>
+        <v>3050.6537065637763</v>
       </c>
       <c r="CO33" s="5">
-        <f>CN33*(1+$R$26)</f>
-        <v>3285.5476801973027</v>
+        <f t="shared" si="45"/>
+        <v>3020.1471694981383</v>
       </c>
       <c r="CP33" s="5">
-        <f>CO33*(1+$R$26)</f>
-        <v>3252.6922033953297</v>
+        <f t="shared" si="45"/>
+        <v>2989.9456978031567</v>
       </c>
       <c r="CQ33" s="5">
-        <f>CP33*(1+$R$26)</f>
-        <v>3220.1652813613764</v>
+        <f t="shared" si="45"/>
+        <v>2960.0462408251251</v>
       </c>
       <c r="CR33" s="5">
-        <f>CQ33*(1+$R$26)</f>
-        <v>3187.9636285477627</v>
+        <f t="shared" si="45"/>
+        <v>2930.445778416874</v>
       </c>
       <c r="CS33" s="5">
-        <f>CR33*(1+$R$26)</f>
-        <v>3156.0839922622849</v>
+        <f t="shared" si="45"/>
+        <v>2901.1413206327052</v>
       </c>
       <c r="CT33" s="5">
-        <f>CS33*(1+$R$26)</f>
-        <v>3124.5231523396619</v>
+        <f t="shared" si="45"/>
+        <v>2872.1299074263779</v>
       </c>
       <c r="CU33" s="5">
-        <f>CT33*(1+$R$26)</f>
-        <v>3093.2779208162651</v>
+        <f t="shared" si="45"/>
+        <v>2843.4086083521142</v>
       </c>
       <c r="CV33" s="5">
-        <f>CU33*(1+$R$26)</f>
-        <v>3062.3451416081025</v>
+        <f t="shared" si="45"/>
+        <v>2814.9745222685929</v>
       </c>
     </row>
     <row r="34" spans="2:100" x14ac:dyDescent="0.2">
@@ -2403,44 +2408,44 @@
         <v>-22846</v>
       </c>
       <c r="F35" s="3">
-        <f>E35+F21</f>
-        <v>-18194.308000000001</v>
+        <f t="shared" ref="F35:O35" si="46">E35+F21</f>
+        <v>-18277.804</v>
       </c>
       <c r="G35" s="3">
-        <f>F35+G21</f>
-        <v>-13310.500248000002</v>
+        <f t="shared" si="46"/>
+        <v>-13565.664024</v>
       </c>
       <c r="H35" s="3">
-        <f>G35+H21</f>
-        <v>-8185.8453579680026</v>
+        <f t="shared" si="46"/>
+        <v>-8705.707819184001</v>
       </c>
       <c r="I35" s="3">
-        <f>H35+I21</f>
-        <v>-2811.3102407314891</v>
+        <f t="shared" si="46"/>
+        <v>-3693.9510603669478</v>
       </c>
       <c r="J35" s="3">
-        <f>I35+J21</f>
-        <v>2822.4500422994861</v>
+        <f t="shared" si="46"/>
+        <v>1473.7063213197007</v>
       </c>
       <c r="K35" s="3">
-        <f>J35+K21</f>
-        <v>8628.3080175726336</v>
+        <f t="shared" si="46"/>
+        <v>6801.4839423447129</v>
       </c>
       <c r="L35" s="3">
-        <f>K35+L21</f>
-        <v>14610.843628050763</v>
+        <f t="shared" si="46"/>
+        <v>12293.724908359614</v>
       </c>
       <c r="M35" s="3">
-        <f>L35+M21</f>
-        <v>20774.768631767343</v>
+        <f t="shared" si="46"/>
+        <v>17954.899898708958</v>
       </c>
       <c r="N35" s="3">
-        <f>M35+N21</f>
-        <v>27124.930907114849</v>
+        <f t="shared" si="46"/>
+        <v>23789.611399336831</v>
       </c>
       <c r="O35" s="3">
-        <f>N35+O21</f>
-        <v>33666.318913415686</v>
+        <f t="shared" si="46"/>
+        <v>29802.598089772611</v>
       </c>
     </row>
     <row r="37" spans="2:100" x14ac:dyDescent="0.2">

--- a/OXY.xlsx
+++ b/OXY.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA0C5614-D979-4E96-82C3-D5E37685600B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D51E2F70-77EA-4274-87F3-F2F8D0DD13A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21945" windowHeight="13935" activeTab="1" xr2:uid="{08012682-0F50-4229-84EC-14421E66CA3F}"/>
+    <workbookView xWindow="1560" yWindow="1650" windowWidth="23385" windowHeight="13110" activeTab="1" xr2:uid="{08012682-0F50-4229-84EC-14421E66CA3F}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="42">
   <si>
     <t>Price</t>
   </si>
@@ -57,9 +57,6 @@
     <t>EV</t>
   </si>
   <si>
-    <t>Q424</t>
-  </si>
-  <si>
     <t>Revenue</t>
   </si>
   <si>
@@ -160,19 +157,31 @@
   </si>
   <si>
     <t>Share</t>
+  </si>
+  <si>
+    <t>Q125</t>
+  </si>
+  <si>
+    <t>PP&amp;E</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -221,20 +230,22 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -266,7 +277,7 @@
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -626,11 +637,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E39E9A49-802E-4E87-81BC-A60DBADF9707}">
-  <dimension ref="A1:P7"/>
+  <dimension ref="A1:P10"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
-    </sheetView>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -645,7 +654,7 @@
         <v>0</v>
       </c>
       <c r="O2" s="10">
-        <v>42.5</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
@@ -653,10 +662,11 @@
         <v>1</v>
       </c>
       <c r="O3" s="3">
-        <v>938.5</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>6</v>
+        <f>984.132</f>
+        <v>984.13199999999995</v>
+      </c>
+      <c r="P3" s="12" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
@@ -665,7 +675,7 @@
       </c>
       <c r="O4" s="3">
         <f>O2*O3</f>
-        <v>39886.25</v>
+        <v>43301.807999999997</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
@@ -673,10 +683,10 @@
         <v>4</v>
       </c>
       <c r="O5" s="3">
-        <v>2132</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>6</v>
+        <v>2612</v>
+      </c>
+      <c r="P5" s="12" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
@@ -684,10 +694,10 @@
         <v>3</v>
       </c>
       <c r="O6" s="3">
-        <v>24978</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>6</v>
+        <v>24037</v>
+      </c>
+      <c r="P6" s="12" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
@@ -696,8 +706,14 @@
       </c>
       <c r="O7" s="3">
         <f>O4+O6-O5</f>
-        <v>62732.25</v>
-      </c>
+        <v>64726.80799999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P8" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P10" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -709,10 +725,10 @@
   <dimension ref="A1:CV39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="L9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="J16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S26" sqref="S26"/>
+      <selection pane="bottomRight" activeCell="R26" sqref="R26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -724,7 +740,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
@@ -782,7 +798,7 @@
     </row>
     <row r="3" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" s="5">
         <v>36634</v>
@@ -836,7 +852,7 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" s="3">
         <v>4028</v>
@@ -850,7 +866,7 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B5" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" s="3">
         <v>1475</v>
@@ -864,7 +880,7 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" s="3">
         <v>3273</v>
@@ -878,7 +894,7 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" s="3">
         <v>3287</v>
@@ -892,7 +908,7 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" s="3">
         <f>SUM(C4:C7)</f>
@@ -949,7 +965,7 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" s="3">
         <f>C3-C8</f>
@@ -1006,7 +1022,7 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C10" s="3">
         <v>945</v>
@@ -1020,7 +1036,7 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B11" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" s="3">
         <v>1271</v>
@@ -1034,7 +1050,7 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B12" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C12" s="3">
         <v>1271</v>
@@ -1048,7 +1064,7 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B13" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13" s="3">
         <v>6926</v>
@@ -1062,7 +1078,7 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B14" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C14" s="3">
         <v>216</v>
@@ -1076,7 +1092,7 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B15" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C15" s="3">
         <f>SUM(C10:C14)</f>
@@ -1133,7 +1149,7 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B16" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C16" s="3">
         <f>C9-C15</f>
@@ -1190,7 +1206,7 @@
     </row>
     <row r="17" spans="2:99" x14ac:dyDescent="0.2">
       <c r="B17" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="3">
         <v>-1030</v>
@@ -1244,7 +1260,7 @@
     </row>
     <row r="18" spans="2:99" x14ac:dyDescent="0.2">
       <c r="B18" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C18" s="3">
         <v>793</v>
@@ -1298,7 +1314,7 @@
     </row>
     <row r="19" spans="2:99" x14ac:dyDescent="0.2">
       <c r="B19" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C19" s="3">
         <f>C16+SUM(C17:C18)</f>
@@ -1355,7 +1371,7 @@
     </row>
     <row r="20" spans="2:99" x14ac:dyDescent="0.2">
       <c r="B20" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C20" s="3">
         <v>813</v>
@@ -1409,7 +1425,7 @@
     </row>
     <row r="21" spans="2:99" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" s="5">
         <f>C19-C20</f>
@@ -1465,354 +1481,359 @@
       </c>
       <c r="P21" s="5">
         <f t="shared" ref="P21:AU21" si="32">O21*(1+$R$26)</f>
-        <v>5952.8568235314215</v>
+        <v>6012.9866904357796</v>
       </c>
       <c r="Q21" s="5">
         <f t="shared" si="32"/>
-        <v>5893.3282552961073</v>
+        <v>6012.9866904357796</v>
       </c>
       <c r="R21" s="5">
         <f t="shared" si="32"/>
-        <v>5834.3949727431464</v>
+        <v>6012.9866904357796</v>
       </c>
       <c r="S21" s="5">
         <f t="shared" si="32"/>
-        <v>5776.0510230157151</v>
+        <v>6012.9866904357796</v>
       </c>
       <c r="T21" s="5">
         <f t="shared" si="32"/>
-        <v>5718.2905127855583</v>
+        <v>6012.9866904357796</v>
       </c>
       <c r="U21" s="5">
         <f t="shared" si="32"/>
-        <v>5661.1076076577028</v>
+        <v>6012.9866904357796</v>
       </c>
       <c r="V21" s="5">
         <f t="shared" si="32"/>
-        <v>5604.496531581126</v>
+        <v>6012.9866904357796</v>
       </c>
       <c r="W21" s="5">
         <f t="shared" si="32"/>
-        <v>5548.4515662653148</v>
+        <v>6012.9866904357796</v>
       </c>
       <c r="X21" s="5">
         <f t="shared" si="32"/>
-        <v>5492.9670506026614</v>
+        <v>6012.9866904357796</v>
       </c>
       <c r="Y21" s="5">
         <f t="shared" si="32"/>
-        <v>5438.0373800966345</v>
+        <v>6012.9866904357796</v>
       </c>
       <c r="Z21" s="5">
         <f t="shared" si="32"/>
-        <v>5383.657006295668</v>
+        <v>6012.9866904357796</v>
       </c>
       <c r="AA21" s="5">
         <f t="shared" si="32"/>
-        <v>5329.8204362327115</v>
+        <v>6012.9866904357796</v>
       </c>
       <c r="AB21" s="5">
         <f t="shared" si="32"/>
-        <v>5276.5222318703845</v>
+        <v>6012.9866904357796</v>
       </c>
       <c r="AC21" s="5">
         <f t="shared" si="32"/>
-        <v>5223.7570095516803</v>
+        <v>6012.9866904357796</v>
       </c>
       <c r="AD21" s="5">
         <f t="shared" si="32"/>
-        <v>5171.5194394561631</v>
+        <v>6012.9866904357796</v>
       </c>
       <c r="AE21" s="5">
         <f t="shared" si="32"/>
-        <v>5119.8042450616013</v>
+        <v>6012.9866904357796</v>
       </c>
       <c r="AF21" s="5">
         <f t="shared" si="32"/>
-        <v>5068.6062026109848</v>
+        <v>6012.9866904357796</v>
       </c>
       <c r="AG21" s="5">
         <f t="shared" si="32"/>
-        <v>5017.9201405848753</v>
+        <v>6012.9866904357796</v>
       </c>
       <c r="AH21" s="5">
         <f t="shared" si="32"/>
-        <v>4967.7409391790261</v>
+        <v>6012.9866904357796</v>
       </c>
       <c r="AI21" s="5">
         <f t="shared" si="32"/>
-        <v>4918.0635297872359</v>
+        <v>6012.9866904357796</v>
       </c>
       <c r="AJ21" s="5">
         <f t="shared" si="32"/>
-        <v>4868.8828944893639</v>
+        <v>6012.9866904357796</v>
       </c>
       <c r="AK21" s="5">
         <f t="shared" si="32"/>
-        <v>4820.1940655444705</v>
+        <v>6012.9866904357796</v>
       </c>
       <c r="AL21" s="5">
         <f t="shared" si="32"/>
-        <v>4771.9921248890259</v>
+        <v>6012.9866904357796</v>
       </c>
       <c r="AM21" s="5">
         <f t="shared" si="32"/>
-        <v>4724.2722036401356</v>
+        <v>6012.9866904357796</v>
       </c>
       <c r="AN21" s="5">
         <f t="shared" si="32"/>
-        <v>4677.029481603734</v>
+        <v>6012.9866904357796</v>
       </c>
       <c r="AO21" s="5">
         <f t="shared" si="32"/>
-        <v>4630.2591867876963</v>
+        <v>6012.9866904357796</v>
       </c>
       <c r="AP21" s="5">
         <f t="shared" si="32"/>
-        <v>4583.9565949198195</v>
+        <v>6012.9866904357796</v>
       </c>
       <c r="AQ21" s="5">
         <f t="shared" si="32"/>
-        <v>4538.1170289706215</v>
+        <v>6012.9866904357796</v>
       </c>
       <c r="AR21" s="5">
         <f t="shared" si="32"/>
-        <v>4492.735858680915</v>
+        <v>6012.9866904357796</v>
       </c>
       <c r="AS21" s="5">
         <f t="shared" si="32"/>
-        <v>4447.8085000941055</v>
+        <v>6012.9866904357796</v>
       </c>
       <c r="AT21" s="5">
         <f t="shared" si="32"/>
-        <v>4403.3304150931644</v>
+        <v>6012.9866904357796</v>
       </c>
       <c r="AU21" s="5">
         <f t="shared" si="32"/>
-        <v>4359.2971109422324</v>
+        <v>6012.9866904357796</v>
       </c>
       <c r="AV21" s="5">
         <f t="shared" ref="AV21:CA21" si="33">AU21*(1+$R$26)</f>
-        <v>4315.7041398328101</v>
+        <v>6012.9866904357796</v>
       </c>
       <c r="AW21" s="5">
         <f t="shared" si="33"/>
-        <v>4272.547098434482</v>
+        <v>6012.9866904357796</v>
       </c>
       <c r="AX21" s="5">
         <f t="shared" si="33"/>
-        <v>4229.8216274501374</v>
+        <v>6012.9866904357796</v>
       </c>
       <c r="AY21" s="5">
         <f t="shared" si="33"/>
-        <v>4187.5234111756363</v>
+        <v>6012.9866904357796</v>
       </c>
       <c r="AZ21" s="5">
         <f t="shared" si="33"/>
-        <v>4145.6481770638802</v>
+        <v>6012.9866904357796</v>
       </c>
       <c r="BA21" s="5">
         <f t="shared" si="33"/>
-        <v>4104.1916952932415</v>
+        <v>6012.9866904357796</v>
       </c>
       <c r="BB21" s="5">
         <f t="shared" si="33"/>
-        <v>4063.1497783403092</v>
+        <v>6012.9866904357796</v>
       </c>
       <c r="BC21" s="5">
         <f t="shared" si="33"/>
-        <v>4022.5182805569061</v>
+        <v>6012.9866904357796</v>
       </c>
       <c r="BD21" s="5">
         <f t="shared" si="33"/>
-        <v>3982.293097751337</v>
+        <v>6012.9866904357796</v>
       </c>
       <c r="BE21" s="5">
         <f t="shared" si="33"/>
-        <v>3942.4701667738236</v>
+        <v>6012.9866904357796</v>
       </c>
       <c r="BF21" s="5">
         <f t="shared" si="33"/>
-        <v>3903.0454651060854</v>
+        <v>6012.9866904357796</v>
       </c>
       <c r="BG21" s="5">
         <f t="shared" si="33"/>
-        <v>3864.0150104550244</v>
+        <v>6012.9866904357796</v>
       </c>
       <c r="BH21" s="5">
         <f t="shared" si="33"/>
-        <v>3825.3748603504741</v>
+        <v>6012.9866904357796</v>
       </c>
       <c r="BI21" s="5">
         <f t="shared" si="33"/>
-        <v>3787.1211117469693</v>
+        <v>6012.9866904357796</v>
       </c>
       <c r="BJ21" s="5">
         <f t="shared" si="33"/>
-        <v>3749.2499006294997</v>
+        <v>6012.9866904357796</v>
       </c>
       <c r="BK21" s="5">
         <f t="shared" si="33"/>
-        <v>3711.7574016232047</v>
+        <v>6012.9866904357796</v>
       </c>
       <c r="BL21" s="5">
         <f t="shared" si="33"/>
-        <v>3674.6398276069726</v>
+        <v>6012.9866904357796</v>
       </c>
       <c r="BM21" s="5">
         <f t="shared" si="33"/>
-        <v>3637.893429330903</v>
+        <v>6012.9866904357796</v>
       </c>
       <c r="BN21" s="5">
         <f t="shared" si="33"/>
-        <v>3601.5144950375939</v>
+        <v>6012.9866904357796</v>
       </c>
       <c r="BO21" s="5">
         <f t="shared" si="33"/>
-        <v>3565.4993500872179</v>
+        <v>6012.9866904357796</v>
       </c>
       <c r="BP21" s="5">
         <f t="shared" si="33"/>
-        <v>3529.8443565863458</v>
+        <v>6012.9866904357796</v>
       </c>
       <c r="BQ21" s="5">
         <f t="shared" si="33"/>
-        <v>3494.5459130204822</v>
+        <v>6012.9866904357796</v>
       </c>
       <c r="BR21" s="5">
         <f t="shared" si="33"/>
-        <v>3459.6004538902775</v>
+        <v>6012.9866904357796</v>
       </c>
       <c r="BS21" s="5">
         <f t="shared" si="33"/>
-        <v>3425.0044493513747</v>
+        <v>6012.9866904357796</v>
       </c>
       <c r="BT21" s="5">
         <f t="shared" si="33"/>
-        <v>3390.7544048578607</v>
+        <v>6012.9866904357796</v>
       </c>
       <c r="BU21" s="5">
         <f t="shared" si="33"/>
-        <v>3356.8468608092821</v>
+        <v>6012.9866904357796</v>
       </c>
       <c r="BV21" s="5">
         <f t="shared" si="33"/>
-        <v>3323.2783922011895</v>
+        <v>6012.9866904357796</v>
       </c>
       <c r="BW21" s="5">
         <f t="shared" si="33"/>
-        <v>3290.0456082791775</v>
+        <v>6012.9866904357796</v>
       </c>
       <c r="BX21" s="5">
         <f t="shared" si="33"/>
-        <v>3257.1451521963859</v>
+        <v>6012.9866904357796</v>
       </c>
       <c r="BY21" s="5">
         <f t="shared" si="33"/>
-        <v>3224.5737006744221</v>
+        <v>6012.9866904357796</v>
       </c>
       <c r="BZ21" s="5">
         <f t="shared" si="33"/>
-        <v>3192.327963667678</v>
+        <v>6012.9866904357796</v>
       </c>
       <c r="CA21" s="5">
         <f t="shared" si="33"/>
-        <v>3160.4046840310011</v>
+        <v>6012.9866904357796</v>
       </c>
       <c r="CB21" s="5">
         <f t="shared" ref="CB21:CU21" si="34">CA21*(1+$R$26)</f>
-        <v>3128.8006371906913</v>
+        <v>6012.9866904357796</v>
       </c>
       <c r="CC21" s="5">
         <f t="shared" si="34"/>
-        <v>3097.5126308187841</v>
+        <v>6012.9866904357796</v>
       </c>
       <c r="CD21" s="5">
         <f t="shared" si="34"/>
-        <v>3066.5375045105961</v>
+        <v>6012.9866904357796</v>
       </c>
       <c r="CE21" s="5">
         <f t="shared" si="34"/>
-        <v>3035.8721294654902</v>
+        <v>6012.9866904357796</v>
       </c>
       <c r="CF21" s="5">
         <f t="shared" si="34"/>
-        <v>3005.5134081708352</v>
+        <v>6012.9866904357796</v>
       </c>
       <c r="CG21" s="5">
         <f t="shared" si="34"/>
-        <v>2975.4582740891269</v>
+        <v>6012.9866904357796</v>
       </c>
       <c r="CH21" s="5">
         <f t="shared" si="34"/>
-        <v>2945.7036913482357</v>
+        <v>6012.9866904357796</v>
       </c>
       <c r="CI21" s="5">
         <f t="shared" si="34"/>
-        <v>2916.2466544347535</v>
+        <v>6012.9866904357796</v>
       </c>
       <c r="CJ21" s="5">
         <f t="shared" si="34"/>
-        <v>2887.0841878904062</v>
+        <v>6012.9866904357796</v>
       </c>
       <c r="CK21" s="5">
         <f t="shared" si="34"/>
-        <v>2858.2133460115019</v>
+        <v>6012.9866904357796</v>
       </c>
       <c r="CL21" s="5">
         <f t="shared" si="34"/>
-        <v>2829.6312125513869</v>
+        <v>6012.9866904357796</v>
       </c>
       <c r="CM21" s="5">
         <f t="shared" si="34"/>
-        <v>2801.334900425873</v>
+        <v>6012.9866904357796</v>
       </c>
       <c r="CN21" s="5">
         <f t="shared" si="34"/>
-        <v>2773.3215514216145</v>
+        <v>6012.9866904357796</v>
       </c>
       <c r="CO21" s="5">
         <f t="shared" si="34"/>
-        <v>2745.5883359073982</v>
+        <v>6012.9866904357796</v>
       </c>
       <c r="CP21" s="5">
         <f t="shared" si="34"/>
-        <v>2718.1324525483242</v>
+        <v>6012.9866904357796</v>
       </c>
       <c r="CQ21" s="5">
         <f t="shared" si="34"/>
-        <v>2690.9511280228407</v>
+        <v>6012.9866904357796</v>
       </c>
       <c r="CR21" s="5">
         <f t="shared" si="34"/>
-        <v>2664.0416167426124</v>
+        <v>6012.9866904357796</v>
       </c>
       <c r="CS21" s="5">
         <f t="shared" si="34"/>
-        <v>2637.4012005751861</v>
+        <v>6012.9866904357796</v>
       </c>
       <c r="CT21" s="5">
         <f t="shared" si="34"/>
-        <v>2611.0271885694342</v>
+        <v>6012.9866904357796</v>
       </c>
       <c r="CU21" s="5">
         <f t="shared" si="34"/>
-        <v>2584.9169166837401</v>
+        <v>6012.9866904357796</v>
       </c>
     </row>
     <row r="22" spans="2:99" x14ac:dyDescent="0.2">
       <c r="B22" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="F22" s="6">
+        <f>F21/E21-1</f>
+        <v>0.11883321087435705</v>
       </c>
     </row>
     <row r="23" spans="2:99" x14ac:dyDescent="0.2">
       <c r="B23" s="3" t="s">
         <v>1</v>
       </c>
+      <c r="L23" s="6"/>
     </row>
     <row r="25" spans="2:99" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D25" s="7">
         <f>D3/C3-1</f>
@@ -1863,7 +1884,7 @@
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="Q25" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R25" s="6">
         <v>0.02</v>
@@ -1871,15 +1892,15 @@
     </row>
     <row r="26" spans="2:99" x14ac:dyDescent="0.2">
       <c r="Q26" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R26" s="6">
-        <v>-0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="2:99" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C27" s="7">
         <f>C9/C3</f>
@@ -1924,7 +1945,7 @@
         <v>0.62</v>
       </c>
       <c r="Q27" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R27" s="8">
         <v>7.4999999999999997E-2</v>
@@ -1932,38 +1953,38 @@
     </row>
     <row r="28" spans="2:99" x14ac:dyDescent="0.2">
       <c r="B28" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E28" s="6"/>
       <c r="Q28" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R28" s="5">
         <f>NPV(R27,F33:XFD33)+Main!O5-Main!O6</f>
-        <v>53535.920921742611</v>
+        <v>58824.91282560461</v>
       </c>
     </row>
     <row r="29" spans="2:99" x14ac:dyDescent="0.2">
       <c r="B29" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q29" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R29" s="10">
         <f>R28/Main!O3</f>
-        <v>57.044135238937251</v>
+        <v>59.773397090638873</v>
       </c>
     </row>
     <row r="30" spans="2:99" x14ac:dyDescent="0.2">
       <c r="R30" s="6">
         <f>R29/Main!O2-1</f>
-        <v>0.3422149467985236</v>
+        <v>0.35848629751451977</v>
       </c>
     </row>
     <row r="31" spans="2:99" x14ac:dyDescent="0.2">
       <c r="B31" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C31" s="3">
         <v>16810</v>
@@ -1977,7 +1998,7 @@
     </row>
     <row r="32" spans="2:99" x14ac:dyDescent="0.2">
       <c r="B32" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C32" s="3">
         <v>4497</v>
@@ -1991,7 +2012,7 @@
     </row>
     <row r="33" spans="2:100" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B33" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C33" s="5">
         <f>C31-C32</f>
@@ -2006,384 +2027,384 @@
         <v>4421</v>
       </c>
       <c r="F33" s="5">
-        <f t="shared" ref="F33:O33" si="42">F21*1.1</f>
-        <v>5025.0156000000006</v>
+        <f>F21*1.08</f>
+        <v>4933.6516799999999</v>
       </c>
       <c r="G33" s="5">
-        <f t="shared" si="42"/>
-        <v>5183.3539736000012</v>
+        <f t="shared" ref="G33:O33" si="42">G21*1.08</f>
+        <v>5089.1111740800006</v>
       </c>
       <c r="H33" s="5">
         <f t="shared" si="42"/>
-        <v>5345.9518252976004</v>
+        <v>5248.7527012012797</v>
       </c>
       <c r="I33" s="5">
         <f t="shared" si="42"/>
-        <v>5512.9324346987587</v>
+        <v>5412.6972995224178</v>
       </c>
       <c r="J33" s="5">
         <f t="shared" si="42"/>
-        <v>5684.4231198553134</v>
+        <v>5581.0699722215804</v>
       </c>
       <c r="K33" s="5">
         <f t="shared" si="42"/>
-        <v>5860.5553831275138</v>
+        <v>5753.9998307070136</v>
       </c>
       <c r="L33" s="5">
         <f t="shared" si="42"/>
-        <v>6041.4650626163912</v>
+        <v>5931.6202432960927</v>
       </c>
       <c r="M33" s="5">
         <f t="shared" si="42"/>
-        <v>6227.2924893842765</v>
+        <v>6114.0689895772894</v>
       </c>
       <c r="N33" s="5">
         <f t="shared" si="42"/>
-        <v>6418.1826506906609</v>
+        <v>6301.4884206781026</v>
       </c>
       <c r="O33" s="5">
         <f t="shared" si="42"/>
-        <v>6614.2853594793578</v>
+        <v>6494.0256256706425</v>
       </c>
       <c r="P33" s="5">
         <f t="shared" ref="P33:AU33" si="43">O33*(1+$R$26)</f>
-        <v>6548.1425058845643</v>
+        <v>6494.0256256706425</v>
       </c>
       <c r="Q33" s="5">
         <f t="shared" si="43"/>
-        <v>6482.6610808257183</v>
+        <v>6494.0256256706425</v>
       </c>
       <c r="R33" s="5">
         <f t="shared" si="43"/>
-        <v>6417.8344700174612</v>
+        <v>6494.0256256706425</v>
       </c>
       <c r="S33" s="5">
         <f t="shared" si="43"/>
-        <v>6353.6561253172868</v>
+        <v>6494.0256256706425</v>
       </c>
       <c r="T33" s="5">
         <f t="shared" si="43"/>
-        <v>6290.1195640641135</v>
+        <v>6494.0256256706425</v>
       </c>
       <c r="U33" s="5">
         <f t="shared" si="43"/>
-        <v>6227.2183684234724</v>
+        <v>6494.0256256706425</v>
       </c>
       <c r="V33" s="5">
         <f t="shared" si="43"/>
-        <v>6164.9461847392377</v>
+        <v>6494.0256256706425</v>
       </c>
       <c r="W33" s="5">
         <f t="shared" si="43"/>
-        <v>6103.2967228918451</v>
+        <v>6494.0256256706425</v>
       </c>
       <c r="X33" s="5">
         <f t="shared" si="43"/>
-        <v>6042.263755662927</v>
+        <v>6494.0256256706425</v>
       </c>
       <c r="Y33" s="5">
         <f t="shared" si="43"/>
-        <v>5981.8411181062975</v>
+        <v>6494.0256256706425</v>
       </c>
       <c r="Z33" s="5">
         <f t="shared" si="43"/>
-        <v>5922.0227069252342</v>
+        <v>6494.0256256706425</v>
       </c>
       <c r="AA33" s="5">
         <f t="shared" si="43"/>
-        <v>5862.8024798559818</v>
+        <v>6494.0256256706425</v>
       </c>
       <c r="AB33" s="5">
         <f t="shared" si="43"/>
-        <v>5804.1744550574222</v>
+        <v>6494.0256256706425</v>
       </c>
       <c r="AC33" s="5">
         <f t="shared" si="43"/>
-        <v>5746.1327105068476</v>
+        <v>6494.0256256706425</v>
       </c>
       <c r="AD33" s="5">
         <f t="shared" si="43"/>
-        <v>5688.6713834017792</v>
+        <v>6494.0256256706425</v>
       </c>
       <c r="AE33" s="5">
         <f t="shared" si="43"/>
-        <v>5631.7846695677617</v>
+        <v>6494.0256256706425</v>
       </c>
       <c r="AF33" s="5">
         <f t="shared" si="43"/>
-        <v>5575.4668228720839</v>
+        <v>6494.0256256706425</v>
       </c>
       <c r="AG33" s="5">
         <f t="shared" si="43"/>
-        <v>5519.7121546433627</v>
+        <v>6494.0256256706425</v>
       </c>
       <c r="AH33" s="5">
         <f t="shared" si="43"/>
-        <v>5464.5150330969291</v>
+        <v>6494.0256256706425</v>
       </c>
       <c r="AI33" s="5">
         <f t="shared" si="43"/>
-        <v>5409.86988276596</v>
+        <v>6494.0256256706425</v>
       </c>
       <c r="AJ33" s="5">
         <f t="shared" si="43"/>
-        <v>5355.7711839383001</v>
+        <v>6494.0256256706425</v>
       </c>
       <c r="AK33" s="5">
         <f t="shared" si="43"/>
-        <v>5302.213472098917</v>
+        <v>6494.0256256706425</v>
       </c>
       <c r="AL33" s="5">
         <f t="shared" si="43"/>
-        <v>5249.191337377928</v>
+        <v>6494.0256256706425</v>
       </c>
       <c r="AM33" s="5">
         <f t="shared" si="43"/>
-        <v>5196.6994240041486</v>
+        <v>6494.0256256706425</v>
       </c>
       <c r="AN33" s="5">
         <f t="shared" si="43"/>
-        <v>5144.7324297641071</v>
+        <v>6494.0256256706425</v>
       </c>
       <c r="AO33" s="5">
         <f t="shared" si="43"/>
-        <v>5093.2851054664661</v>
+        <v>6494.0256256706425</v>
       </c>
       <c r="AP33" s="5">
         <f t="shared" si="43"/>
-        <v>5042.3522544118014</v>
+        <v>6494.0256256706425</v>
       </c>
       <c r="AQ33" s="5">
         <f t="shared" si="43"/>
-        <v>4991.9287318676834</v>
+        <v>6494.0256256706425</v>
       </c>
       <c r="AR33" s="5">
         <f t="shared" si="43"/>
-        <v>4942.0094445490067</v>
+        <v>6494.0256256706425</v>
       </c>
       <c r="AS33" s="5">
         <f t="shared" si="43"/>
-        <v>4892.5893501035171</v>
+        <v>6494.0256256706425</v>
       </c>
       <c r="AT33" s="5">
         <f t="shared" si="43"/>
-        <v>4843.6634566024823</v>
+        <v>6494.0256256706425</v>
       </c>
       <c r="AU33" s="5">
         <f t="shared" si="43"/>
-        <v>4795.2268220364576</v>
+        <v>6494.0256256706425</v>
       </c>
       <c r="AV33" s="5">
         <f t="shared" ref="AV33:CA33" si="44">AU33*(1+$R$26)</f>
-        <v>4747.2745538160934</v>
+        <v>6494.0256256706425</v>
       </c>
       <c r="AW33" s="5">
         <f t="shared" si="44"/>
-        <v>4699.8018082779327</v>
+        <v>6494.0256256706425</v>
       </c>
       <c r="AX33" s="5">
         <f t="shared" si="44"/>
-        <v>4652.8037901951529</v>
+        <v>6494.0256256706425</v>
       </c>
       <c r="AY33" s="5">
         <f t="shared" si="44"/>
-        <v>4606.2757522932015</v>
+        <v>6494.0256256706425</v>
       </c>
       <c r="AZ33" s="5">
         <f t="shared" si="44"/>
-        <v>4560.2129947702697</v>
+        <v>6494.0256256706425</v>
       </c>
       <c r="BA33" s="5">
         <f t="shared" si="44"/>
-        <v>4514.6108648225672</v>
+        <v>6494.0256256706425</v>
       </c>
       <c r="BB33" s="5">
         <f t="shared" si="44"/>
-        <v>4469.4647561743413</v>
+        <v>6494.0256256706425</v>
       </c>
       <c r="BC33" s="5">
         <f t="shared" si="44"/>
-        <v>4424.7701086125981</v>
+        <v>6494.0256256706425</v>
       </c>
       <c r="BD33" s="5">
         <f t="shared" si="44"/>
-        <v>4380.5224075264723</v>
+        <v>6494.0256256706425</v>
       </c>
       <c r="BE33" s="5">
         <f t="shared" si="44"/>
-        <v>4336.7171834512073</v>
+        <v>6494.0256256706425</v>
       </c>
       <c r="BF33" s="5">
         <f t="shared" si="44"/>
-        <v>4293.3500116166952</v>
+        <v>6494.0256256706425</v>
       </c>
       <c r="BG33" s="5">
         <f t="shared" si="44"/>
-        <v>4250.416511500528</v>
+        <v>6494.0256256706425</v>
       </c>
       <c r="BH33" s="5">
         <f t="shared" si="44"/>
-        <v>4207.9123463855231</v>
+        <v>6494.0256256706425</v>
       </c>
       <c r="BI33" s="5">
         <f t="shared" si="44"/>
-        <v>4165.8332229216676</v>
+        <v>6494.0256256706425</v>
       </c>
       <c r="BJ33" s="5">
         <f t="shared" si="44"/>
-        <v>4124.1748906924513</v>
+        <v>6494.0256256706425</v>
       </c>
       <c r="BK33" s="5">
         <f t="shared" si="44"/>
-        <v>4082.9331417855269</v>
+        <v>6494.0256256706425</v>
       </c>
       <c r="BL33" s="5">
         <f t="shared" si="44"/>
-        <v>4042.1038103676715</v>
+        <v>6494.0256256706425</v>
       </c>
       <c r="BM33" s="5">
         <f t="shared" si="44"/>
-        <v>4001.6827722639946</v>
+        <v>6494.0256256706425</v>
       </c>
       <c r="BN33" s="5">
         <f t="shared" si="44"/>
-        <v>3961.6659445413547</v>
+        <v>6494.0256256706425</v>
       </c>
       <c r="BO33" s="5">
         <f t="shared" si="44"/>
-        <v>3922.0492850959413</v>
+        <v>6494.0256256706425</v>
       </c>
       <c r="BP33" s="5">
         <f t="shared" si="44"/>
-        <v>3882.8287922449817</v>
+        <v>6494.0256256706425</v>
       </c>
       <c r="BQ33" s="5">
         <f t="shared" si="44"/>
-        <v>3844.0005043225319</v>
+        <v>6494.0256256706425</v>
       </c>
       <c r="BR33" s="5">
         <f t="shared" si="44"/>
-        <v>3805.5604992793064</v>
+        <v>6494.0256256706425</v>
       </c>
       <c r="BS33" s="5">
         <f t="shared" si="44"/>
-        <v>3767.5048942865133</v>
+        <v>6494.0256256706425</v>
       </c>
       <c r="BT33" s="5">
         <f t="shared" si="44"/>
-        <v>3729.8298453436482</v>
+        <v>6494.0256256706425</v>
       </c>
       <c r="BU33" s="5">
         <f t="shared" si="44"/>
-        <v>3692.5315468902118</v>
+        <v>6494.0256256706425</v>
       </c>
       <c r="BV33" s="5">
         <f t="shared" si="44"/>
-        <v>3655.6062314213095</v>
+        <v>6494.0256256706425</v>
       </c>
       <c r="BW33" s="5">
         <f t="shared" si="44"/>
-        <v>3619.0501691070963</v>
+        <v>6494.0256256706425</v>
       </c>
       <c r="BX33" s="5">
         <f t="shared" si="44"/>
-        <v>3582.8596674160253</v>
+        <v>6494.0256256706425</v>
       </c>
       <c r="BY33" s="5">
         <f t="shared" si="44"/>
-        <v>3547.0310707418648</v>
+        <v>6494.0256256706425</v>
       </c>
       <c r="BZ33" s="5">
         <f t="shared" si="44"/>
-        <v>3511.560760034446</v>
+        <v>6494.0256256706425</v>
       </c>
       <c r="CA33" s="5">
         <f t="shared" si="44"/>
-        <v>3476.4451524341016</v>
+        <v>6494.0256256706425</v>
       </c>
       <c r="CB33" s="5">
         <f t="shared" ref="CB33:CV33" si="45">CA33*(1+$R$26)</f>
-        <v>3441.6807009097606</v>
+        <v>6494.0256256706425</v>
       </c>
       <c r="CC33" s="5">
         <f t="shared" si="45"/>
-        <v>3407.2638939006629</v>
+        <v>6494.0256256706425</v>
       </c>
       <c r="CD33" s="5">
         <f t="shared" si="45"/>
-        <v>3373.1912549616563</v>
+        <v>6494.0256256706425</v>
       </c>
       <c r="CE33" s="5">
         <f t="shared" si="45"/>
-        <v>3339.4593424120399</v>
+        <v>6494.0256256706425</v>
       </c>
       <c r="CF33" s="5">
         <f t="shared" si="45"/>
-        <v>3306.0647489879193</v>
+        <v>6494.0256256706425</v>
       </c>
       <c r="CG33" s="5">
         <f t="shared" si="45"/>
-        <v>3273.0041014980402</v>
+        <v>6494.0256256706425</v>
       </c>
       <c r="CH33" s="5">
         <f t="shared" si="45"/>
-        <v>3240.2740604830597</v>
+        <v>6494.0256256706425</v>
       </c>
       <c r="CI33" s="5">
         <f t="shared" si="45"/>
-        <v>3207.8713198782289</v>
+        <v>6494.0256256706425</v>
       </c>
       <c r="CJ33" s="5">
         <f t="shared" si="45"/>
-        <v>3175.7926066794466</v>
+        <v>6494.0256256706425</v>
       </c>
       <c r="CK33" s="5">
         <f t="shared" si="45"/>
-        <v>3144.0346806126522</v>
+        <v>6494.0256256706425</v>
       </c>
       <c r="CL33" s="5">
         <f t="shared" si="45"/>
-        <v>3112.5943338065258</v>
+        <v>6494.0256256706425</v>
       </c>
       <c r="CM33" s="5">
         <f t="shared" si="45"/>
-        <v>3081.4683904684607</v>
+        <v>6494.0256256706425</v>
       </c>
       <c r="CN33" s="5">
         <f t="shared" si="45"/>
-        <v>3050.6537065637763</v>
+        <v>6494.0256256706425</v>
       </c>
       <c r="CO33" s="5">
         <f t="shared" si="45"/>
-        <v>3020.1471694981383</v>
+        <v>6494.0256256706425</v>
       </c>
       <c r="CP33" s="5">
         <f t="shared" si="45"/>
-        <v>2989.9456978031567</v>
+        <v>6494.0256256706425</v>
       </c>
       <c r="CQ33" s="5">
         <f t="shared" si="45"/>
-        <v>2960.0462408251251</v>
+        <v>6494.0256256706425</v>
       </c>
       <c r="CR33" s="5">
         <f t="shared" si="45"/>
-        <v>2930.445778416874</v>
+        <v>6494.0256256706425</v>
       </c>
       <c r="CS33" s="5">
         <f t="shared" si="45"/>
-        <v>2901.1413206327052</v>
+        <v>6494.0256256706425</v>
       </c>
       <c r="CT33" s="5">
         <f t="shared" si="45"/>
-        <v>2872.1299074263779</v>
+        <v>6494.0256256706425</v>
       </c>
       <c r="CU33" s="5">
         <f t="shared" si="45"/>
-        <v>2843.4086083521142</v>
+        <v>6494.0256256706425</v>
       </c>
       <c r="CV33" s="5">
         <f t="shared" si="45"/>
-        <v>2814.9745222685929</v>
+        <v>6494.0256256706425</v>
       </c>
     </row>
     <row r="34" spans="2:100" x14ac:dyDescent="0.2">
@@ -2401,10 +2422,10 @@
     </row>
     <row r="35" spans="2:100" x14ac:dyDescent="0.2">
       <c r="B35" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E35" s="3">
-        <f>E37-E39</f>
+        <f>E36-E39</f>
         <v>-22846</v>
       </c>
       <c r="F35" s="3">
@@ -2448,12 +2469,21 @@
         <v>29802.598089772611</v>
       </c>
     </row>
+    <row r="36" spans="2:100" x14ac:dyDescent="0.2">
+      <c r="B36" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36" s="6"/>
+      <c r="E36" s="3">
+        <v>2132</v>
+      </c>
+    </row>
     <row r="37" spans="2:100" x14ac:dyDescent="0.2">
-      <c r="B37" s="3" t="s">
-        <v>4</v>
+      <c r="B37" s="13" t="s">
+        <v>41</v>
       </c>
       <c r="E37" s="3">
-        <v>2132</v>
+        <v>68227</v>
       </c>
     </row>
     <row r="39" spans="2:100" x14ac:dyDescent="0.2">

--- a/OXY.xlsx
+++ b/OXY.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D51E2F70-77EA-4274-87F3-F2F8D0DD13A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D9304C8-5FF9-40EE-B950-7C84AB0052E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1650" windowWidth="23385" windowHeight="13110" activeTab="1" xr2:uid="{08012682-0F50-4229-84EC-14421E66CA3F}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="22200" windowHeight="14685" activeTab="1" xr2:uid="{08012682-0F50-4229-84EC-14421E66CA3F}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -728,7 +728,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="J16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R26" sqref="R26"/>
+      <selection pane="bottomRight" activeCell="R27" sqref="R27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/OXY.xlsx
+++ b/OXY.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\Documents\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D9304C8-5FF9-40EE-B950-7C84AB0052E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26678B56-CC2E-4BDB-B6CB-94B7A5B7D391}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="22200" windowHeight="14685" activeTab="1" xr2:uid="{08012682-0F50-4229-84EC-14421E66CA3F}"/>
+    <workbookView xWindow="2880" yWindow="795" windowWidth="22200" windowHeight="14685" activeTab="1" xr2:uid="{08012682-0F50-4229-84EC-14421E66CA3F}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -169,13 +169,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -230,22 +236,23 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -722,13 +729,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45FE0DD9-D054-412C-8D4F-F7B90108ECDA}">
-  <dimension ref="A1:CV39"/>
+  <dimension ref="A1:CV40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="J16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="I16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R27" sqref="R27"/>
+      <selection pane="bottomRight" activeCell="P33" sqref="P33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2425,7 +2432,7 @@
         <v>33</v>
       </c>
       <c r="E35" s="3">
-        <f>E36-E39</f>
+        <f>E36-E40</f>
         <v>-22846</v>
       </c>
       <c r="F35" s="3">
@@ -2485,12 +2492,16 @@
       <c r="E37" s="3">
         <v>68227</v>
       </c>
+      <c r="P37" s="14"/>
     </row>
     <row r="39" spans="2:100" x14ac:dyDescent="0.2">
-      <c r="B39" s="3" t="s">
+      <c r="E39" s="14"/>
+    </row>
+    <row r="40" spans="2:100" x14ac:dyDescent="0.2">
+      <c r="B40" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E39" s="3">
+      <c r="E40" s="3">
         <v>24978</v>
       </c>
     </row>

--- a/OXY.xlsx
+++ b/OXY.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\Documents\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26678B56-CC2E-4BDB-B6CB-94B7A5B7D391}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6A421AE-7F3C-48D2-8BA2-FBEDECC8F885}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2880" yWindow="795" windowWidth="22200" windowHeight="14685" activeTab="1" xr2:uid="{08012682-0F50-4229-84EC-14421E66CA3F}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="22200" windowHeight="14205" activeTab="1" xr2:uid="{08012682-0F50-4229-84EC-14421E66CA3F}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -732,10 +732,10 @@
   <dimension ref="A1:CV40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="I16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P33" sqref="P33"/>
+      <selection pane="bottomRight" activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
